--- a/fjl_sdlk.xlsx
+++ b/fjl_sdlk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\worktop\fjl_sdlk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438FC6EF-0FB4-44C1-A0DC-49075DF0EDAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65730D69-85A2-4F8B-90EE-2B37D65434F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2025" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="215">
   <si>
     <t>品名</t>
   </si>
@@ -228,10 +228,6 @@
   </si>
   <si>
     <t xml:space="preserve">QFZ </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>KMZ</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -873,6 +869,34 @@
   </si>
   <si>
     <t>XJ3-G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BH1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>220-24V电源  150W</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -943,7 +967,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -966,13 +990,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -995,6 +1030,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1337,21 +1378,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ALP112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="21.08984375" customWidth="1"/>
+    <col min="6" max="6" width="31.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,12 +1415,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1388,14 +1429,14 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1416,12 +1457,12 @@
         <v>454.3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -1429,18 +1470,20 @@
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1448,15 +1491,17 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
@@ -1467,13 +1512,15 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1486,13 +1533,15 @@
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1505,18 +1554,20 @@
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="9" t="s">
+        <v>212</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1524,18 +1575,20 @@
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>122</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1544,19 +1597,19 @@
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1565,19 +1618,19 @@
         <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1585,36 +1638,28 @@
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>70</v>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1623,12 +1668,12 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1637,19 +1682,19 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
         <v>29.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1658,14 +1703,14 @@
         <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1679,14 +1724,14 @@
         <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1700,19 +1745,19 @@
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1721,14 +1766,14 @@
         <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1737,12 +1782,12 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1751,14 +1796,14 @@
         <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
         <v>29.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1772,19 +1817,19 @@
         <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1793,14 +1838,14 @@
         <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
@@ -1809,35 +1854,35 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G25" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1846,19 +1891,19 @@
         <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -1867,19 +1912,19 @@
         <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -1888,19 +1933,19 @@
         <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -1909,14 +1954,14 @@
         <v>33</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -1930,35 +1975,35 @@
         <v>33</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1">
         <v>15.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1967,12 +2012,12 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1004" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1986,12 +2031,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1004" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -2005,12 +2050,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1004" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -2019,19 +2064,19 @@
         <v>35</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1004" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -2040,16 +2085,16 @@
         <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1004" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -2066,12 +2111,12 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1004" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -2080,16 +2125,16 @@
         <v>35</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1004" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3095,12 +3140,12 @@
       <c r="ALO39" s="4"/>
       <c r="ALP39" s="4"/>
     </row>
-    <row r="40" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1004" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -3109,19 +3154,19 @@
         <v>39</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1">
         <v>29.5</v>
       </c>
     </row>
-    <row r="41" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1004" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -3130,14 +3175,14 @@
         <v>39</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1004" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -3151,14 +3196,14 @@
         <v>39</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1004" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
@@ -3172,19 +3217,19 @@
         <v>39</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1004" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="1">
         <v>6</v>
@@ -3200,28 +3245,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1004" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1004" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
       <c r="C46" s="1"/>
@@ -3230,7 +3275,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1004" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="1"/>
@@ -3239,12 +3284,12 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1004" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" s="1">
         <v>5</v>
@@ -3253,19 +3298,19 @@
         <v>44</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1">
         <v>29.5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" s="1">
         <v>4</v>
@@ -3274,14 +3319,14 @@
         <v>44</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -3295,14 +3340,14 @@
         <v>44</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -3316,19 +3361,19 @@
         <v>44</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C52" s="1">
         <v>4</v>
@@ -3337,19 +3382,19 @@
         <v>44</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="1">
         <v>5</v>
@@ -3358,14 +3403,14 @@
         <v>44</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="3"/>
       <c r="C54" s="1"/>
@@ -3374,7 +3419,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="3"/>
       <c r="C55" s="1"/>
@@ -3383,7 +3428,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="1"/>
@@ -3392,12 +3437,12 @@
       <c r="F56" s="2"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="1">
         <v>3</v>
@@ -3406,7 +3451,7 @@
         <v>46</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>50</v>
@@ -3415,7 +3460,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -3429,7 +3474,7 @@
         <v>46</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>50</v>
@@ -3438,12 +3483,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C59" s="1">
         <v>3</v>
@@ -3452,7 +3497,7 @@
         <v>46</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>50</v>
@@ -3461,12 +3506,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="1">
         <v>3</v>
@@ -3475,7 +3520,7 @@
         <v>46</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>51</v>
@@ -3484,7 +3529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -3498,7 +3543,7 @@
         <v>46</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>51</v>
@@ -3507,12 +3552,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C62" s="1">
         <v>3</v>
@@ -3521,7 +3566,7 @@
         <v>46</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>51</v>
@@ -3530,12 +3575,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -3544,7 +3589,7 @@
         <v>46</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>54</v>
@@ -3553,7 +3598,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -3567,7 +3612,7 @@
         <v>46</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>54</v>
@@ -3576,12 +3621,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -3590,7 +3635,7 @@
         <v>46</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>54</v>
@@ -3599,12 +3644,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -3613,7 +3658,7 @@
         <v>46</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>48</v>
@@ -3622,12 +3667,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -3636,7 +3681,7 @@
         <v>46</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>48</v>
@@ -3645,12 +3690,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -3659,7 +3704,7 @@
         <v>46</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>48</v>
@@ -3668,12 +3713,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -3682,7 +3727,7 @@
         <v>46</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>53</v>
@@ -3691,7 +3736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>7</v>
       </c>
@@ -3705,7 +3750,7 @@
         <v>46</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>53</v>
@@ -3714,12 +3759,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -3728,7 +3773,7 @@
         <v>46</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>53</v>
@@ -3737,12 +3782,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="1">
         <v>2</v>
@@ -3758,12 +3803,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -3772,7 +3817,7 @@
         <v>46</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>57</v>
@@ -3781,7 +3826,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
@@ -3795,7 +3840,7 @@
         <v>46</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>57</v>
@@ -3804,12 +3849,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -3818,7 +3863,7 @@
         <v>46</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>47</v>
@@ -3827,7 +3872,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -3841,7 +3886,7 @@
         <v>46</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>47</v>
@@ -3850,21 +3895,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>47</v>
@@ -3873,7 +3918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>58</v>
       </c>
@@ -3888,7 +3933,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3897,12 +3942,12 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C80" s="1">
         <v>10</v>
@@ -3911,19 +3956,19 @@
         <v>60</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1">
         <v>13.5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C81" s="1">
         <v>5</v>
@@ -3932,19 +3977,19 @@
         <v>60</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" s="1">
         <v>2</v>
@@ -3953,14 +3998,14 @@
         <v>60</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
@@ -3974,19 +4019,19 @@
         <v>60</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -3998,12 +4043,12 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -4019,18 +4064,18 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="2" t="s">
@@ -4040,7 +4085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -4061,12 +4106,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -4082,7 +4127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -4099,7 +4144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4108,7 +4153,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4117,7 +4162,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4126,7 +4171,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4135,7 +4180,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4144,7 +4189,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4153,7 +4198,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4162,7 +4207,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4171,7 +4216,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4180,7 +4225,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4189,7 +4234,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4198,7 +4243,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4207,7 +4252,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4216,7 +4261,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4225,7 +4270,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4234,7 +4279,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4243,7 +4288,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4252,7 +4297,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4261,7 +4306,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4270,7 +4315,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4279,7 +4324,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4288,7 +4333,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4297,7 +4342,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4324,73 +4369,73 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D1" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" s="4" t="e">
         <f>SUBTOTAL(9,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="1">
         <f>SUBTOTAL(9,E2:E2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="1">
         <f>SUBTOTAL(9,E4:E4)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D7" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" s="1">
         <f>SUBTOTAL(9,E6:E6)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
@@ -4398,16 +4443,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="1">
         <f>SUBTOTAL(9,E8:E8)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4415,16 +4460,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D11" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="1">
         <f>SUBTOTAL(9,E10:E10)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
@@ -4432,33 +4477,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D13" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="1">
         <f>SUBTOTAL(9,E12:E12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D15" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="1">
         <f>SUBTOTAL(9,E14:E14)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
@@ -4466,205 +4511,205 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1">
         <f>SUBTOTAL(9,E16:E16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E24" s="1">
         <f>SUBTOTAL(9,E18:E23)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D31" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E33" s="1">
         <f>SUBTOTAL(9,E25:E32)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="1">
         <f>SUBTOTAL(9,E34:E34)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D38" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E38" s="1">
         <f>SUBTOTAL(9,E36:E37)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D40" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="1">
         <f>SUBTOTAL(9,E39:E39)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="s">
         <v>43</v>
       </c>
@@ -4672,7 +4717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
         <v>43</v>
       </c>
@@ -4680,41 +4725,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D43" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" s="1">
         <f>SUBTOTAL(9,E41:E42)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D46" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E46" s="1">
         <f>SUBTOTAL(9,E44:E45)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>61</v>
       </c>
@@ -4722,16 +4767,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D48" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E48" s="1">
         <f>SUBTOTAL(9,E47:E47)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
         <v>62</v>
       </c>
@@ -4739,16 +4784,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D50" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E50" s="1">
         <f>SUBTOTAL(9,E49:E49)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D51" s="1" t="s">
         <v>52</v>
       </c>
@@ -4756,16 +4801,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D52" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52" s="1">
         <f>SUBTOTAL(9,E51:E51)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D53" s="1" t="s">
         <v>40</v>
       </c>
@@ -4773,7 +4818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D54" s="1" t="s">
         <v>40</v>
       </c>
@@ -4781,16 +4826,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D55" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55" s="1">
         <f>SUBTOTAL(9,E53:E54)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D56" s="1" t="s">
         <v>25</v>
       </c>
@@ -4798,7 +4843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D57" s="1" t="s">
         <v>25</v>
       </c>
@@ -4806,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D58" s="1" t="s">
         <v>25</v>
       </c>
@@ -4814,16 +4859,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D59" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E59" s="1">
         <f>SUBTOTAL(9,E56:E58)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D60" s="1" t="s">
         <v>45</v>
       </c>
@@ -4831,16 +4876,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D61" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E61" s="1">
         <f>SUBTOTAL(9,E60:E60)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D62" s="1" t="s">
         <v>34</v>
       </c>
@@ -4848,41 +4893,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D63" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E63" s="1">
         <f>SUBTOTAL(9,E62:E62)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D64" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D65" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D66" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E66" s="1">
         <f>SUBTOTAL(9,E64:E65)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D67" s="3" t="s">
         <v>28</v>
       </c>
@@ -4890,7 +4935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D68" s="3" t="s">
         <v>28</v>
       </c>
@@ -4898,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D69" s="3" t="s">
         <v>28</v>
       </c>
@@ -4906,7 +4951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D70" s="1" t="s">
         <v>28</v>
       </c>
@@ -4914,33 +4959,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D71" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E71" s="1">
         <f>SUBTOTAL(9,E67:E70)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D73" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E73" s="1">
         <f>SUBTOTAL(9,E72:E72)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D74" s="1" t="s">
         <v>63</v>
       </c>
@@ -4948,58 +4993,58 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D75" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E75" s="1">
         <f>SUBTOTAL(9,E74:E74)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D76" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E76" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D77" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D78" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E78" s="1">
         <f>SUBTOTAL(9,E76:E77)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D79" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E79" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D80" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E80" s="1">
         <f>SUBTOTAL(9,E79:E79)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D81" s="1" t="s">
         <v>14</v>
       </c>
@@ -5007,16 +5052,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D82" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1">
         <f>SUBTOTAL(9,E81:E81)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D83" s="1" t="s">
         <v>18</v>
       </c>
@@ -5024,16 +5069,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D84" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E84" s="1">
         <f>SUBTOTAL(9,E83:E83)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D85" s="1" t="s">
         <v>16</v>
       </c>
@@ -5041,16 +5086,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D86" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E86" s="1">
         <f>SUBTOTAL(9,E85:E85)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D87" s="1" t="s">
         <v>8</v>
       </c>
@@ -5058,123 +5103,123 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D88" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E88" s="1">
         <f>SUBTOTAL(9,E87:E87)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D89" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D90" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D91" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D92" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D93" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E93" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D94" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D95" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E95" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D96" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E96" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D97" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D98" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D99" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E99" s="1">
         <f>SUBTOTAL(9,E89:E98)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D100" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D101" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D102" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E102" s="1">
         <f>SUBTOTAL(9,E100:E101)</f>
@@ -5195,7 +5240,7 @@
       <selection activeCell="D4" sqref="D4:E118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="9" customWidth="1"/>
   </cols>

--- a/fjl_sdlk.xlsx
+++ b/fjl_sdlk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\worktop\fjl_sdlk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65730D69-85A2-4F8B-90EE-2B37D65434F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5940844A-89EF-4296-9317-01182FD12B03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="1520" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="216">
   <si>
     <t>品名</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>继电器</t>
-  </si>
-  <si>
-    <t>型号不对</t>
   </si>
   <si>
     <t>DZ47-10A-3P</t>
@@ -897,6 +894,14 @@
   </si>
   <si>
     <t>220-24V电源  150W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JZX-24VF(D)/4Z-220V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JE1-JE8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1378,21 +1383,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ALP112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="25.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" customWidth="1"/>
-    <col min="5" max="5" width="21.08984375" customWidth="1"/>
-    <col min="6" max="6" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1415,12 +1420,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1429,14 +1434,14 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1450,19 +1455,19 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
         <v>454.3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -1471,19 +1476,19 @@
         <v>9</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1492,16 +1497,16 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
@@ -1513,14 +1518,14 @@
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1534,14 +1539,14 @@
         <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1555,19 +1560,19 @@
         <v>9</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1576,14 +1581,14 @@
         <v>9</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1597,14 +1602,14 @@
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1618,14 +1623,14 @@
         <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1639,16 +1644,16 @@
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -1659,7 +1664,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1668,12 +1673,12 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1682,19 +1687,19 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
         <v>29.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1703,14 +1708,14 @@
         <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1724,14 +1729,14 @@
         <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1745,19 +1750,19 @@
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1766,14 +1771,14 @@
         <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1782,12 +1787,12 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1796,14 +1801,14 @@
         <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
         <v>29.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1817,19 +1822,19 @@
         <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1838,14 +1843,14 @@
         <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
@@ -1854,35 +1859,35 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1891,19 +1896,19 @@
         <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -1912,19 +1917,19 @@
         <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -1933,19 +1938,19 @@
         <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -1954,14 +1959,14 @@
         <v>33</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -1975,35 +1980,35 @@
         <v>33</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1">
         <v>15.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2012,12 +2017,12 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:1004" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -2031,12 +2036,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:1004" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -2050,12 +2055,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:1004" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -2064,19 +2069,19 @@
         <v>35</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:1004" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -2085,16 +2090,16 @@
         <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G36" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:1004" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -2111,12 +2116,12 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:1004" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -2125,16 +2130,16 @@
         <v>35</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:1004" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3140,12 +3145,12 @@
       <c r="ALO39" s="4"/>
       <c r="ALP39" s="4"/>
     </row>
-    <row r="40" spans="1:1004" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -3154,19 +3159,19 @@
         <v>39</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1">
         <v>29.5</v>
       </c>
     </row>
-    <row r="41" spans="1:1004" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -3175,14 +3180,14 @@
         <v>39</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:1004" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -3196,14 +3201,14 @@
         <v>39</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:1004" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
@@ -3217,56 +3222,56 @@
         <v>39</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:1004" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="C44" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E44" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:1004" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:1004" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
       <c r="C46" s="1"/>
@@ -3275,7 +3280,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:1004" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="1"/>
@@ -3284,70 +3289,70 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:1004" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C48" s="1">
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1">
         <v>29.5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="1">
         <v>4</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" s="1">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -3358,59 +3363,59 @@
         <v>4</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C52" s="1">
         <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C53" s="1">
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="3"/>
       <c r="C54" s="1"/>
@@ -3419,7 +3424,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="3"/>
       <c r="C55" s="1"/>
@@ -3428,7 +3433,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="1"/>
@@ -3437,30 +3442,30 @@
       <c r="F56" s="2"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C57" s="1">
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G57" s="1">
         <v>29.5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -3471,134 +3476,134 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G58" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C59" s="1">
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G59" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="1">
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G60" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61" s="1">
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G61" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C62" s="1">
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G62" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G63" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -3609,224 +3614,224 @@
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G64" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G65" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G66" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G67" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G69" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G70" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G71" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="1">
         <v>2</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G72" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G73" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
@@ -3837,103 +3842,103 @@
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G74" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G75" s="1">
         <v>29.5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G76" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G77" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1">
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3942,113 +3947,113 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C80" s="1">
         <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1">
         <v>13.5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C81" s="1">
         <v>5</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C82" s="1">
         <v>2</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C83" s="1">
         <v>2</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -4064,18 +4069,18 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="2" t="s">
@@ -4085,12 +4090,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -4099,19 +4104,19 @@
         <v>30</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -4121,18 +4126,18 @@
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G88" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C89" s="1">
         <v>10</v>
@@ -4144,7 +4149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4153,7 +4158,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4162,7 +4167,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4171,7 +4176,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4180,7 +4185,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4189,7 +4194,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4198,7 +4203,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4207,7 +4212,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4216,7 +4221,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4225,7 +4230,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4234,7 +4239,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4243,7 +4248,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4252,7 +4257,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4261,7 +4266,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4270,7 +4275,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4279,7 +4284,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4288,7 +4293,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4297,7 +4302,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4306,7 +4311,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4315,7 +4320,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4324,7 +4329,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4333,7 +4338,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4342,7 +4347,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4369,73 +4374,73 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D1" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" s="4" t="e">
         <f>SUBTOTAL(9,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="1">
         <f>SUBTOTAL(9,E2:E2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D5" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="1">
         <f>SUBTOTAL(9,E4:E4)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="1">
         <f>SUBTOTAL(9,E6:E6)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
@@ -4443,16 +4448,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D9" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="1">
         <f>SUBTOTAL(9,E8:E8)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4460,16 +4465,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="1">
         <f>SUBTOTAL(9,E10:E10)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
@@ -4477,33 +4482,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D13" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="1">
         <f>SUBTOTAL(9,E12:E12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D15" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="1">
         <f>SUBTOTAL(9,E14:E14)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
@@ -4511,306 +4516,306 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D17" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="1">
         <f>SUBTOTAL(9,E16:E16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D18" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D19" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D24" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24" s="1">
         <f>SUBTOTAL(9,E18:E23)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D25" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D31" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D33" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E33" s="1">
         <f>SUBTOTAL(9,E25:E32)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D35" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E35" s="1">
         <f>SUBTOTAL(9,E34:E34)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D36" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D38" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E38" s="1">
         <f>SUBTOTAL(9,E36:E37)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D40" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E40" s="1">
         <f>SUBTOTAL(9,E39:E39)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D43" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="1">
         <f>SUBTOTAL(9,E41:E42)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D44" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D45" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D46" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E46" s="1">
         <f>SUBTOTAL(9,E44:E45)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E47" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D48" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E48" s="1">
         <f>SUBTOTAL(9,E47:E47)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E49" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D50" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" s="1">
         <f>SUBTOTAL(9,E49:E49)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D52" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E52" s="1">
         <f>SUBTOTAL(9,E51:E51)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D53" s="1" t="s">
         <v>40</v>
       </c>
@@ -4818,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D54" s="1" t="s">
         <v>40</v>
       </c>
@@ -4826,16 +4831,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D55" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E55" s="1">
         <f>SUBTOTAL(9,E53:E54)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D56" s="1" t="s">
         <v>25</v>
       </c>
@@ -4843,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D57" s="1" t="s">
         <v>25</v>
       </c>
@@ -4851,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D58" s="1" t="s">
         <v>25</v>
       </c>
@@ -4859,33 +4864,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D59" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E59" s="1">
         <f>SUBTOTAL(9,E56:E58)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D60" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D61" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E61" s="1">
         <f>SUBTOTAL(9,E60:E60)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D62" s="1" t="s">
         <v>34</v>
       </c>
@@ -4893,41 +4898,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D63" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E63" s="1">
         <f>SUBTOTAL(9,E62:E62)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D64" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D65" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D66" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E66" s="1">
         <f>SUBTOTAL(9,E64:E65)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D67" s="3" t="s">
         <v>28</v>
       </c>
@@ -4935,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D68" s="3" t="s">
         <v>28</v>
       </c>
@@ -4943,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D69" s="3" t="s">
         <v>28</v>
       </c>
@@ -4951,7 +4956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D70" s="1" t="s">
         <v>28</v>
       </c>
@@ -4959,92 +4964,92 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D71" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E71" s="1">
         <f>SUBTOTAL(9,E67:E70)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D73" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E73" s="1">
         <f>SUBTOTAL(9,E72:E72)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D74" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E74" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D75" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E75" s="1">
         <f>SUBTOTAL(9,E74:E74)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D76" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E76" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D77" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D78" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E78" s="1">
         <f>SUBTOTAL(9,E76:E77)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D79" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E79" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D80" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E80" s="1">
         <f>SUBTOTAL(9,E79:E79)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D81" s="1" t="s">
         <v>14</v>
       </c>
@@ -5052,16 +5057,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D82" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E82" s="1">
         <f>SUBTOTAL(9,E81:E81)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D83" s="1" t="s">
         <v>18</v>
       </c>
@@ -5069,16 +5074,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D84" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E84" s="1">
         <f>SUBTOTAL(9,E83:E83)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D85" s="1" t="s">
         <v>16</v>
       </c>
@@ -5086,16 +5091,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D86" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1">
         <f>SUBTOTAL(9,E85:E85)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D87" s="1" t="s">
         <v>8</v>
       </c>
@@ -5103,123 +5108,123 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D88" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E88" s="1">
         <f>SUBTOTAL(9,E87:E87)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D89" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D90" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D91" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D92" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D93" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E93" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D94" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D95" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E95" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D96" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E96" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D97" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D98" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D99" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E99" s="1">
         <f>SUBTOTAL(9,E89:E98)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D100" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D101" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D102" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E102" s="1">
         <f>SUBTOTAL(9,E100:E101)</f>
@@ -5240,7 +5245,7 @@
       <selection activeCell="D4" sqref="D4:E118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="5" width="9" customWidth="1"/>
   </cols>

--- a/fjl_sdlk.xlsx
+++ b/fjl_sdlk.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\worktop\fjl_sdlk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5940844A-89EF-4296-9317-01182FD12B03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5703C4A5-E3AA-4F5C-9B08-0398E455B8F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="1520" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17780" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="面板安排" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="231">
   <si>
     <t>品名</t>
   </si>
@@ -685,14 +685,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>QF50-QF59</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QF60-QF64</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>QF65-QF66</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -903,6 +895,74 @@
   <si>
     <t>JE1-JE8</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QF50-QF54</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QF60-QF61</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2常开2常闭红</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示灯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24V红色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触摸屏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调速电位器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A相电源指示灯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B相电源指示灯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C相电源指示灯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金工热能表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总控</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>热风循环</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬挂链</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1012,7 +1072,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1041,6 +1101,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1381,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ALP112"/>
+  <dimension ref="A1:ALP114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1425,7 +1488,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1476,7 +1539,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
@@ -1497,7 +1560,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
@@ -1518,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
@@ -1539,7 +1602,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
@@ -1560,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
@@ -1581,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
@@ -1653,7 +1716,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -1687,7 +1750,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
@@ -1708,7 +1771,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
@@ -1729,7 +1792,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
@@ -1750,7 +1813,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
@@ -1801,7 +1864,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
@@ -1822,7 +1885,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
@@ -1843,7 +1906,7 @@
         <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
@@ -1873,7 +1936,7 @@
         <v>85</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>73</v>
@@ -1896,7 +1959,7 @@
         <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
@@ -1917,7 +1980,7 @@
         <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
@@ -1938,7 +2001,7 @@
         <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
@@ -1959,7 +2022,7 @@
         <v>33</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1">
@@ -1980,7 +2043,7 @@
         <v>33</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1">
@@ -2001,7 +2064,7 @@
         <v>150</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1">
@@ -2069,7 +2132,7 @@
         <v>35</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1">
@@ -2090,7 +2153,7 @@
         <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>70</v>
@@ -3159,7 +3222,7 @@
         <v>39</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1">
@@ -3180,7 +3243,7 @@
         <v>39</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1">
@@ -3201,7 +3264,7 @@
         <v>39</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1">
@@ -3222,7 +3285,7 @@
         <v>39</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1">
@@ -3234,7 +3297,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C44" s="1">
         <v>8</v>
@@ -3243,7 +3306,7 @@
         <v>39</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1">
@@ -3264,7 +3327,7 @@
         <v>139</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1">
@@ -3456,7 +3519,7 @@
         <v>45</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>49</v>
@@ -3479,7 +3542,7 @@
         <v>45</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>49</v>
@@ -3502,7 +3565,7 @@
         <v>45</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>49</v>
@@ -3525,7 +3588,7 @@
         <v>45</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>50</v>
@@ -3548,7 +3611,7 @@
         <v>45</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>50</v>
@@ -3571,7 +3634,7 @@
         <v>45</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>50</v>
@@ -3594,7 +3657,7 @@
         <v>45</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>53</v>
@@ -3617,7 +3680,7 @@
         <v>45</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>53</v>
@@ -3640,7 +3703,7 @@
         <v>45</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>53</v>
@@ -3663,7 +3726,7 @@
         <v>45</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>47</v>
@@ -3686,7 +3749,7 @@
         <v>45</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>47</v>
@@ -3709,7 +3772,7 @@
         <v>45</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>47</v>
@@ -3732,7 +3795,7 @@
         <v>45</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>52</v>
@@ -3755,7 +3818,7 @@
         <v>45</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>52</v>
@@ -3778,7 +3841,7 @@
         <v>45</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>52</v>
@@ -3822,7 +3885,7 @@
         <v>45</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>56</v>
@@ -3845,7 +3908,7 @@
         <v>45</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>56</v>
@@ -3868,7 +3931,7 @@
         <v>45</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>46</v>
@@ -3891,7 +3954,7 @@
         <v>45</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>46</v>
@@ -3914,7 +3977,7 @@
         <v>152</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>46</v>
@@ -3955,13 +4018,13 @@
         <v>136</v>
       </c>
       <c r="C80" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>161</v>
+      <c r="E80" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1">
@@ -3976,13 +4039,13 @@
         <v>135</v>
       </c>
       <c r="C81" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>162</v>
+      <c r="E81" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1">
@@ -4003,7 +4066,7 @@
         <v>59</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1">
@@ -4024,7 +4087,7 @@
         <v>59</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1">
@@ -4036,7 +4099,7 @@
         <v>121</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -4049,53 +4112,45 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
-        <v>29</v>
+      <c r="A85" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>30</v>
+      <c r="D85" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G85" s="1">
-        <v>4.5</v>
-      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
-        <v>29</v>
+      <c r="A86" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>133</v>
+      <c r="D86" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G86" s="1">
-        <v>12</v>
-      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>54</v>
+      <c r="B87" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -4103,12 +4158,12 @@
       <c r="D87" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G87" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
@@ -4116,20 +4171,20 @@
         <v>29</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>30</v>
+      <c r="D88" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G88" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -4137,35 +4192,59 @@
         <v>29</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C89" s="1">
-        <v>10</v>
-      </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="F90" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G90" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" s="1">
+        <v>10</v>
+      </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="G91" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
@@ -4355,6 +4434,24 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:G78">
@@ -4370,7 +4467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -5239,17 +5336,92 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fjl_sdlk.xlsx
+++ b/fjl_sdlk.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\worktop\fjl_sdlk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0721C8-29AD-4E77-8398-856E1DD0C4B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C13F9AE-A4C9-4645-B95D-598EBE69D3BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="15645" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="面板安排" sheetId="3" r:id="rId3"/>
     <sheet name="内部操作面板" sheetId="4" r:id="rId4"/>
+    <sheet name="联动控制器" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="323">
   <si>
     <t>品名</t>
   </si>
@@ -949,6 +950,361 @@
   <si>
     <t>FRG4,FRG4,FRG6,FRG7</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMZ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>器件名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAY2，不自锁,1常开1常闭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAY2，不自锁,2常开</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>复位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨动开关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2常开</t>
+  </si>
+  <si>
+    <t>联动/手动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2常开，</t>
+  </si>
+  <si>
+    <t>正转/反转</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示灯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ND16，24V，绿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行指示灯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ND16，24V  ,黄</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警指示灯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ND16，220V，红</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源指示灯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ND16，24V，白</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部即停指示灯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ND16，24V，红</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动限位指示灯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24V，4常开4常闭</t>
+  </si>
+  <si>
+    <t>变频器启动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>联动/手动控制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转/正转控制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>j4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警控制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部急停</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>j6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动限位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>j7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24V，4常开4常闭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从动限位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>j8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动</t>
+  </si>
+  <si>
+    <t>Z1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动变频器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从动变频器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24V电源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>220V 24V 50W</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接线端子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD1520</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15A ,25节</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动电位器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳膜，10K</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从动电位器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉绳电位器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动限位开关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常闭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从动限位开关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常闭</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮标字框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>电箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气开关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DZ47 C16 3P</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1058,7 +1414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1094,6 +1450,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,23 +1795,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ALP106"/>
+  <dimension ref="A1:ALP104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="36.625" customWidth="1"/>
+    <col min="6" max="6" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1493,7 +1855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1876,7 @@
         <v>454.3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>118</v>
       </c>
@@ -1535,7 +1897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>119</v>
       </c>
@@ -1556,7 +1918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>120</v>
       </c>
@@ -1577,12 +1939,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1590,20 +1952,20 @@
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>174</v>
+      <c r="E7" t="s">
+        <v>233</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1612,19 +1974,19 @@
         <v>9</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1633,19 +1995,19 @@
         <v>9</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1653,20 +2015,20 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>63</v>
+      <c r="E10" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1675,19 +2037,19 @@
         <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1695,105 +2057,107 @@
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>64</v>
+      <c r="E12" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>169</v>
-      </c>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>73</v>
+      <c r="B16" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1004" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1004" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
+      <c r="D17" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1004" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>28</v>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1802,19 +2166,19 @@
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1004" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>7</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1823,49 +2187,49 @@
         <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1004" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:1004" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:1004" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:1004" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:1004" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1004" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1873,20 +2237,20 @@
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>214</v>
+      <c r="E22" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1004" x14ac:dyDescent="0.25">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1895,47 +2259,49 @@
         <v>32</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1004" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:1004" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:1004" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="25" spans="1:1004" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1004" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:1004" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1949,12 +2315,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:1004" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -1962,20 +2328,18 @@
       <c r="D27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1004" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -1984,21 +2348,19 @@
         <v>34</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1004" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -2006,16 +2368,22 @@
       <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:1004" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1004" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -2023,1049 +2391,1045 @@
       <c r="D30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:1004" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1004" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
-      <c r="AI31" s="4"/>
-      <c r="AJ31" s="4"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="4"/>
-      <c r="AM31" s="4"/>
-      <c r="AN31" s="4"/>
-      <c r="AO31" s="4"/>
-      <c r="AP31" s="4"/>
-      <c r="AQ31" s="4"/>
-      <c r="AR31" s="4"/>
-      <c r="AS31" s="4"/>
-      <c r="AT31" s="4"/>
-      <c r="AU31" s="4"/>
-      <c r="AV31" s="4"/>
-      <c r="AW31" s="4"/>
-      <c r="AX31" s="4"/>
-      <c r="AY31" s="4"/>
-      <c r="AZ31" s="4"/>
-      <c r="BA31" s="4"/>
-      <c r="BB31" s="4"/>
-      <c r="BC31" s="4"/>
-      <c r="BD31" s="4"/>
-      <c r="BE31" s="4"/>
-      <c r="BF31" s="4"/>
-      <c r="BG31" s="4"/>
-      <c r="BH31" s="4"/>
-      <c r="BI31" s="4"/>
-      <c r="BJ31" s="4"/>
-      <c r="BK31" s="4"/>
-      <c r="BL31" s="4"/>
-      <c r="BM31" s="4"/>
-      <c r="BN31" s="4"/>
-      <c r="BO31" s="4"/>
-      <c r="BP31" s="4"/>
-      <c r="BQ31" s="4"/>
-      <c r="BR31" s="4"/>
-      <c r="BS31" s="4"/>
-      <c r="BT31" s="4"/>
-      <c r="BU31" s="4"/>
-      <c r="BV31" s="4"/>
-      <c r="BW31" s="4"/>
-      <c r="BX31" s="4"/>
-      <c r="BY31" s="4"/>
-      <c r="BZ31" s="4"/>
-      <c r="CA31" s="4"/>
-      <c r="CB31" s="4"/>
-      <c r="CC31" s="4"/>
-      <c r="CD31" s="4"/>
-      <c r="CE31" s="4"/>
-      <c r="CF31" s="4"/>
-      <c r="CG31" s="4"/>
-      <c r="CH31" s="4"/>
-      <c r="CI31" s="4"/>
-      <c r="CJ31" s="4"/>
-      <c r="CK31" s="4"/>
-      <c r="CL31" s="4"/>
-      <c r="CM31" s="4"/>
-      <c r="CN31" s="4"/>
-      <c r="CO31" s="4"/>
-      <c r="CP31" s="4"/>
-      <c r="CQ31" s="4"/>
-      <c r="CR31" s="4"/>
-      <c r="CS31" s="4"/>
-      <c r="CT31" s="4"/>
-      <c r="CU31" s="4"/>
-      <c r="CV31" s="4"/>
-      <c r="CW31" s="4"/>
-      <c r="CX31" s="4"/>
-      <c r="CY31" s="4"/>
-      <c r="CZ31" s="4"/>
-      <c r="DA31" s="4"/>
-      <c r="DB31" s="4"/>
-      <c r="DC31" s="4"/>
-      <c r="DD31" s="4"/>
-      <c r="DE31" s="4"/>
-      <c r="DF31" s="4"/>
-      <c r="DG31" s="4"/>
-      <c r="DH31" s="4"/>
-      <c r="DI31" s="4"/>
-      <c r="DJ31" s="4"/>
-      <c r="DK31" s="4"/>
-      <c r="DL31" s="4"/>
-      <c r="DM31" s="4"/>
-      <c r="DN31" s="4"/>
-      <c r="DO31" s="4"/>
-      <c r="DP31" s="4"/>
-      <c r="DQ31" s="4"/>
-      <c r="DR31" s="4"/>
-      <c r="DS31" s="4"/>
-      <c r="DT31" s="4"/>
-      <c r="DU31" s="4"/>
-      <c r="DV31" s="4"/>
-      <c r="DW31" s="4"/>
-      <c r="DX31" s="4"/>
-      <c r="DY31" s="4"/>
-      <c r="DZ31" s="4"/>
-      <c r="EA31" s="4"/>
-      <c r="EB31" s="4"/>
-      <c r="EC31" s="4"/>
-      <c r="ED31" s="4"/>
-      <c r="EE31" s="4"/>
-      <c r="EF31" s="4"/>
-      <c r="EG31" s="4"/>
-      <c r="EH31" s="4"/>
-      <c r="EI31" s="4"/>
-      <c r="EJ31" s="4"/>
-      <c r="EK31" s="4"/>
-      <c r="EL31" s="4"/>
-      <c r="EM31" s="4"/>
-      <c r="EN31" s="4"/>
-      <c r="EO31" s="4"/>
-      <c r="EP31" s="4"/>
-      <c r="EQ31" s="4"/>
-      <c r="ER31" s="4"/>
-      <c r="ES31" s="4"/>
-      <c r="ET31" s="4"/>
-      <c r="EU31" s="4"/>
-      <c r="EV31" s="4"/>
-      <c r="EW31" s="4"/>
-      <c r="EX31" s="4"/>
-      <c r="EY31" s="4"/>
-      <c r="EZ31" s="4"/>
-      <c r="FA31" s="4"/>
-      <c r="FB31" s="4"/>
-      <c r="FC31" s="4"/>
-      <c r="FD31" s="4"/>
-      <c r="FE31" s="4"/>
-      <c r="FF31" s="4"/>
-      <c r="FG31" s="4"/>
-      <c r="FH31" s="4"/>
-      <c r="FI31" s="4"/>
-      <c r="FJ31" s="4"/>
-      <c r="FK31" s="4"/>
-      <c r="FL31" s="4"/>
-      <c r="FM31" s="4"/>
-      <c r="FN31" s="4"/>
-      <c r="FO31" s="4"/>
-      <c r="FP31" s="4"/>
-      <c r="FQ31" s="4"/>
-      <c r="FR31" s="4"/>
-      <c r="FS31" s="4"/>
-      <c r="FT31" s="4"/>
-      <c r="FU31" s="4"/>
-      <c r="FV31" s="4"/>
-      <c r="FW31" s="4"/>
-      <c r="FX31" s="4"/>
-      <c r="FY31" s="4"/>
-      <c r="FZ31" s="4"/>
-      <c r="GA31" s="4"/>
-      <c r="GB31" s="4"/>
-      <c r="GC31" s="4"/>
-      <c r="GD31" s="4"/>
-      <c r="GE31" s="4"/>
-      <c r="GF31" s="4"/>
-      <c r="GG31" s="4"/>
-      <c r="GH31" s="4"/>
-      <c r="GI31" s="4"/>
-      <c r="GJ31" s="4"/>
-      <c r="GK31" s="4"/>
-      <c r="GL31" s="4"/>
-      <c r="GM31" s="4"/>
-      <c r="GN31" s="4"/>
-      <c r="GO31" s="4"/>
-      <c r="GP31" s="4"/>
-      <c r="GQ31" s="4"/>
-      <c r="GR31" s="4"/>
-      <c r="GS31" s="4"/>
-      <c r="GT31" s="4"/>
-      <c r="GU31" s="4"/>
-      <c r="GV31" s="4"/>
-      <c r="GW31" s="4"/>
-      <c r="GX31" s="4"/>
-      <c r="GY31" s="4"/>
-      <c r="GZ31" s="4"/>
-      <c r="HA31" s="4"/>
-      <c r="HB31" s="4"/>
-      <c r="HC31" s="4"/>
-      <c r="HD31" s="4"/>
-      <c r="HE31" s="4"/>
-      <c r="HF31" s="4"/>
-      <c r="HG31" s="4"/>
-      <c r="HH31" s="4"/>
-      <c r="HI31" s="4"/>
-      <c r="HJ31" s="4"/>
-      <c r="HK31" s="4"/>
-      <c r="HL31" s="4"/>
-      <c r="HM31" s="4"/>
-      <c r="HN31" s="4"/>
-      <c r="HO31" s="4"/>
-      <c r="HP31" s="4"/>
-      <c r="HQ31" s="4"/>
-      <c r="HR31" s="4"/>
-      <c r="HS31" s="4"/>
-      <c r="HT31" s="4"/>
-      <c r="HU31" s="4"/>
-      <c r="HV31" s="4"/>
-      <c r="HW31" s="4"/>
-      <c r="HX31" s="4"/>
-      <c r="HY31" s="4"/>
-      <c r="HZ31" s="4"/>
-      <c r="IA31" s="4"/>
-      <c r="IB31" s="4"/>
-      <c r="IC31" s="4"/>
-      <c r="ID31" s="4"/>
-      <c r="IE31" s="4"/>
-      <c r="IF31" s="4"/>
-      <c r="IG31" s="4"/>
-      <c r="IH31" s="4"/>
-      <c r="II31" s="4"/>
-      <c r="IJ31" s="4"/>
-      <c r="IK31" s="4"/>
-      <c r="IL31" s="4"/>
-      <c r="IM31" s="4"/>
-      <c r="IN31" s="4"/>
-      <c r="IO31" s="4"/>
-      <c r="IP31" s="4"/>
-      <c r="IQ31" s="4"/>
-      <c r="IR31" s="4"/>
-      <c r="IS31" s="4"/>
-      <c r="IT31" s="4"/>
-      <c r="IU31" s="4"/>
-      <c r="IV31" s="4"/>
-      <c r="IW31" s="4"/>
-      <c r="IX31" s="4"/>
-      <c r="IY31" s="4"/>
-      <c r="IZ31" s="4"/>
-      <c r="JA31" s="4"/>
-      <c r="JB31" s="4"/>
-      <c r="JC31" s="4"/>
-      <c r="JD31" s="4"/>
-      <c r="JE31" s="4"/>
-      <c r="JF31" s="4"/>
-      <c r="JG31" s="4"/>
-      <c r="JH31" s="4"/>
-      <c r="JI31" s="4"/>
-      <c r="JJ31" s="4"/>
-      <c r="JK31" s="4"/>
-      <c r="JL31" s="4"/>
-      <c r="JM31" s="4"/>
-      <c r="JN31" s="4"/>
-      <c r="JO31" s="4"/>
-      <c r="JP31" s="4"/>
-      <c r="JQ31" s="4"/>
-      <c r="JR31" s="4"/>
-      <c r="JS31" s="4"/>
-      <c r="JT31" s="4"/>
-      <c r="JU31" s="4"/>
-      <c r="JV31" s="4"/>
-      <c r="JW31" s="4"/>
-      <c r="JX31" s="4"/>
-      <c r="JY31" s="4"/>
-      <c r="JZ31" s="4"/>
-      <c r="KA31" s="4"/>
-      <c r="KB31" s="4"/>
-      <c r="KC31" s="4"/>
-      <c r="KD31" s="4"/>
-      <c r="KE31" s="4"/>
-      <c r="KF31" s="4"/>
-      <c r="KG31" s="4"/>
-      <c r="KH31" s="4"/>
-      <c r="KI31" s="4"/>
-      <c r="KJ31" s="4"/>
-      <c r="KK31" s="4"/>
-      <c r="KL31" s="4"/>
-      <c r="KM31" s="4"/>
-      <c r="KN31" s="4"/>
-      <c r="KO31" s="4"/>
-      <c r="KP31" s="4"/>
-      <c r="KQ31" s="4"/>
-      <c r="KR31" s="4"/>
-      <c r="KS31" s="4"/>
-      <c r="KT31" s="4"/>
-      <c r="KU31" s="4"/>
-      <c r="KV31" s="4"/>
-      <c r="KW31" s="4"/>
-      <c r="KX31" s="4"/>
-      <c r="KY31" s="4"/>
-      <c r="KZ31" s="4"/>
-      <c r="LA31" s="4"/>
-      <c r="LB31" s="4"/>
-      <c r="LC31" s="4"/>
-      <c r="LD31" s="4"/>
-      <c r="LE31" s="4"/>
-      <c r="LF31" s="4"/>
-      <c r="LG31" s="4"/>
-      <c r="LH31" s="4"/>
-      <c r="LI31" s="4"/>
-      <c r="LJ31" s="4"/>
-      <c r="LK31" s="4"/>
-      <c r="LL31" s="4"/>
-      <c r="LM31" s="4"/>
-      <c r="LN31" s="4"/>
-      <c r="LO31" s="4"/>
-      <c r="LP31" s="4"/>
-      <c r="LQ31" s="4"/>
-      <c r="LR31" s="4"/>
-      <c r="LS31" s="4"/>
-      <c r="LT31" s="4"/>
-      <c r="LU31" s="4"/>
-      <c r="LV31" s="4"/>
-      <c r="LW31" s="4"/>
-      <c r="LX31" s="4"/>
-      <c r="LY31" s="4"/>
-      <c r="LZ31" s="4"/>
-      <c r="MA31" s="4"/>
-      <c r="MB31" s="4"/>
-      <c r="MC31" s="4"/>
-      <c r="MD31" s="4"/>
-      <c r="ME31" s="4"/>
-      <c r="MF31" s="4"/>
-      <c r="MG31" s="4"/>
-      <c r="MH31" s="4"/>
-      <c r="MI31" s="4"/>
-      <c r="MJ31" s="4"/>
-      <c r="MK31" s="4"/>
-      <c r="ML31" s="4"/>
-      <c r="MM31" s="4"/>
-      <c r="MN31" s="4"/>
-      <c r="MO31" s="4"/>
-      <c r="MP31" s="4"/>
-      <c r="MQ31" s="4"/>
-      <c r="MR31" s="4"/>
-      <c r="MS31" s="4"/>
-      <c r="MT31" s="4"/>
-      <c r="MU31" s="4"/>
-      <c r="MV31" s="4"/>
-      <c r="MW31" s="4"/>
-      <c r="MX31" s="4"/>
-      <c r="MY31" s="4"/>
-      <c r="MZ31" s="4"/>
-      <c r="NA31" s="4"/>
-      <c r="NB31" s="4"/>
-      <c r="NC31" s="4"/>
-      <c r="ND31" s="4"/>
-      <c r="NE31" s="4"/>
-      <c r="NF31" s="4"/>
-      <c r="NG31" s="4"/>
-      <c r="NH31" s="4"/>
-      <c r="NI31" s="4"/>
-      <c r="NJ31" s="4"/>
-      <c r="NK31" s="4"/>
-      <c r="NL31" s="4"/>
-      <c r="NM31" s="4"/>
-      <c r="NN31" s="4"/>
-      <c r="NO31" s="4"/>
-      <c r="NP31" s="4"/>
-      <c r="NQ31" s="4"/>
-      <c r="NR31" s="4"/>
-      <c r="NS31" s="4"/>
-      <c r="NT31" s="4"/>
-      <c r="NU31" s="4"/>
-      <c r="NV31" s="4"/>
-      <c r="NW31" s="4"/>
-      <c r="NX31" s="4"/>
-      <c r="NY31" s="4"/>
-      <c r="NZ31" s="4"/>
-      <c r="OA31" s="4"/>
-      <c r="OB31" s="4"/>
-      <c r="OC31" s="4"/>
-      <c r="OD31" s="4"/>
-      <c r="OE31" s="4"/>
-      <c r="OF31" s="4"/>
-      <c r="OG31" s="4"/>
-      <c r="OH31" s="4"/>
-      <c r="OI31" s="4"/>
-      <c r="OJ31" s="4"/>
-      <c r="OK31" s="4"/>
-      <c r="OL31" s="4"/>
-      <c r="OM31" s="4"/>
-      <c r="ON31" s="4"/>
-      <c r="OO31" s="4"/>
-      <c r="OP31" s="4"/>
-      <c r="OQ31" s="4"/>
-      <c r="OR31" s="4"/>
-      <c r="OS31" s="4"/>
-      <c r="OT31" s="4"/>
-      <c r="OU31" s="4"/>
-      <c r="OV31" s="4"/>
-      <c r="OW31" s="4"/>
-      <c r="OX31" s="4"/>
-      <c r="OY31" s="4"/>
-      <c r="OZ31" s="4"/>
-      <c r="PA31" s="4"/>
-      <c r="PB31" s="4"/>
-      <c r="PC31" s="4"/>
-      <c r="PD31" s="4"/>
-      <c r="PE31" s="4"/>
-      <c r="PF31" s="4"/>
-      <c r="PG31" s="4"/>
-      <c r="PH31" s="4"/>
-      <c r="PI31" s="4"/>
-      <c r="PJ31" s="4"/>
-      <c r="PK31" s="4"/>
-      <c r="PL31" s="4"/>
-      <c r="PM31" s="4"/>
-      <c r="PN31" s="4"/>
-      <c r="PO31" s="4"/>
-      <c r="PP31" s="4"/>
-      <c r="PQ31" s="4"/>
-      <c r="PR31" s="4"/>
-      <c r="PS31" s="4"/>
-      <c r="PT31" s="4"/>
-      <c r="PU31" s="4"/>
-      <c r="PV31" s="4"/>
-      <c r="PW31" s="4"/>
-      <c r="PX31" s="4"/>
-      <c r="PY31" s="4"/>
-      <c r="PZ31" s="4"/>
-      <c r="QA31" s="4"/>
-      <c r="QB31" s="4"/>
-      <c r="QC31" s="4"/>
-      <c r="QD31" s="4"/>
-      <c r="QE31" s="4"/>
-      <c r="QF31" s="4"/>
-      <c r="QG31" s="4"/>
-      <c r="QH31" s="4"/>
-      <c r="QI31" s="4"/>
-      <c r="QJ31" s="4"/>
-      <c r="QK31" s="4"/>
-      <c r="QL31" s="4"/>
-      <c r="QM31" s="4"/>
-      <c r="QN31" s="4"/>
-      <c r="QO31" s="4"/>
-      <c r="QP31" s="4"/>
-      <c r="QQ31" s="4"/>
-      <c r="QR31" s="4"/>
-      <c r="QS31" s="4"/>
-      <c r="QT31" s="4"/>
-      <c r="QU31" s="4"/>
-      <c r="QV31" s="4"/>
-      <c r="QW31" s="4"/>
-      <c r="QX31" s="4"/>
-      <c r="QY31" s="4"/>
-      <c r="QZ31" s="4"/>
-      <c r="RA31" s="4"/>
-      <c r="RB31" s="4"/>
-      <c r="RC31" s="4"/>
-      <c r="RD31" s="4"/>
-      <c r="RE31" s="4"/>
-      <c r="RF31" s="4"/>
-      <c r="RG31" s="4"/>
-      <c r="RH31" s="4"/>
-      <c r="RI31" s="4"/>
-      <c r="RJ31" s="4"/>
-      <c r="RK31" s="4"/>
-      <c r="RL31" s="4"/>
-      <c r="RM31" s="4"/>
-      <c r="RN31" s="4"/>
-      <c r="RO31" s="4"/>
-      <c r="RP31" s="4"/>
-      <c r="RQ31" s="4"/>
-      <c r="RR31" s="4"/>
-      <c r="RS31" s="4"/>
-      <c r="RT31" s="4"/>
-      <c r="RU31" s="4"/>
-      <c r="RV31" s="4"/>
-      <c r="RW31" s="4"/>
-      <c r="RX31" s="4"/>
-      <c r="RY31" s="4"/>
-      <c r="RZ31" s="4"/>
-      <c r="SA31" s="4"/>
-      <c r="SB31" s="4"/>
-      <c r="SC31" s="4"/>
-      <c r="SD31" s="4"/>
-      <c r="SE31" s="4"/>
-      <c r="SF31" s="4"/>
-      <c r="SG31" s="4"/>
-      <c r="SH31" s="4"/>
-      <c r="SI31" s="4"/>
-      <c r="SJ31" s="4"/>
-      <c r="SK31" s="4"/>
-      <c r="SL31" s="4"/>
-      <c r="SM31" s="4"/>
-      <c r="SN31" s="4"/>
-      <c r="SO31" s="4"/>
-      <c r="SP31" s="4"/>
-      <c r="SQ31" s="4"/>
-      <c r="SR31" s="4"/>
-      <c r="SS31" s="4"/>
-      <c r="ST31" s="4"/>
-      <c r="SU31" s="4"/>
-      <c r="SV31" s="4"/>
-      <c r="SW31" s="4"/>
-      <c r="SX31" s="4"/>
-      <c r="SY31" s="4"/>
-      <c r="SZ31" s="4"/>
-      <c r="TA31" s="4"/>
-      <c r="TB31" s="4"/>
-      <c r="TC31" s="4"/>
-      <c r="TD31" s="4"/>
-      <c r="TE31" s="4"/>
-      <c r="TF31" s="4"/>
-      <c r="TG31" s="4"/>
-      <c r="TH31" s="4"/>
-      <c r="TI31" s="4"/>
-      <c r="TJ31" s="4"/>
-      <c r="TK31" s="4"/>
-      <c r="TL31" s="4"/>
-      <c r="TM31" s="4"/>
-      <c r="TN31" s="4"/>
-      <c r="TO31" s="4"/>
-      <c r="TP31" s="4"/>
-      <c r="TQ31" s="4"/>
-      <c r="TR31" s="4"/>
-      <c r="TS31" s="4"/>
-      <c r="TT31" s="4"/>
-      <c r="TU31" s="4"/>
-      <c r="TV31" s="4"/>
-      <c r="TW31" s="4"/>
-      <c r="TX31" s="4"/>
-      <c r="TY31" s="4"/>
-      <c r="TZ31" s="4"/>
-      <c r="UA31" s="4"/>
-      <c r="UB31" s="4"/>
-      <c r="UC31" s="4"/>
-      <c r="UD31" s="4"/>
-      <c r="UE31" s="4"/>
-      <c r="UF31" s="4"/>
-      <c r="UG31" s="4"/>
-      <c r="UH31" s="4"/>
-      <c r="UI31" s="4"/>
-      <c r="UJ31" s="4"/>
-      <c r="UK31" s="4"/>
-      <c r="UL31" s="4"/>
-      <c r="UM31" s="4"/>
-      <c r="UN31" s="4"/>
-      <c r="UO31" s="4"/>
-      <c r="UP31" s="4"/>
-      <c r="UQ31" s="4"/>
-      <c r="UR31" s="4"/>
-      <c r="US31" s="4"/>
-      <c r="UT31" s="4"/>
-      <c r="UU31" s="4"/>
-      <c r="UV31" s="4"/>
-      <c r="UW31" s="4"/>
-      <c r="UX31" s="4"/>
-      <c r="UY31" s="4"/>
-      <c r="UZ31" s="4"/>
-      <c r="VA31" s="4"/>
-      <c r="VB31" s="4"/>
-      <c r="VC31" s="4"/>
-      <c r="VD31" s="4"/>
-      <c r="VE31" s="4"/>
-      <c r="VF31" s="4"/>
-      <c r="VG31" s="4"/>
-      <c r="VH31" s="4"/>
-      <c r="VI31" s="4"/>
-      <c r="VJ31" s="4"/>
-      <c r="VK31" s="4"/>
-      <c r="VL31" s="4"/>
-      <c r="VM31" s="4"/>
-      <c r="VN31" s="4"/>
-      <c r="VO31" s="4"/>
-      <c r="VP31" s="4"/>
-      <c r="VQ31" s="4"/>
-      <c r="VR31" s="4"/>
-      <c r="VS31" s="4"/>
-      <c r="VT31" s="4"/>
-      <c r="VU31" s="4"/>
-      <c r="VV31" s="4"/>
-      <c r="VW31" s="4"/>
-      <c r="VX31" s="4"/>
-      <c r="VY31" s="4"/>
-      <c r="VZ31" s="4"/>
-      <c r="WA31" s="4"/>
-      <c r="WB31" s="4"/>
-      <c r="WC31" s="4"/>
-      <c r="WD31" s="4"/>
-      <c r="WE31" s="4"/>
-      <c r="WF31" s="4"/>
-      <c r="WG31" s="4"/>
-      <c r="WH31" s="4"/>
-      <c r="WI31" s="4"/>
-      <c r="WJ31" s="4"/>
-      <c r="WK31" s="4"/>
-      <c r="WL31" s="4"/>
-      <c r="WM31" s="4"/>
-      <c r="WN31" s="4"/>
-      <c r="WO31" s="4"/>
-      <c r="WP31" s="4"/>
-      <c r="WQ31" s="4"/>
-      <c r="WR31" s="4"/>
-      <c r="WS31" s="4"/>
-      <c r="WT31" s="4"/>
-      <c r="WU31" s="4"/>
-      <c r="WV31" s="4"/>
-      <c r="WW31" s="4"/>
-      <c r="WX31" s="4"/>
-      <c r="WY31" s="4"/>
-      <c r="WZ31" s="4"/>
-      <c r="XA31" s="4"/>
-      <c r="XB31" s="4"/>
-      <c r="XC31" s="4"/>
-      <c r="XD31" s="4"/>
-      <c r="XE31" s="4"/>
-      <c r="XF31" s="4"/>
-      <c r="XG31" s="4"/>
-      <c r="XH31" s="4"/>
-      <c r="XI31" s="4"/>
-      <c r="XJ31" s="4"/>
-      <c r="XK31" s="4"/>
-      <c r="XL31" s="4"/>
-      <c r="XM31" s="4"/>
-      <c r="XN31" s="4"/>
-      <c r="XO31" s="4"/>
-      <c r="XP31" s="4"/>
-      <c r="XQ31" s="4"/>
-      <c r="XR31" s="4"/>
-      <c r="XS31" s="4"/>
-      <c r="XT31" s="4"/>
-      <c r="XU31" s="4"/>
-      <c r="XV31" s="4"/>
-      <c r="XW31" s="4"/>
-      <c r="XX31" s="4"/>
-      <c r="XY31" s="4"/>
-      <c r="XZ31" s="4"/>
-      <c r="YA31" s="4"/>
-      <c r="YB31" s="4"/>
-      <c r="YC31" s="4"/>
-      <c r="YD31" s="4"/>
-      <c r="YE31" s="4"/>
-      <c r="YF31" s="4"/>
-      <c r="YG31" s="4"/>
-      <c r="YH31" s="4"/>
-      <c r="YI31" s="4"/>
-      <c r="YJ31" s="4"/>
-      <c r="YK31" s="4"/>
-      <c r="YL31" s="4"/>
-      <c r="YM31" s="4"/>
-      <c r="YN31" s="4"/>
-      <c r="YO31" s="4"/>
-      <c r="YP31" s="4"/>
-      <c r="YQ31" s="4"/>
-      <c r="YR31" s="4"/>
-      <c r="YS31" s="4"/>
-      <c r="YT31" s="4"/>
-      <c r="YU31" s="4"/>
-      <c r="YV31" s="4"/>
-      <c r="YW31" s="4"/>
-      <c r="YX31" s="4"/>
-      <c r="YY31" s="4"/>
-      <c r="YZ31" s="4"/>
-      <c r="ZA31" s="4"/>
-      <c r="ZB31" s="4"/>
-      <c r="ZC31" s="4"/>
-      <c r="ZD31" s="4"/>
-      <c r="ZE31" s="4"/>
-      <c r="ZF31" s="4"/>
-      <c r="ZG31" s="4"/>
-      <c r="ZH31" s="4"/>
-      <c r="ZI31" s="4"/>
-      <c r="ZJ31" s="4"/>
-      <c r="ZK31" s="4"/>
-      <c r="ZL31" s="4"/>
-      <c r="ZM31" s="4"/>
-      <c r="ZN31" s="4"/>
-      <c r="ZO31" s="4"/>
-      <c r="ZP31" s="4"/>
-      <c r="ZQ31" s="4"/>
-      <c r="ZR31" s="4"/>
-      <c r="ZS31" s="4"/>
-      <c r="ZT31" s="4"/>
-      <c r="ZU31" s="4"/>
-      <c r="ZV31" s="4"/>
-      <c r="ZW31" s="4"/>
-      <c r="ZX31" s="4"/>
-      <c r="ZY31" s="4"/>
-      <c r="ZZ31" s="4"/>
-      <c r="AAA31" s="4"/>
-      <c r="AAB31" s="4"/>
-      <c r="AAC31" s="4"/>
-      <c r="AAD31" s="4"/>
-      <c r="AAE31" s="4"/>
-      <c r="AAF31" s="4"/>
-      <c r="AAG31" s="4"/>
-      <c r="AAH31" s="4"/>
-      <c r="AAI31" s="4"/>
-      <c r="AAJ31" s="4"/>
-      <c r="AAK31" s="4"/>
-      <c r="AAL31" s="4"/>
-      <c r="AAM31" s="4"/>
-      <c r="AAN31" s="4"/>
-      <c r="AAO31" s="4"/>
-      <c r="AAP31" s="4"/>
-      <c r="AAQ31" s="4"/>
-      <c r="AAR31" s="4"/>
-      <c r="AAS31" s="4"/>
-      <c r="AAT31" s="4"/>
-      <c r="AAU31" s="4"/>
-      <c r="AAV31" s="4"/>
-      <c r="AAW31" s="4"/>
-      <c r="AAX31" s="4"/>
-      <c r="AAY31" s="4"/>
-      <c r="AAZ31" s="4"/>
-      <c r="ABA31" s="4"/>
-      <c r="ABB31" s="4"/>
-      <c r="ABC31" s="4"/>
-      <c r="ABD31" s="4"/>
-      <c r="ABE31" s="4"/>
-      <c r="ABF31" s="4"/>
-      <c r="ABG31" s="4"/>
-      <c r="ABH31" s="4"/>
-      <c r="ABI31" s="4"/>
-      <c r="ABJ31" s="4"/>
-      <c r="ABK31" s="4"/>
-      <c r="ABL31" s="4"/>
-      <c r="ABM31" s="4"/>
-      <c r="ABN31" s="4"/>
-      <c r="ABO31" s="4"/>
-      <c r="ABP31" s="4"/>
-      <c r="ABQ31" s="4"/>
-      <c r="ABR31" s="4"/>
-      <c r="ABS31" s="4"/>
-      <c r="ABT31" s="4"/>
-      <c r="ABU31" s="4"/>
-      <c r="ABV31" s="4"/>
-      <c r="ABW31" s="4"/>
-      <c r="ABX31" s="4"/>
-      <c r="ABY31" s="4"/>
-      <c r="ABZ31" s="4"/>
-      <c r="ACA31" s="4"/>
-      <c r="ACB31" s="4"/>
-      <c r="ACC31" s="4"/>
-      <c r="ACD31" s="4"/>
-      <c r="ACE31" s="4"/>
-      <c r="ACF31" s="4"/>
-      <c r="ACG31" s="4"/>
-      <c r="ACH31" s="4"/>
-      <c r="ACI31" s="4"/>
-      <c r="ACJ31" s="4"/>
-      <c r="ACK31" s="4"/>
-      <c r="ACL31" s="4"/>
-      <c r="ACM31" s="4"/>
-      <c r="ACN31" s="4"/>
-      <c r="ACO31" s="4"/>
-      <c r="ACP31" s="4"/>
-      <c r="ACQ31" s="4"/>
-      <c r="ACR31" s="4"/>
-      <c r="ACS31" s="4"/>
-      <c r="ACT31" s="4"/>
-      <c r="ACU31" s="4"/>
-      <c r="ACV31" s="4"/>
-      <c r="ACW31" s="4"/>
-      <c r="ACX31" s="4"/>
-      <c r="ACY31" s="4"/>
-      <c r="ACZ31" s="4"/>
-      <c r="ADA31" s="4"/>
-      <c r="ADB31" s="4"/>
-      <c r="ADC31" s="4"/>
-      <c r="ADD31" s="4"/>
-      <c r="ADE31" s="4"/>
-      <c r="ADF31" s="4"/>
-      <c r="ADG31" s="4"/>
-      <c r="ADH31" s="4"/>
-      <c r="ADI31" s="4"/>
-      <c r="ADJ31" s="4"/>
-      <c r="ADK31" s="4"/>
-      <c r="ADL31" s="4"/>
-      <c r="ADM31" s="4"/>
-      <c r="ADN31" s="4"/>
-      <c r="ADO31" s="4"/>
-      <c r="ADP31" s="4"/>
-      <c r="ADQ31" s="4"/>
-      <c r="ADR31" s="4"/>
-      <c r="ADS31" s="4"/>
-      <c r="ADT31" s="4"/>
-      <c r="ADU31" s="4"/>
-      <c r="ADV31" s="4"/>
-      <c r="ADW31" s="4"/>
-      <c r="ADX31" s="4"/>
-      <c r="ADY31" s="4"/>
-      <c r="ADZ31" s="4"/>
-      <c r="AEA31" s="4"/>
-      <c r="AEB31" s="4"/>
-      <c r="AEC31" s="4"/>
-      <c r="AED31" s="4"/>
-      <c r="AEE31" s="4"/>
-      <c r="AEF31" s="4"/>
-      <c r="AEG31" s="4"/>
-      <c r="AEH31" s="4"/>
-      <c r="AEI31" s="4"/>
-      <c r="AEJ31" s="4"/>
-      <c r="AEK31" s="4"/>
-      <c r="AEL31" s="4"/>
-      <c r="AEM31" s="4"/>
-      <c r="AEN31" s="4"/>
-      <c r="AEO31" s="4"/>
-      <c r="AEP31" s="4"/>
-      <c r="AEQ31" s="4"/>
-      <c r="AER31" s="4"/>
-      <c r="AES31" s="4"/>
-      <c r="AET31" s="4"/>
-      <c r="AEU31" s="4"/>
-      <c r="AEV31" s="4"/>
-      <c r="AEW31" s="4"/>
-      <c r="AEX31" s="4"/>
-      <c r="AEY31" s="4"/>
-      <c r="AEZ31" s="4"/>
-      <c r="AFA31" s="4"/>
-      <c r="AFB31" s="4"/>
-      <c r="AFC31" s="4"/>
-      <c r="AFD31" s="4"/>
-      <c r="AFE31" s="4"/>
-      <c r="AFF31" s="4"/>
-      <c r="AFG31" s="4"/>
-      <c r="AFH31" s="4"/>
-      <c r="AFI31" s="4"/>
-      <c r="AFJ31" s="4"/>
-      <c r="AFK31" s="4"/>
-      <c r="AFL31" s="4"/>
-      <c r="AFM31" s="4"/>
-      <c r="AFN31" s="4"/>
-      <c r="AFO31" s="4"/>
-      <c r="AFP31" s="4"/>
-      <c r="AFQ31" s="4"/>
-      <c r="AFR31" s="4"/>
-      <c r="AFS31" s="4"/>
-      <c r="AFT31" s="4"/>
-      <c r="AFU31" s="4"/>
-      <c r="AFV31" s="4"/>
-      <c r="AFW31" s="4"/>
-      <c r="AFX31" s="4"/>
-      <c r="AFY31" s="4"/>
-      <c r="AFZ31" s="4"/>
-      <c r="AGA31" s="4"/>
-      <c r="AGB31" s="4"/>
-      <c r="AGC31" s="4"/>
-      <c r="AGD31" s="4"/>
-      <c r="AGE31" s="4"/>
-      <c r="AGF31" s="4"/>
-      <c r="AGG31" s="4"/>
-      <c r="AGH31" s="4"/>
-      <c r="AGI31" s="4"/>
-      <c r="AGJ31" s="4"/>
-      <c r="AGK31" s="4"/>
-      <c r="AGL31" s="4"/>
-      <c r="AGM31" s="4"/>
-      <c r="AGN31" s="4"/>
-      <c r="AGO31" s="4"/>
-      <c r="AGP31" s="4"/>
-      <c r="AGQ31" s="4"/>
-      <c r="AGR31" s="4"/>
-      <c r="AGS31" s="4"/>
-      <c r="AGT31" s="4"/>
-      <c r="AGU31" s="4"/>
-      <c r="AGV31" s="4"/>
-      <c r="AGW31" s="4"/>
-      <c r="AGX31" s="4"/>
-      <c r="AGY31" s="4"/>
-      <c r="AGZ31" s="4"/>
-      <c r="AHA31" s="4"/>
-      <c r="AHB31" s="4"/>
-      <c r="AHC31" s="4"/>
-      <c r="AHD31" s="4"/>
-      <c r="AHE31" s="4"/>
-      <c r="AHF31" s="4"/>
-      <c r="AHG31" s="4"/>
-      <c r="AHH31" s="4"/>
-      <c r="AHI31" s="4"/>
-      <c r="AHJ31" s="4"/>
-      <c r="AHK31" s="4"/>
-      <c r="AHL31" s="4"/>
-      <c r="AHM31" s="4"/>
-      <c r="AHN31" s="4"/>
-      <c r="AHO31" s="4"/>
-      <c r="AHP31" s="4"/>
-      <c r="AHQ31" s="4"/>
-      <c r="AHR31" s="4"/>
-      <c r="AHS31" s="4"/>
-      <c r="AHT31" s="4"/>
-      <c r="AHU31" s="4"/>
-      <c r="AHV31" s="4"/>
-      <c r="AHW31" s="4"/>
-      <c r="AHX31" s="4"/>
-      <c r="AHY31" s="4"/>
-      <c r="AHZ31" s="4"/>
-      <c r="AIA31" s="4"/>
-      <c r="AIB31" s="4"/>
-      <c r="AIC31" s="4"/>
-      <c r="AID31" s="4"/>
-      <c r="AIE31" s="4"/>
-      <c r="AIF31" s="4"/>
-      <c r="AIG31" s="4"/>
-      <c r="AIH31" s="4"/>
-      <c r="AII31" s="4"/>
-      <c r="AIJ31" s="4"/>
-      <c r="AIK31" s="4"/>
-      <c r="AIL31" s="4"/>
-      <c r="AIM31" s="4"/>
-      <c r="AIN31" s="4"/>
-      <c r="AIO31" s="4"/>
-      <c r="AIP31" s="4"/>
-      <c r="AIQ31" s="4"/>
-      <c r="AIR31" s="4"/>
-      <c r="AIS31" s="4"/>
-      <c r="AIT31" s="4"/>
-      <c r="AIU31" s="4"/>
-      <c r="AIV31" s="4"/>
-      <c r="AIW31" s="4"/>
-      <c r="AIX31" s="4"/>
-      <c r="AIY31" s="4"/>
-      <c r="AIZ31" s="4"/>
-      <c r="AJA31" s="4"/>
-      <c r="AJB31" s="4"/>
-      <c r="AJC31" s="4"/>
-      <c r="AJD31" s="4"/>
-      <c r="AJE31" s="4"/>
-      <c r="AJF31" s="4"/>
-      <c r="AJG31" s="4"/>
-      <c r="AJH31" s="4"/>
-      <c r="AJI31" s="4"/>
-      <c r="AJJ31" s="4"/>
-      <c r="AJK31" s="4"/>
-      <c r="AJL31" s="4"/>
-      <c r="AJM31" s="4"/>
-      <c r="AJN31" s="4"/>
-      <c r="AJO31" s="4"/>
-      <c r="AJP31" s="4"/>
-      <c r="AJQ31" s="4"/>
-      <c r="AJR31" s="4"/>
-      <c r="AJS31" s="4"/>
-      <c r="AJT31" s="4"/>
-      <c r="AJU31" s="4"/>
-      <c r="AJV31" s="4"/>
-      <c r="AJW31" s="4"/>
-      <c r="AJX31" s="4"/>
-      <c r="AJY31" s="4"/>
-      <c r="AJZ31" s="4"/>
-      <c r="AKA31" s="4"/>
-      <c r="AKB31" s="4"/>
-      <c r="AKC31" s="4"/>
-      <c r="AKD31" s="4"/>
-      <c r="AKE31" s="4"/>
-      <c r="AKF31" s="4"/>
-      <c r="AKG31" s="4"/>
-      <c r="AKH31" s="4"/>
-      <c r="AKI31" s="4"/>
-      <c r="AKJ31" s="4"/>
-      <c r="AKK31" s="4"/>
-      <c r="AKL31" s="4"/>
-      <c r="AKM31" s="4"/>
-      <c r="AKN31" s="4"/>
-      <c r="AKO31" s="4"/>
-      <c r="AKP31" s="4"/>
-      <c r="AKQ31" s="4"/>
-      <c r="AKR31" s="4"/>
-      <c r="AKS31" s="4"/>
-      <c r="AKT31" s="4"/>
-      <c r="AKU31" s="4"/>
-      <c r="AKV31" s="4"/>
-      <c r="AKW31" s="4"/>
-      <c r="AKX31" s="4"/>
-      <c r="AKY31" s="4"/>
-      <c r="AKZ31" s="4"/>
-      <c r="ALA31" s="4"/>
-      <c r="ALB31" s="4"/>
-      <c r="ALC31" s="4"/>
-      <c r="ALD31" s="4"/>
-      <c r="ALE31" s="4"/>
-      <c r="ALF31" s="4"/>
-      <c r="ALG31" s="4"/>
-      <c r="ALH31" s="4"/>
-      <c r="ALI31" s="4"/>
-      <c r="ALJ31" s="4"/>
-      <c r="ALK31" s="4"/>
-      <c r="ALL31" s="4"/>
-      <c r="ALM31" s="4"/>
-      <c r="ALN31" s="4"/>
-      <c r="ALO31" s="4"/>
-      <c r="ALP31" s="4"/>
-    </row>
-    <row r="32" spans="1:1004" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1004" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="1"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="4"/>
+      <c r="AR32" s="4"/>
+      <c r="AS32" s="4"/>
+      <c r="AT32" s="4"/>
+      <c r="AU32" s="4"/>
+      <c r="AV32" s="4"/>
+      <c r="AW32" s="4"/>
+      <c r="AX32" s="4"/>
+      <c r="AY32" s="4"/>
+      <c r="AZ32" s="4"/>
+      <c r="BA32" s="4"/>
+      <c r="BB32" s="4"/>
+      <c r="BC32" s="4"/>
+      <c r="BD32" s="4"/>
+      <c r="BE32" s="4"/>
+      <c r="BF32" s="4"/>
+      <c r="BG32" s="4"/>
+      <c r="BH32" s="4"/>
+      <c r="BI32" s="4"/>
+      <c r="BJ32" s="4"/>
+      <c r="BK32" s="4"/>
+      <c r="BL32" s="4"/>
+      <c r="BM32" s="4"/>
+      <c r="BN32" s="4"/>
+      <c r="BO32" s="4"/>
+      <c r="BP32" s="4"/>
+      <c r="BQ32" s="4"/>
+      <c r="BR32" s="4"/>
+      <c r="BS32" s="4"/>
+      <c r="BT32" s="4"/>
+      <c r="BU32" s="4"/>
+      <c r="BV32" s="4"/>
+      <c r="BW32" s="4"/>
+      <c r="BX32" s="4"/>
+      <c r="BY32" s="4"/>
+      <c r="BZ32" s="4"/>
+      <c r="CA32" s="4"/>
+      <c r="CB32" s="4"/>
+      <c r="CC32" s="4"/>
+      <c r="CD32" s="4"/>
+      <c r="CE32" s="4"/>
+      <c r="CF32" s="4"/>
+      <c r="CG32" s="4"/>
+      <c r="CH32" s="4"/>
+      <c r="CI32" s="4"/>
+      <c r="CJ32" s="4"/>
+      <c r="CK32" s="4"/>
+      <c r="CL32" s="4"/>
+      <c r="CM32" s="4"/>
+      <c r="CN32" s="4"/>
+      <c r="CO32" s="4"/>
+      <c r="CP32" s="4"/>
+      <c r="CQ32" s="4"/>
+      <c r="CR32" s="4"/>
+      <c r="CS32" s="4"/>
+      <c r="CT32" s="4"/>
+      <c r="CU32" s="4"/>
+      <c r="CV32" s="4"/>
+      <c r="CW32" s="4"/>
+      <c r="CX32" s="4"/>
+      <c r="CY32" s="4"/>
+      <c r="CZ32" s="4"/>
+      <c r="DA32" s="4"/>
+      <c r="DB32" s="4"/>
+      <c r="DC32" s="4"/>
+      <c r="DD32" s="4"/>
+      <c r="DE32" s="4"/>
+      <c r="DF32" s="4"/>
+      <c r="DG32" s="4"/>
+      <c r="DH32" s="4"/>
+      <c r="DI32" s="4"/>
+      <c r="DJ32" s="4"/>
+      <c r="DK32" s="4"/>
+      <c r="DL32" s="4"/>
+      <c r="DM32" s="4"/>
+      <c r="DN32" s="4"/>
+      <c r="DO32" s="4"/>
+      <c r="DP32" s="4"/>
+      <c r="DQ32" s="4"/>
+      <c r="DR32" s="4"/>
+      <c r="DS32" s="4"/>
+      <c r="DT32" s="4"/>
+      <c r="DU32" s="4"/>
+      <c r="DV32" s="4"/>
+      <c r="DW32" s="4"/>
+      <c r="DX32" s="4"/>
+      <c r="DY32" s="4"/>
+      <c r="DZ32" s="4"/>
+      <c r="EA32" s="4"/>
+      <c r="EB32" s="4"/>
+      <c r="EC32" s="4"/>
+      <c r="ED32" s="4"/>
+      <c r="EE32" s="4"/>
+      <c r="EF32" s="4"/>
+      <c r="EG32" s="4"/>
+      <c r="EH32" s="4"/>
+      <c r="EI32" s="4"/>
+      <c r="EJ32" s="4"/>
+      <c r="EK32" s="4"/>
+      <c r="EL32" s="4"/>
+      <c r="EM32" s="4"/>
+      <c r="EN32" s="4"/>
+      <c r="EO32" s="4"/>
+      <c r="EP32" s="4"/>
+      <c r="EQ32" s="4"/>
+      <c r="ER32" s="4"/>
+      <c r="ES32" s="4"/>
+      <c r="ET32" s="4"/>
+      <c r="EU32" s="4"/>
+      <c r="EV32" s="4"/>
+      <c r="EW32" s="4"/>
+      <c r="EX32" s="4"/>
+      <c r="EY32" s="4"/>
+      <c r="EZ32" s="4"/>
+      <c r="FA32" s="4"/>
+      <c r="FB32" s="4"/>
+      <c r="FC32" s="4"/>
+      <c r="FD32" s="4"/>
+      <c r="FE32" s="4"/>
+      <c r="FF32" s="4"/>
+      <c r="FG32" s="4"/>
+      <c r="FH32" s="4"/>
+      <c r="FI32" s="4"/>
+      <c r="FJ32" s="4"/>
+      <c r="FK32" s="4"/>
+      <c r="FL32" s="4"/>
+      <c r="FM32" s="4"/>
+      <c r="FN32" s="4"/>
+      <c r="FO32" s="4"/>
+      <c r="FP32" s="4"/>
+      <c r="FQ32" s="4"/>
+      <c r="FR32" s="4"/>
+      <c r="FS32" s="4"/>
+      <c r="FT32" s="4"/>
+      <c r="FU32" s="4"/>
+      <c r="FV32" s="4"/>
+      <c r="FW32" s="4"/>
+      <c r="FX32" s="4"/>
+      <c r="FY32" s="4"/>
+      <c r="FZ32" s="4"/>
+      <c r="GA32" s="4"/>
+      <c r="GB32" s="4"/>
+      <c r="GC32" s="4"/>
+      <c r="GD32" s="4"/>
+      <c r="GE32" s="4"/>
+      <c r="GF32" s="4"/>
+      <c r="GG32" s="4"/>
+      <c r="GH32" s="4"/>
+      <c r="GI32" s="4"/>
+      <c r="GJ32" s="4"/>
+      <c r="GK32" s="4"/>
+      <c r="GL32" s="4"/>
+      <c r="GM32" s="4"/>
+      <c r="GN32" s="4"/>
+      <c r="GO32" s="4"/>
+      <c r="GP32" s="4"/>
+      <c r="GQ32" s="4"/>
+      <c r="GR32" s="4"/>
+      <c r="GS32" s="4"/>
+      <c r="GT32" s="4"/>
+      <c r="GU32" s="4"/>
+      <c r="GV32" s="4"/>
+      <c r="GW32" s="4"/>
+      <c r="GX32" s="4"/>
+      <c r="GY32" s="4"/>
+      <c r="GZ32" s="4"/>
+      <c r="HA32" s="4"/>
+      <c r="HB32" s="4"/>
+      <c r="HC32" s="4"/>
+      <c r="HD32" s="4"/>
+      <c r="HE32" s="4"/>
+      <c r="HF32" s="4"/>
+      <c r="HG32" s="4"/>
+      <c r="HH32" s="4"/>
+      <c r="HI32" s="4"/>
+      <c r="HJ32" s="4"/>
+      <c r="HK32" s="4"/>
+      <c r="HL32" s="4"/>
+      <c r="HM32" s="4"/>
+      <c r="HN32" s="4"/>
+      <c r="HO32" s="4"/>
+      <c r="HP32" s="4"/>
+      <c r="HQ32" s="4"/>
+      <c r="HR32" s="4"/>
+      <c r="HS32" s="4"/>
+      <c r="HT32" s="4"/>
+      <c r="HU32" s="4"/>
+      <c r="HV32" s="4"/>
+      <c r="HW32" s="4"/>
+      <c r="HX32" s="4"/>
+      <c r="HY32" s="4"/>
+      <c r="HZ32" s="4"/>
+      <c r="IA32" s="4"/>
+      <c r="IB32" s="4"/>
+      <c r="IC32" s="4"/>
+      <c r="ID32" s="4"/>
+      <c r="IE32" s="4"/>
+      <c r="IF32" s="4"/>
+      <c r="IG32" s="4"/>
+      <c r="IH32" s="4"/>
+      <c r="II32" s="4"/>
+      <c r="IJ32" s="4"/>
+      <c r="IK32" s="4"/>
+      <c r="IL32" s="4"/>
+      <c r="IM32" s="4"/>
+      <c r="IN32" s="4"/>
+      <c r="IO32" s="4"/>
+      <c r="IP32" s="4"/>
+      <c r="IQ32" s="4"/>
+      <c r="IR32" s="4"/>
+      <c r="IS32" s="4"/>
+      <c r="IT32" s="4"/>
+      <c r="IU32" s="4"/>
+      <c r="IV32" s="4"/>
+      <c r="IW32" s="4"/>
+      <c r="IX32" s="4"/>
+      <c r="IY32" s="4"/>
+      <c r="IZ32" s="4"/>
+      <c r="JA32" s="4"/>
+      <c r="JB32" s="4"/>
+      <c r="JC32" s="4"/>
+      <c r="JD32" s="4"/>
+      <c r="JE32" s="4"/>
+      <c r="JF32" s="4"/>
+      <c r="JG32" s="4"/>
+      <c r="JH32" s="4"/>
+      <c r="JI32" s="4"/>
+      <c r="JJ32" s="4"/>
+      <c r="JK32" s="4"/>
+      <c r="JL32" s="4"/>
+      <c r="JM32" s="4"/>
+      <c r="JN32" s="4"/>
+      <c r="JO32" s="4"/>
+      <c r="JP32" s="4"/>
+      <c r="JQ32" s="4"/>
+      <c r="JR32" s="4"/>
+      <c r="JS32" s="4"/>
+      <c r="JT32" s="4"/>
+      <c r="JU32" s="4"/>
+      <c r="JV32" s="4"/>
+      <c r="JW32" s="4"/>
+      <c r="JX32" s="4"/>
+      <c r="JY32" s="4"/>
+      <c r="JZ32" s="4"/>
+      <c r="KA32" s="4"/>
+      <c r="KB32" s="4"/>
+      <c r="KC32" s="4"/>
+      <c r="KD32" s="4"/>
+      <c r="KE32" s="4"/>
+      <c r="KF32" s="4"/>
+      <c r="KG32" s="4"/>
+      <c r="KH32" s="4"/>
+      <c r="KI32" s="4"/>
+      <c r="KJ32" s="4"/>
+      <c r="KK32" s="4"/>
+      <c r="KL32" s="4"/>
+      <c r="KM32" s="4"/>
+      <c r="KN32" s="4"/>
+      <c r="KO32" s="4"/>
+      <c r="KP32" s="4"/>
+      <c r="KQ32" s="4"/>
+      <c r="KR32" s="4"/>
+      <c r="KS32" s="4"/>
+      <c r="KT32" s="4"/>
+      <c r="KU32" s="4"/>
+      <c r="KV32" s="4"/>
+      <c r="KW32" s="4"/>
+      <c r="KX32" s="4"/>
+      <c r="KY32" s="4"/>
+      <c r="KZ32" s="4"/>
+      <c r="LA32" s="4"/>
+      <c r="LB32" s="4"/>
+      <c r="LC32" s="4"/>
+      <c r="LD32" s="4"/>
+      <c r="LE32" s="4"/>
+      <c r="LF32" s="4"/>
+      <c r="LG32" s="4"/>
+      <c r="LH32" s="4"/>
+      <c r="LI32" s="4"/>
+      <c r="LJ32" s="4"/>
+      <c r="LK32" s="4"/>
+      <c r="LL32" s="4"/>
+      <c r="LM32" s="4"/>
+      <c r="LN32" s="4"/>
+      <c r="LO32" s="4"/>
+      <c r="LP32" s="4"/>
+      <c r="LQ32" s="4"/>
+      <c r="LR32" s="4"/>
+      <c r="LS32" s="4"/>
+      <c r="LT32" s="4"/>
+      <c r="LU32" s="4"/>
+      <c r="LV32" s="4"/>
+      <c r="LW32" s="4"/>
+      <c r="LX32" s="4"/>
+      <c r="LY32" s="4"/>
+      <c r="LZ32" s="4"/>
+      <c r="MA32" s="4"/>
+      <c r="MB32" s="4"/>
+      <c r="MC32" s="4"/>
+      <c r="MD32" s="4"/>
+      <c r="ME32" s="4"/>
+      <c r="MF32" s="4"/>
+      <c r="MG32" s="4"/>
+      <c r="MH32" s="4"/>
+      <c r="MI32" s="4"/>
+      <c r="MJ32" s="4"/>
+      <c r="MK32" s="4"/>
+      <c r="ML32" s="4"/>
+      <c r="MM32" s="4"/>
+      <c r="MN32" s="4"/>
+      <c r="MO32" s="4"/>
+      <c r="MP32" s="4"/>
+      <c r="MQ32" s="4"/>
+      <c r="MR32" s="4"/>
+      <c r="MS32" s="4"/>
+      <c r="MT32" s="4"/>
+      <c r="MU32" s="4"/>
+      <c r="MV32" s="4"/>
+      <c r="MW32" s="4"/>
+      <c r="MX32" s="4"/>
+      <c r="MY32" s="4"/>
+      <c r="MZ32" s="4"/>
+      <c r="NA32" s="4"/>
+      <c r="NB32" s="4"/>
+      <c r="NC32" s="4"/>
+      <c r="ND32" s="4"/>
+      <c r="NE32" s="4"/>
+      <c r="NF32" s="4"/>
+      <c r="NG32" s="4"/>
+      <c r="NH32" s="4"/>
+      <c r="NI32" s="4"/>
+      <c r="NJ32" s="4"/>
+      <c r="NK32" s="4"/>
+      <c r="NL32" s="4"/>
+      <c r="NM32" s="4"/>
+      <c r="NN32" s="4"/>
+      <c r="NO32" s="4"/>
+      <c r="NP32" s="4"/>
+      <c r="NQ32" s="4"/>
+      <c r="NR32" s="4"/>
+      <c r="NS32" s="4"/>
+      <c r="NT32" s="4"/>
+      <c r="NU32" s="4"/>
+      <c r="NV32" s="4"/>
+      <c r="NW32" s="4"/>
+      <c r="NX32" s="4"/>
+      <c r="NY32" s="4"/>
+      <c r="NZ32" s="4"/>
+      <c r="OA32" s="4"/>
+      <c r="OB32" s="4"/>
+      <c r="OC32" s="4"/>
+      <c r="OD32" s="4"/>
+      <c r="OE32" s="4"/>
+      <c r="OF32" s="4"/>
+      <c r="OG32" s="4"/>
+      <c r="OH32" s="4"/>
+      <c r="OI32" s="4"/>
+      <c r="OJ32" s="4"/>
+      <c r="OK32" s="4"/>
+      <c r="OL32" s="4"/>
+      <c r="OM32" s="4"/>
+      <c r="ON32" s="4"/>
+      <c r="OO32" s="4"/>
+      <c r="OP32" s="4"/>
+      <c r="OQ32" s="4"/>
+      <c r="OR32" s="4"/>
+      <c r="OS32" s="4"/>
+      <c r="OT32" s="4"/>
+      <c r="OU32" s="4"/>
+      <c r="OV32" s="4"/>
+      <c r="OW32" s="4"/>
+      <c r="OX32" s="4"/>
+      <c r="OY32" s="4"/>
+      <c r="OZ32" s="4"/>
+      <c r="PA32" s="4"/>
+      <c r="PB32" s="4"/>
+      <c r="PC32" s="4"/>
+      <c r="PD32" s="4"/>
+      <c r="PE32" s="4"/>
+      <c r="PF32" s="4"/>
+      <c r="PG32" s="4"/>
+      <c r="PH32" s="4"/>
+      <c r="PI32" s="4"/>
+      <c r="PJ32" s="4"/>
+      <c r="PK32" s="4"/>
+      <c r="PL32" s="4"/>
+      <c r="PM32" s="4"/>
+      <c r="PN32" s="4"/>
+      <c r="PO32" s="4"/>
+      <c r="PP32" s="4"/>
+      <c r="PQ32" s="4"/>
+      <c r="PR32" s="4"/>
+      <c r="PS32" s="4"/>
+      <c r="PT32" s="4"/>
+      <c r="PU32" s="4"/>
+      <c r="PV32" s="4"/>
+      <c r="PW32" s="4"/>
+      <c r="PX32" s="4"/>
+      <c r="PY32" s="4"/>
+      <c r="PZ32" s="4"/>
+      <c r="QA32" s="4"/>
+      <c r="QB32" s="4"/>
+      <c r="QC32" s="4"/>
+      <c r="QD32" s="4"/>
+      <c r="QE32" s="4"/>
+      <c r="QF32" s="4"/>
+      <c r="QG32" s="4"/>
+      <c r="QH32" s="4"/>
+      <c r="QI32" s="4"/>
+      <c r="QJ32" s="4"/>
+      <c r="QK32" s="4"/>
+      <c r="QL32" s="4"/>
+      <c r="QM32" s="4"/>
+      <c r="QN32" s="4"/>
+      <c r="QO32" s="4"/>
+      <c r="QP32" s="4"/>
+      <c r="QQ32" s="4"/>
+      <c r="QR32" s="4"/>
+      <c r="QS32" s="4"/>
+      <c r="QT32" s="4"/>
+      <c r="QU32" s="4"/>
+      <c r="QV32" s="4"/>
+      <c r="QW32" s="4"/>
+      <c r="QX32" s="4"/>
+      <c r="QY32" s="4"/>
+      <c r="QZ32" s="4"/>
+      <c r="RA32" s="4"/>
+      <c r="RB32" s="4"/>
+      <c r="RC32" s="4"/>
+      <c r="RD32" s="4"/>
+      <c r="RE32" s="4"/>
+      <c r="RF32" s="4"/>
+      <c r="RG32" s="4"/>
+      <c r="RH32" s="4"/>
+      <c r="RI32" s="4"/>
+      <c r="RJ32" s="4"/>
+      <c r="RK32" s="4"/>
+      <c r="RL32" s="4"/>
+      <c r="RM32" s="4"/>
+      <c r="RN32" s="4"/>
+      <c r="RO32" s="4"/>
+      <c r="RP32" s="4"/>
+      <c r="RQ32" s="4"/>
+      <c r="RR32" s="4"/>
+      <c r="RS32" s="4"/>
+      <c r="RT32" s="4"/>
+      <c r="RU32" s="4"/>
+      <c r="RV32" s="4"/>
+      <c r="RW32" s="4"/>
+      <c r="RX32" s="4"/>
+      <c r="RY32" s="4"/>
+      <c r="RZ32" s="4"/>
+      <c r="SA32" s="4"/>
+      <c r="SB32" s="4"/>
+      <c r="SC32" s="4"/>
+      <c r="SD32" s="4"/>
+      <c r="SE32" s="4"/>
+      <c r="SF32" s="4"/>
+      <c r="SG32" s="4"/>
+      <c r="SH32" s="4"/>
+      <c r="SI32" s="4"/>
+      <c r="SJ32" s="4"/>
+      <c r="SK32" s="4"/>
+      <c r="SL32" s="4"/>
+      <c r="SM32" s="4"/>
+      <c r="SN32" s="4"/>
+      <c r="SO32" s="4"/>
+      <c r="SP32" s="4"/>
+      <c r="SQ32" s="4"/>
+      <c r="SR32" s="4"/>
+      <c r="SS32" s="4"/>
+      <c r="ST32" s="4"/>
+      <c r="SU32" s="4"/>
+      <c r="SV32" s="4"/>
+      <c r="SW32" s="4"/>
+      <c r="SX32" s="4"/>
+      <c r="SY32" s="4"/>
+      <c r="SZ32" s="4"/>
+      <c r="TA32" s="4"/>
+      <c r="TB32" s="4"/>
+      <c r="TC32" s="4"/>
+      <c r="TD32" s="4"/>
+      <c r="TE32" s="4"/>
+      <c r="TF32" s="4"/>
+      <c r="TG32" s="4"/>
+      <c r="TH32" s="4"/>
+      <c r="TI32" s="4"/>
+      <c r="TJ32" s="4"/>
+      <c r="TK32" s="4"/>
+      <c r="TL32" s="4"/>
+      <c r="TM32" s="4"/>
+      <c r="TN32" s="4"/>
+      <c r="TO32" s="4"/>
+      <c r="TP32" s="4"/>
+      <c r="TQ32" s="4"/>
+      <c r="TR32" s="4"/>
+      <c r="TS32" s="4"/>
+      <c r="TT32" s="4"/>
+      <c r="TU32" s="4"/>
+      <c r="TV32" s="4"/>
+      <c r="TW32" s="4"/>
+      <c r="TX32" s="4"/>
+      <c r="TY32" s="4"/>
+      <c r="TZ32" s="4"/>
+      <c r="UA32" s="4"/>
+      <c r="UB32" s="4"/>
+      <c r="UC32" s="4"/>
+      <c r="UD32" s="4"/>
+      <c r="UE32" s="4"/>
+      <c r="UF32" s="4"/>
+      <c r="UG32" s="4"/>
+      <c r="UH32" s="4"/>
+      <c r="UI32" s="4"/>
+      <c r="UJ32" s="4"/>
+      <c r="UK32" s="4"/>
+      <c r="UL32" s="4"/>
+      <c r="UM32" s="4"/>
+      <c r="UN32" s="4"/>
+      <c r="UO32" s="4"/>
+      <c r="UP32" s="4"/>
+      <c r="UQ32" s="4"/>
+      <c r="UR32" s="4"/>
+      <c r="US32" s="4"/>
+      <c r="UT32" s="4"/>
+      <c r="UU32" s="4"/>
+      <c r="UV32" s="4"/>
+      <c r="UW32" s="4"/>
+      <c r="UX32" s="4"/>
+      <c r="UY32" s="4"/>
+      <c r="UZ32" s="4"/>
+      <c r="VA32" s="4"/>
+      <c r="VB32" s="4"/>
+      <c r="VC32" s="4"/>
+      <c r="VD32" s="4"/>
+      <c r="VE32" s="4"/>
+      <c r="VF32" s="4"/>
+      <c r="VG32" s="4"/>
+      <c r="VH32" s="4"/>
+      <c r="VI32" s="4"/>
+      <c r="VJ32" s="4"/>
+      <c r="VK32" s="4"/>
+      <c r="VL32" s="4"/>
+      <c r="VM32" s="4"/>
+      <c r="VN32" s="4"/>
+      <c r="VO32" s="4"/>
+      <c r="VP32" s="4"/>
+      <c r="VQ32" s="4"/>
+      <c r="VR32" s="4"/>
+      <c r="VS32" s="4"/>
+      <c r="VT32" s="4"/>
+      <c r="VU32" s="4"/>
+      <c r="VV32" s="4"/>
+      <c r="VW32" s="4"/>
+      <c r="VX32" s="4"/>
+      <c r="VY32" s="4"/>
+      <c r="VZ32" s="4"/>
+      <c r="WA32" s="4"/>
+      <c r="WB32" s="4"/>
+      <c r="WC32" s="4"/>
+      <c r="WD32" s="4"/>
+      <c r="WE32" s="4"/>
+      <c r="WF32" s="4"/>
+      <c r="WG32" s="4"/>
+      <c r="WH32" s="4"/>
+      <c r="WI32" s="4"/>
+      <c r="WJ32" s="4"/>
+      <c r="WK32" s="4"/>
+      <c r="WL32" s="4"/>
+      <c r="WM32" s="4"/>
+      <c r="WN32" s="4"/>
+      <c r="WO32" s="4"/>
+      <c r="WP32" s="4"/>
+      <c r="WQ32" s="4"/>
+      <c r="WR32" s="4"/>
+      <c r="WS32" s="4"/>
+      <c r="WT32" s="4"/>
+      <c r="WU32" s="4"/>
+      <c r="WV32" s="4"/>
+      <c r="WW32" s="4"/>
+      <c r="WX32" s="4"/>
+      <c r="WY32" s="4"/>
+      <c r="WZ32" s="4"/>
+      <c r="XA32" s="4"/>
+      <c r="XB32" s="4"/>
+      <c r="XC32" s="4"/>
+      <c r="XD32" s="4"/>
+      <c r="XE32" s="4"/>
+      <c r="XF32" s="4"/>
+      <c r="XG32" s="4"/>
+      <c r="XH32" s="4"/>
+      <c r="XI32" s="4"/>
+      <c r="XJ32" s="4"/>
+      <c r="XK32" s="4"/>
+      <c r="XL32" s="4"/>
+      <c r="XM32" s="4"/>
+      <c r="XN32" s="4"/>
+      <c r="XO32" s="4"/>
+      <c r="XP32" s="4"/>
+      <c r="XQ32" s="4"/>
+      <c r="XR32" s="4"/>
+      <c r="XS32" s="4"/>
+      <c r="XT32" s="4"/>
+      <c r="XU32" s="4"/>
+      <c r="XV32" s="4"/>
+      <c r="XW32" s="4"/>
+      <c r="XX32" s="4"/>
+      <c r="XY32" s="4"/>
+      <c r="XZ32" s="4"/>
+      <c r="YA32" s="4"/>
+      <c r="YB32" s="4"/>
+      <c r="YC32" s="4"/>
+      <c r="YD32" s="4"/>
+      <c r="YE32" s="4"/>
+      <c r="YF32" s="4"/>
+      <c r="YG32" s="4"/>
+      <c r="YH32" s="4"/>
+      <c r="YI32" s="4"/>
+      <c r="YJ32" s="4"/>
+      <c r="YK32" s="4"/>
+      <c r="YL32" s="4"/>
+      <c r="YM32" s="4"/>
+      <c r="YN32" s="4"/>
+      <c r="YO32" s="4"/>
+      <c r="YP32" s="4"/>
+      <c r="YQ32" s="4"/>
+      <c r="YR32" s="4"/>
+      <c r="YS32" s="4"/>
+      <c r="YT32" s="4"/>
+      <c r="YU32" s="4"/>
+      <c r="YV32" s="4"/>
+      <c r="YW32" s="4"/>
+      <c r="YX32" s="4"/>
+      <c r="YY32" s="4"/>
+      <c r="YZ32" s="4"/>
+      <c r="ZA32" s="4"/>
+      <c r="ZB32" s="4"/>
+      <c r="ZC32" s="4"/>
+      <c r="ZD32" s="4"/>
+      <c r="ZE32" s="4"/>
+      <c r="ZF32" s="4"/>
+      <c r="ZG32" s="4"/>
+      <c r="ZH32" s="4"/>
+      <c r="ZI32" s="4"/>
+      <c r="ZJ32" s="4"/>
+      <c r="ZK32" s="4"/>
+      <c r="ZL32" s="4"/>
+      <c r="ZM32" s="4"/>
+      <c r="ZN32" s="4"/>
+      <c r="ZO32" s="4"/>
+      <c r="ZP32" s="4"/>
+      <c r="ZQ32" s="4"/>
+      <c r="ZR32" s="4"/>
+      <c r="ZS32" s="4"/>
+      <c r="ZT32" s="4"/>
+      <c r="ZU32" s="4"/>
+      <c r="ZV32" s="4"/>
+      <c r="ZW32" s="4"/>
+      <c r="ZX32" s="4"/>
+      <c r="ZY32" s="4"/>
+      <c r="ZZ32" s="4"/>
+      <c r="AAA32" s="4"/>
+      <c r="AAB32" s="4"/>
+      <c r="AAC32" s="4"/>
+      <c r="AAD32" s="4"/>
+      <c r="AAE32" s="4"/>
+      <c r="AAF32" s="4"/>
+      <c r="AAG32" s="4"/>
+      <c r="AAH32" s="4"/>
+      <c r="AAI32" s="4"/>
+      <c r="AAJ32" s="4"/>
+      <c r="AAK32" s="4"/>
+      <c r="AAL32" s="4"/>
+      <c r="AAM32" s="4"/>
+      <c r="AAN32" s="4"/>
+      <c r="AAO32" s="4"/>
+      <c r="AAP32" s="4"/>
+      <c r="AAQ32" s="4"/>
+      <c r="AAR32" s="4"/>
+      <c r="AAS32" s="4"/>
+      <c r="AAT32" s="4"/>
+      <c r="AAU32" s="4"/>
+      <c r="AAV32" s="4"/>
+      <c r="AAW32" s="4"/>
+      <c r="AAX32" s="4"/>
+      <c r="AAY32" s="4"/>
+      <c r="AAZ32" s="4"/>
+      <c r="ABA32" s="4"/>
+      <c r="ABB32" s="4"/>
+      <c r="ABC32" s="4"/>
+      <c r="ABD32" s="4"/>
+      <c r="ABE32" s="4"/>
+      <c r="ABF32" s="4"/>
+      <c r="ABG32" s="4"/>
+      <c r="ABH32" s="4"/>
+      <c r="ABI32" s="4"/>
+      <c r="ABJ32" s="4"/>
+      <c r="ABK32" s="4"/>
+      <c r="ABL32" s="4"/>
+      <c r="ABM32" s="4"/>
+      <c r="ABN32" s="4"/>
+      <c r="ABO32" s="4"/>
+      <c r="ABP32" s="4"/>
+      <c r="ABQ32" s="4"/>
+      <c r="ABR32" s="4"/>
+      <c r="ABS32" s="4"/>
+      <c r="ABT32" s="4"/>
+      <c r="ABU32" s="4"/>
+      <c r="ABV32" s="4"/>
+      <c r="ABW32" s="4"/>
+      <c r="ABX32" s="4"/>
+      <c r="ABY32" s="4"/>
+      <c r="ABZ32" s="4"/>
+      <c r="ACA32" s="4"/>
+      <c r="ACB32" s="4"/>
+      <c r="ACC32" s="4"/>
+      <c r="ACD32" s="4"/>
+      <c r="ACE32" s="4"/>
+      <c r="ACF32" s="4"/>
+      <c r="ACG32" s="4"/>
+      <c r="ACH32" s="4"/>
+      <c r="ACI32" s="4"/>
+      <c r="ACJ32" s="4"/>
+      <c r="ACK32" s="4"/>
+      <c r="ACL32" s="4"/>
+      <c r="ACM32" s="4"/>
+      <c r="ACN32" s="4"/>
+      <c r="ACO32" s="4"/>
+      <c r="ACP32" s="4"/>
+      <c r="ACQ32" s="4"/>
+      <c r="ACR32" s="4"/>
+      <c r="ACS32" s="4"/>
+      <c r="ACT32" s="4"/>
+      <c r="ACU32" s="4"/>
+      <c r="ACV32" s="4"/>
+      <c r="ACW32" s="4"/>
+      <c r="ACX32" s="4"/>
+      <c r="ACY32" s="4"/>
+      <c r="ACZ32" s="4"/>
+      <c r="ADA32" s="4"/>
+      <c r="ADB32" s="4"/>
+      <c r="ADC32" s="4"/>
+      <c r="ADD32" s="4"/>
+      <c r="ADE32" s="4"/>
+      <c r="ADF32" s="4"/>
+      <c r="ADG32" s="4"/>
+      <c r="ADH32" s="4"/>
+      <c r="ADI32" s="4"/>
+      <c r="ADJ32" s="4"/>
+      <c r="ADK32" s="4"/>
+      <c r="ADL32" s="4"/>
+      <c r="ADM32" s="4"/>
+      <c r="ADN32" s="4"/>
+      <c r="ADO32" s="4"/>
+      <c r="ADP32" s="4"/>
+      <c r="ADQ32" s="4"/>
+      <c r="ADR32" s="4"/>
+      <c r="ADS32" s="4"/>
+      <c r="ADT32" s="4"/>
+      <c r="ADU32" s="4"/>
+      <c r="ADV32" s="4"/>
+      <c r="ADW32" s="4"/>
+      <c r="ADX32" s="4"/>
+      <c r="ADY32" s="4"/>
+      <c r="ADZ32" s="4"/>
+      <c r="AEA32" s="4"/>
+      <c r="AEB32" s="4"/>
+      <c r="AEC32" s="4"/>
+      <c r="AED32" s="4"/>
+      <c r="AEE32" s="4"/>
+      <c r="AEF32" s="4"/>
+      <c r="AEG32" s="4"/>
+      <c r="AEH32" s="4"/>
+      <c r="AEI32" s="4"/>
+      <c r="AEJ32" s="4"/>
+      <c r="AEK32" s="4"/>
+      <c r="AEL32" s="4"/>
+      <c r="AEM32" s="4"/>
+      <c r="AEN32" s="4"/>
+      <c r="AEO32" s="4"/>
+      <c r="AEP32" s="4"/>
+      <c r="AEQ32" s="4"/>
+      <c r="AER32" s="4"/>
+      <c r="AES32" s="4"/>
+      <c r="AET32" s="4"/>
+      <c r="AEU32" s="4"/>
+      <c r="AEV32" s="4"/>
+      <c r="AEW32" s="4"/>
+      <c r="AEX32" s="4"/>
+      <c r="AEY32" s="4"/>
+      <c r="AEZ32" s="4"/>
+      <c r="AFA32" s="4"/>
+      <c r="AFB32" s="4"/>
+      <c r="AFC32" s="4"/>
+      <c r="AFD32" s="4"/>
+      <c r="AFE32" s="4"/>
+      <c r="AFF32" s="4"/>
+      <c r="AFG32" s="4"/>
+      <c r="AFH32" s="4"/>
+      <c r="AFI32" s="4"/>
+      <c r="AFJ32" s="4"/>
+      <c r="AFK32" s="4"/>
+      <c r="AFL32" s="4"/>
+      <c r="AFM32" s="4"/>
+      <c r="AFN32" s="4"/>
+      <c r="AFO32" s="4"/>
+      <c r="AFP32" s="4"/>
+      <c r="AFQ32" s="4"/>
+      <c r="AFR32" s="4"/>
+      <c r="AFS32" s="4"/>
+      <c r="AFT32" s="4"/>
+      <c r="AFU32" s="4"/>
+      <c r="AFV32" s="4"/>
+      <c r="AFW32" s="4"/>
+      <c r="AFX32" s="4"/>
+      <c r="AFY32" s="4"/>
+      <c r="AFZ32" s="4"/>
+      <c r="AGA32" s="4"/>
+      <c r="AGB32" s="4"/>
+      <c r="AGC32" s="4"/>
+      <c r="AGD32" s="4"/>
+      <c r="AGE32" s="4"/>
+      <c r="AGF32" s="4"/>
+      <c r="AGG32" s="4"/>
+      <c r="AGH32" s="4"/>
+      <c r="AGI32" s="4"/>
+      <c r="AGJ32" s="4"/>
+      <c r="AGK32" s="4"/>
+      <c r="AGL32" s="4"/>
+      <c r="AGM32" s="4"/>
+      <c r="AGN32" s="4"/>
+      <c r="AGO32" s="4"/>
+      <c r="AGP32" s="4"/>
+      <c r="AGQ32" s="4"/>
+      <c r="AGR32" s="4"/>
+      <c r="AGS32" s="4"/>
+      <c r="AGT32" s="4"/>
+      <c r="AGU32" s="4"/>
+      <c r="AGV32" s="4"/>
+      <c r="AGW32" s="4"/>
+      <c r="AGX32" s="4"/>
+      <c r="AGY32" s="4"/>
+      <c r="AGZ32" s="4"/>
+      <c r="AHA32" s="4"/>
+      <c r="AHB32" s="4"/>
+      <c r="AHC32" s="4"/>
+      <c r="AHD32" s="4"/>
+      <c r="AHE32" s="4"/>
+      <c r="AHF32" s="4"/>
+      <c r="AHG32" s="4"/>
+      <c r="AHH32" s="4"/>
+      <c r="AHI32" s="4"/>
+      <c r="AHJ32" s="4"/>
+      <c r="AHK32" s="4"/>
+      <c r="AHL32" s="4"/>
+      <c r="AHM32" s="4"/>
+      <c r="AHN32" s="4"/>
+      <c r="AHO32" s="4"/>
+      <c r="AHP32" s="4"/>
+      <c r="AHQ32" s="4"/>
+      <c r="AHR32" s="4"/>
+      <c r="AHS32" s="4"/>
+      <c r="AHT32" s="4"/>
+      <c r="AHU32" s="4"/>
+      <c r="AHV32" s="4"/>
+      <c r="AHW32" s="4"/>
+      <c r="AHX32" s="4"/>
+      <c r="AHY32" s="4"/>
+      <c r="AHZ32" s="4"/>
+      <c r="AIA32" s="4"/>
+      <c r="AIB32" s="4"/>
+      <c r="AIC32" s="4"/>
+      <c r="AID32" s="4"/>
+      <c r="AIE32" s="4"/>
+      <c r="AIF32" s="4"/>
+      <c r="AIG32" s="4"/>
+      <c r="AIH32" s="4"/>
+      <c r="AII32" s="4"/>
+      <c r="AIJ32" s="4"/>
+      <c r="AIK32" s="4"/>
+      <c r="AIL32" s="4"/>
+      <c r="AIM32" s="4"/>
+      <c r="AIN32" s="4"/>
+      <c r="AIO32" s="4"/>
+      <c r="AIP32" s="4"/>
+      <c r="AIQ32" s="4"/>
+      <c r="AIR32" s="4"/>
+      <c r="AIS32" s="4"/>
+      <c r="AIT32" s="4"/>
+      <c r="AIU32" s="4"/>
+      <c r="AIV32" s="4"/>
+      <c r="AIW32" s="4"/>
+      <c r="AIX32" s="4"/>
+      <c r="AIY32" s="4"/>
+      <c r="AIZ32" s="4"/>
+      <c r="AJA32" s="4"/>
+      <c r="AJB32" s="4"/>
+      <c r="AJC32" s="4"/>
+      <c r="AJD32" s="4"/>
+      <c r="AJE32" s="4"/>
+      <c r="AJF32" s="4"/>
+      <c r="AJG32" s="4"/>
+      <c r="AJH32" s="4"/>
+      <c r="AJI32" s="4"/>
+      <c r="AJJ32" s="4"/>
+      <c r="AJK32" s="4"/>
+      <c r="AJL32" s="4"/>
+      <c r="AJM32" s="4"/>
+      <c r="AJN32" s="4"/>
+      <c r="AJO32" s="4"/>
+      <c r="AJP32" s="4"/>
+      <c r="AJQ32" s="4"/>
+      <c r="AJR32" s="4"/>
+      <c r="AJS32" s="4"/>
+      <c r="AJT32" s="4"/>
+      <c r="AJU32" s="4"/>
+      <c r="AJV32" s="4"/>
+      <c r="AJW32" s="4"/>
+      <c r="AJX32" s="4"/>
+      <c r="AJY32" s="4"/>
+      <c r="AJZ32" s="4"/>
+      <c r="AKA32" s="4"/>
+      <c r="AKB32" s="4"/>
+      <c r="AKC32" s="4"/>
+      <c r="AKD32" s="4"/>
+      <c r="AKE32" s="4"/>
+      <c r="AKF32" s="4"/>
+      <c r="AKG32" s="4"/>
+      <c r="AKH32" s="4"/>
+      <c r="AKI32" s="4"/>
+      <c r="AKJ32" s="4"/>
+      <c r="AKK32" s="4"/>
+      <c r="AKL32" s="4"/>
+      <c r="AKM32" s="4"/>
+      <c r="AKN32" s="4"/>
+      <c r="AKO32" s="4"/>
+      <c r="AKP32" s="4"/>
+      <c r="AKQ32" s="4"/>
+      <c r="AKR32" s="4"/>
+      <c r="AKS32" s="4"/>
+      <c r="AKT32" s="4"/>
+      <c r="AKU32" s="4"/>
+      <c r="AKV32" s="4"/>
+      <c r="AKW32" s="4"/>
+      <c r="AKX32" s="4"/>
+      <c r="AKY32" s="4"/>
+      <c r="AKZ32" s="4"/>
+      <c r="ALA32" s="4"/>
+      <c r="ALB32" s="4"/>
+      <c r="ALC32" s="4"/>
+      <c r="ALD32" s="4"/>
+      <c r="ALE32" s="4"/>
+      <c r="ALF32" s="4"/>
+      <c r="ALG32" s="4"/>
+      <c r="ALH32" s="4"/>
+      <c r="ALI32" s="4"/>
+      <c r="ALJ32" s="4"/>
+      <c r="ALK32" s="4"/>
+      <c r="ALL32" s="4"/>
+      <c r="ALM32" s="4"/>
+      <c r="ALN32" s="4"/>
+      <c r="ALO32" s="4"/>
+      <c r="ALP32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -3074,19 +3438,19 @@
         <v>38</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -3095,19 +3459,19 @@
         <v>38</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>28</v>
+      <c r="B35" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -3116,66 +3480,78 @@
         <v>38</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3183,96 +3559,84 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="1">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>218</v>
-      </c>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C41" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="C42" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>141</v>
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C44" s="1">
         <v>4</v>
@@ -3281,44 +3645,56 @@
         <v>42</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="C45" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
       <c r="C47" s="1"/>
@@ -3327,44 +3703,30 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
       <c r="B48" s="3"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C49" s="1">
-        <v>4</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G49" s="1">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C50" s="1">
         <v>4</v>
@@ -3373,21 +3735,21 @@
         <v>44</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>48</v>
+        <v>226</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="G50" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>137</v>
+        <v>7</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C51" s="1">
         <v>4</v>
@@ -3396,21 +3758,21 @@
         <v>44</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G51" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>69</v>
+        <v>27</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C52" s="1">
         <v>4</v>
@@ -3419,21 +3781,21 @@
         <v>44</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G52" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C53" s="1">
         <v>4</v>
@@ -3442,21 +3804,21 @@
         <v>44</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>228</v>
       </c>
       <c r="G53" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>136</v>
+        <v>7</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C54" s="1">
         <v>4</v>
@@ -3465,44 +3827,44 @@
         <v>44</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>228</v>
       </c>
       <c r="G54" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C55" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>50</v>
+      <c r="E55" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="G55" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -3511,21 +3873,21 @@
         <v>44</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G56" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>139</v>
+        <v>7</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -3534,21 +3896,21 @@
         <v>44</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G57" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>71</v>
+        <v>27</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -3557,21 +3919,21 @@
         <v>44</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G58" s="1">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>82</v>
+        <v>10</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -3580,21 +3942,21 @@
         <v>44</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G59" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -3603,65 +3965,65 @@
         <v>44</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G60" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="F61" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G61" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>72</v>
+        <v>40</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G62" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -3670,21 +4032,21 @@
         <v>44</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G63" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -3693,21 +4055,21 @@
         <v>44</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G64" s="1">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -3716,110 +4078,112 @@
         <v>44</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G65" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>137</v>
+        <v>7</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G66" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" s="1">
-        <v>5</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>179</v>
-      </c>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="1">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C70" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="C71" s="1">
         <v>2</v>
@@ -3827,20 +4191,20 @@
       <c r="D71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>145</v>
+      <c r="E71" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>59</v>
+      <c r="B72" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C72" s="1">
         <v>2</v>
@@ -3849,133 +4213,133 @@
         <v>56</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>117</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C73" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>185</v>
+      <c r="D74" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>56</v>
+      <c r="D75" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>29</v>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E76" s="1"/>
-      <c r="F76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G76" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>128</v>
+      <c r="D77" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G77" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>51</v>
+      <c r="B78" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F78" s="1"/>
+      <c r="D78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G78" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>77</v>
+      <c r="B79" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -3983,41 +4347,53 @@
       <c r="D79" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79" s="1"/>
       <c r="G79" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G80" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C81" s="1">
         <v>10</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G81" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4026,7 +4402,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4035,7 +4411,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4044,7 +4420,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4053,7 +4429,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4062,7 +4438,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4071,7 +4447,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4080,7 +4456,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4089,7 +4465,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4098,7 +4474,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4107,7 +4483,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4116,7 +4492,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4125,7 +4501,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4134,7 +4510,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4143,7 +4519,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4152,7 +4528,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4161,7 +4537,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4170,7 +4546,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4179,7 +4555,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4188,7 +4564,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4197,7 +4573,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4206,7 +4582,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4215,12 +4591,18 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:G67">
-    <sortCondition ref="F49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:G68">
+    <sortCondition ref="F50"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4236,13 +4618,13 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D1" s="7" t="s">
         <v>126</v>
       </c>
@@ -4251,7 +4633,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D2" s="3" t="s">
         <v>125</v>
       </c>
@@ -4259,7 +4641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D3" s="5" t="s">
         <v>127</v>
       </c>
@@ -4268,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D4" s="3" t="s">
         <v>124</v>
       </c>
@@ -4276,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D5" s="5" t="s">
         <v>126</v>
       </c>
@@ -4285,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D6" s="3" t="s">
         <v>125</v>
       </c>
@@ -4293,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
         <v>127</v>
       </c>
@@ -4302,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
@@ -4310,7 +4692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D9" s="5" t="s">
         <v>89</v>
       </c>
@@ -4319,7 +4701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4327,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
         <v>112</v>
       </c>
@@ -4336,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
@@ -4344,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D13" s="5" t="s">
         <v>111</v>
       </c>
@@ -4353,7 +4735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D14" s="1" t="s">
         <v>74</v>
       </c>
@@ -4361,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D15" s="5" t="s">
         <v>88</v>
       </c>
@@ -4370,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
@@ -4378,7 +4760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D17" s="5" t="s">
         <v>91</v>
       </c>
@@ -4387,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D18" s="3" t="s">
         <v>113</v>
       </c>
@@ -4395,7 +4777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D19" s="3" t="s">
         <v>113</v>
       </c>
@@ -4403,7 +4785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
         <v>113</v>
       </c>
@@ -4411,7 +4793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
         <v>113</v>
       </c>
@@ -4419,7 +4801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D22" s="1" t="s">
         <v>113</v>
       </c>
@@ -4427,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D23" s="1" t="s">
         <v>113</v>
       </c>
@@ -4435,7 +4817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D24" s="5" t="s">
         <v>114</v>
       </c>
@@ -4444,7 +4826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D25" s="3" t="s">
         <v>78</v>
       </c>
@@ -4452,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D26" s="1" t="s">
         <v>70</v>
       </c>
@@ -4460,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D27" s="1" t="s">
         <v>70</v>
       </c>
@@ -4468,7 +4850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D28" s="1" t="s">
         <v>70</v>
       </c>
@@ -4476,7 +4858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
@@ -4484,7 +4866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D30" s="1" t="s">
         <v>69</v>
       </c>
@@ -4492,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D31" s="3" t="s">
         <v>76</v>
       </c>
@@ -4500,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D32" s="1" t="s">
         <v>69</v>
       </c>
@@ -4508,7 +4890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D33" s="5" t="s">
         <v>121</v>
       </c>
@@ -4517,7 +4899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D34" s="1" t="s">
         <v>73</v>
       </c>
@@ -4525,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D35" s="5" t="s">
         <v>92</v>
       </c>
@@ -4534,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D36" s="3" t="s">
         <v>84</v>
       </c>
@@ -4542,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D37" s="1" t="s">
         <v>72</v>
       </c>
@@ -4550,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D38" s="5" t="s">
         <v>94</v>
       </c>
@@ -4559,7 +4941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D39" s="1" t="s">
         <v>71</v>
       </c>
@@ -4567,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D40" s="5" t="s">
         <v>93</v>
       </c>
@@ -4576,7 +4958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D41" s="1" t="s">
         <v>41</v>
       </c>
@@ -4584,7 +4966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D42" s="1" t="s">
         <v>41</v>
       </c>
@@ -4592,7 +4974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D43" s="5" t="s">
         <v>102</v>
       </c>
@@ -4601,7 +4983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D44" s="3" t="s">
         <v>75</v>
       </c>
@@ -4609,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D45" s="3" t="s">
         <v>75</v>
       </c>
@@ -4617,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D46" s="5" t="s">
         <v>98</v>
       </c>
@@ -4626,7 +5008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D47" s="1" t="s">
         <v>57</v>
       </c>
@@ -4634,7 +5016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D48" s="5" t="s">
         <v>106</v>
       </c>
@@ -4643,7 +5025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D49" s="1" t="s">
         <v>58</v>
       </c>
@@ -4651,7 +5033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D50" s="5" t="s">
         <v>107</v>
       </c>
@@ -4660,7 +5042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D51" s="1" t="s">
         <v>49</v>
       </c>
@@ -4668,7 +5050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D52" s="5" t="s">
         <v>105</v>
       </c>
@@ -4677,7 +5059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D53" s="1" t="s">
         <v>39</v>
       </c>
@@ -4685,7 +5067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D54" s="1" t="s">
         <v>39</v>
       </c>
@@ -4693,7 +5075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D55" s="5" t="s">
         <v>101</v>
       </c>
@@ -4702,7 +5084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D56" s="1" t="s">
         <v>25</v>
       </c>
@@ -4710,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D57" s="1" t="s">
         <v>25</v>
       </c>
@@ -4718,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D58" s="1" t="s">
         <v>25</v>
       </c>
@@ -4726,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D59" s="5" t="s">
         <v>96</v>
       </c>
@@ -4735,7 +5117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D60" s="1" t="s">
         <v>43</v>
       </c>
@@ -4743,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D61" s="5" t="s">
         <v>103</v>
       </c>
@@ -4752,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D62" s="1" t="s">
         <v>33</v>
       </c>
@@ -4760,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D63" s="5" t="s">
         <v>99</v>
       </c>
@@ -4769,7 +5151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D64" s="3" t="s">
         <v>82</v>
       </c>
@@ -4777,7 +5159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D65" s="3" t="s">
         <v>82</v>
       </c>
@@ -4785,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D66" s="5" t="s">
         <v>104</v>
       </c>
@@ -4794,7 +5176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D67" s="3" t="s">
         <v>28</v>
       </c>
@@ -4802,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D68" s="3" t="s">
         <v>28</v>
       </c>
@@ -4810,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D69" s="3" t="s">
         <v>28</v>
       </c>
@@ -4818,7 +5200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D70" s="1" t="s">
         <v>28</v>
       </c>
@@ -4826,7 +5208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D71" s="5" t="s">
         <v>97</v>
       </c>
@@ -4835,7 +5217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D72" s="1" t="s">
         <v>68</v>
       </c>
@@ -4843,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D73" s="5" t="s">
         <v>100</v>
       </c>
@@ -4852,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D74" s="1" t="s">
         <v>59</v>
       </c>
@@ -4860,7 +5242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D75" s="5" t="s">
         <v>108</v>
       </c>
@@ -4869,7 +5251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D76" s="3" t="s">
         <v>81</v>
       </c>
@@ -4877,7 +5259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D77" s="3" t="s">
         <v>81</v>
       </c>
@@ -4885,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D78" s="5" t="s">
         <v>90</v>
       </c>
@@ -4894,7 +5276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D79" s="3" t="s">
         <v>117</v>
       </c>
@@ -4902,7 +5284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D80" s="5" t="s">
         <v>122</v>
       </c>
@@ -4911,7 +5293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D81" s="1" t="s">
         <v>14</v>
       </c>
@@ -4919,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D82" s="5" t="s">
         <v>85</v>
       </c>
@@ -4928,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D83" s="1" t="s">
         <v>18</v>
       </c>
@@ -4936,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D84" s="5" t="s">
         <v>87</v>
       </c>
@@ -4945,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D85" s="1" t="s">
         <v>16</v>
       </c>
@@ -4953,7 +5335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D86" s="5" t="s">
         <v>86</v>
       </c>
@@ -4962,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D87" s="1" t="s">
         <v>8</v>
       </c>
@@ -4970,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D88" s="5" t="s">
         <v>95</v>
       </c>
@@ -4979,7 +5361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D89" s="3" t="s">
         <v>80</v>
       </c>
@@ -4987,7 +5369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D90" s="3" t="s">
         <v>80</v>
       </c>
@@ -4995,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D91" s="3" t="s">
         <v>80</v>
       </c>
@@ -5003,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D92" s="3" t="s">
         <v>80</v>
       </c>
@@ -5011,7 +5393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D93" s="3" t="s">
         <v>80</v>
       </c>
@@ -5019,7 +5401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D94" s="3" t="s">
         <v>80</v>
       </c>
@@ -5027,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D95" s="3" t="s">
         <v>80</v>
       </c>
@@ -5035,7 +5417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D96" s="3" t="s">
         <v>80</v>
       </c>
@@ -5043,7 +5425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D97" s="3" t="s">
         <v>80</v>
       </c>
@@ -5051,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D98" s="3" t="s">
         <v>80</v>
       </c>
@@ -5059,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D99" s="5" t="s">
         <v>109</v>
       </c>
@@ -5068,7 +5450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D100" s="3" t="s">
         <v>83</v>
       </c>
@@ -5076,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D101" s="3" t="s">
         <v>83</v>
       </c>
@@ -5084,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D102" s="5" t="s">
         <v>110</v>
       </c>
@@ -5107,13 +5489,13 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" s="10" t="s">
         <v>188</v>
       </c>
@@ -5121,7 +5503,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" s="10" t="s">
         <v>189</v>
       </c>
@@ -5129,7 +5511,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" s="10" t="s">
         <v>190</v>
       </c>
@@ -5137,7 +5519,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>200</v>
       </c>
@@ -5145,7 +5527,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>201</v>
       </c>
@@ -5153,7 +5535,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>120</v>
       </c>
@@ -5161,7 +5543,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -5169,7 +5551,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -5177,7 +5559,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" s="10" t="s">
         <v>186</v>
       </c>
@@ -5185,7 +5567,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B12" s="10" t="s">
         <v>210</v>
       </c>
@@ -5193,7 +5575,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B13" s="10" t="s">
         <v>191</v>
       </c>
@@ -5201,7 +5583,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B14" s="10" t="s">
         <v>187</v>
       </c>
@@ -5209,7 +5591,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B15" s="11" t="s">
         <v>195</v>
       </c>
@@ -5217,7 +5599,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
         <v>196</v>
       </c>
@@ -5225,7 +5607,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
         <v>197</v>
       </c>
@@ -5233,7 +5615,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
         <v>198</v>
       </c>
@@ -5241,7 +5623,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="11" t="s">
         <v>199</v>
       </c>
@@ -5249,7 +5631,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="10"/>
     </row>
   </sheetData>
@@ -5267,12 +5649,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="10" t="s">
         <v>202</v>
       </c>
@@ -5280,7 +5662,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="10" t="s">
         <v>204</v>
       </c>
@@ -5288,7 +5670,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="10" t="s">
         <v>206</v>
       </c>
@@ -5296,7 +5678,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
         <v>207</v>
       </c>
@@ -5304,7 +5686,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="10" t="s">
         <v>208</v>
       </c>
@@ -5312,12 +5694,462 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="10" t="s">
         <v>209</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13FF55E-BEB2-41A1-BD4E-4B1DA37AE321}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B26" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" t="s">
+        <v>297</v>
+      </c>
+      <c r="D27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B31" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B33" t="s">
+        <v>314</v>
+      </c>
+      <c r="C33" t="s">
+        <v>312</v>
+      </c>
+      <c r="D33" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="12"/>
+      <c r="B35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B37" t="s">
+        <v>321</v>
+      </c>
+      <c r="C37" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/fjl_sdlk.xlsx
+++ b/fjl_sdlk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\worktop\fjl_sdlk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C13F9AE-A4C9-4645-B95D-598EBE69D3BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC1ABCB-C368-4C1B-8CB3-02E6330E8366}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="390" windowWidth="15645" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2052" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="331">
   <si>
     <t>品名</t>
   </si>
@@ -127,9 +127,6 @@
     <t>3节</t>
   </si>
   <si>
-    <t>TD-20/5</t>
-  </si>
-  <si>
     <t>烘道热能水循环</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>电泳泵循环，15KW</t>
   </si>
   <si>
-    <t>TD-60/3</t>
-  </si>
-  <si>
     <t>1.5KW，反冲洗泵，超滤循环泵，UF0</t>
   </si>
   <si>
@@ -187,12 +181,6 @@
     <t>超滤泵，11KW</t>
   </si>
   <si>
-    <t>TD-30A</t>
-  </si>
-  <si>
-    <t>TD-30/3</t>
-  </si>
-  <si>
     <t>照明</t>
   </si>
   <si>
@@ -212,9 +200,6 @@
   </si>
   <si>
     <t>DZ47-63A 3P</t>
-  </si>
-  <si>
-    <t>TD15/10</t>
   </si>
   <si>
     <t xml:space="preserve">QFZ </t>
@@ -300,55 +285,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>TD-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CJX2-220V 1810</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>TD-20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/5</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NR2-93/Z23-32A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -507,14 +447,6 @@
     <t>2常开2常闭绿 汇总</t>
   </si>
   <si>
-    <t>3节</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TD-20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DZ47-16A-3P</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -529,10 +461,6 @@
   <si>
     <t xml:space="preserve">NR2-25/Z 12-18A </t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>热水炉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -552,10 +480,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">NR2-25/Z 5.5-8A </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">NR2-25/Z 4-6A </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -572,35 +496,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>NR2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-25/Z 12-18A</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">NR2-25/Z 12-18A  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>电泳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FR10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>QF65-QF66</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -742,26 +641,6 @@
   </si>
   <si>
     <t>QF60-QF61</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2常开2常闭红</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指示灯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24V红色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -888,38 +767,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CJX2-220V 1810</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>KM11，KM12，KM13，KM15，KM16，KM17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>KM8，KM9,KM10,KM14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NR2-25/Z 7-10A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QF11，QF12，QF13，QF15，QF16，QF17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QF8，QF9,QF10,QF14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR11，JR12，JR13，JR15，JR16，JR17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR8，JR9,JR10,JR14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.5KW，反冲洗泵，超滤循环泵，UF0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -952,359 +803,495 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>器件名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAY2，不自锁,1常开1常闭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAY2，不自锁,2常开</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>复位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨动开关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2常开</t>
+  </si>
+  <si>
+    <t>联动/手动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2常开，</t>
+  </si>
+  <si>
+    <t>正转/反转</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示灯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ND16，24V，绿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行指示灯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ND16，24V  ,黄</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警指示灯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ND16，220V，红</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源指示灯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ND16，24V，白</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部即停指示灯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ND16，24V，红</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动限位指示灯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24V，4常开4常闭</t>
+  </si>
+  <si>
+    <t>变频器启动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>联动/手动控制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转/正转控制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>j4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警控制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部急停</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>j6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动限位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>j7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24V，4常开4常闭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从动限位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>j8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动</t>
+  </si>
+  <si>
+    <t>Z1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动变频器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从动变频器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24V电源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>220V 24V 50W</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接线端子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD1520</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15A ,25节</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动电位器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳膜，10K</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从动电位器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉绳电位器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动限位开关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常闭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从动限位开关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常闭</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮标字框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>电箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气开关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DZ47 C16 3P</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2常开2常闭红,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bh-0.66 400/5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-400A  380V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>KMZ</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总控制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>器件名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAY2，不自锁,1常开1常闭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAY2，不自锁,2常开</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>复位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>N1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>拨动开关</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2常开</t>
-  </si>
-  <si>
-    <t>联动/手动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>N2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2常开，</t>
-  </si>
-  <si>
-    <t>正转/反转</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>指示灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ND16，24V，绿</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行指示灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ND16，24V  ,黄</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警指示灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ND16，220V，红</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源指示灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ND16，24V，白</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部即停指示灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ND16，24V，红</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动限位指示灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>J1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>继电器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>24V，4常开4常闭</t>
-  </si>
-  <si>
-    <t>变频器启动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>J2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>联动/手动控制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>J3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>反转/正转控制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>j4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警控制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>J5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部急停</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>j6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动限位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>j7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>24V，4常开4常闭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>从动限位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>j8</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动</t>
-  </si>
-  <si>
-    <t>Z1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动变频器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>从动变频器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>24V电源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>220V 24V 50W</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接线端子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD-20A/3P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD-15A/7P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD-15A/5P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水炉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD-15A/22P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">KM10 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CJX2-220V 3210 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KM8，KM9, KM14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QF14，QF15，QF16，QF18，QF19，QF20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QF13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DZ47-32A-3P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QF11，QF12，QF17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NR2-25/Z 9-13A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR9,JR10,JR11，JR13,JR14,JR15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NR2-25/Z 12-18A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JR8 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NR2-36/Z 22-32A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR6，JR7，JR12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD-20A   30P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电泳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD-30A   6P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD-20A   40P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDF0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动控制电磁阀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD-20A/16P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个单相16A空开+2个三相16A空开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD-60A/12P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个三相40A空开+2个三相60A空开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD-15A/10P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>接线端子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TD1520</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15A ,25节</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动电位器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳膜，10K</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>W2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>从动电位器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>W3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉绳电位器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动限位开关</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>常闭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>从动限位开关</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>常闭</t>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮标字框</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>电箱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>空气开关</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DZ47 C16 3P</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1439,12 +1426,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1456,6 +1437,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1795,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ALP104"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1839,7 +1826,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1848,7 +1835,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
@@ -1869,7 +1856,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
@@ -1877,32 +1864,31 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
+      <c r="E4" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1911,7 +1897,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
@@ -1920,7 +1906,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
@@ -1932,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
@@ -1940,11 +1926,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>115</v>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1952,20 +1938,20 @@
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
-        <v>233</v>
+      <c r="E7" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
-        <v>1139</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1973,8 +1959,8 @@
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>174</v>
+      <c r="E8" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
@@ -1983,10 +1969,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1994,20 +1980,20 @@
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>175</v>
+      <c r="E9" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -2015,20 +2001,20 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>176</v>
+      <c r="E10" t="s">
+        <v>58</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <v>21</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -2036,8 +2022,8 @@
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>63</v>
+      <c r="E11" t="s">
+        <v>60</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
@@ -2046,10 +2032,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -2057,8 +2043,8 @@
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>65</v>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
@@ -2066,37 +2052,33 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
+      <c r="A13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>64</v>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1">
-        <v>4.5</v>
-      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2112,47 +2094,47 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
         <v>29.5</v>
       </c>
     </row>
-    <row r="17" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2166,14 +2148,14 @@
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2187,19 +2169,19 @@
         <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>140</v>
+      <c r="B20" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -2208,1563 +2190,582 @@
         <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:1004" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:1004" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>115</v>
+        <v>299</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>113</v>
+        <v>301</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1004" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>214</v>
-      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1004" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>213</v>
+        <v>31</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1004" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:1004" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>123</v>
+      <c r="G25" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="1"/>
+      <c r="D26" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1004" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>125</v>
+        <v>302</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>34</v>
+      <c r="D27" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:1004" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1004" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1004" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>37</v>
+      <c r="B30" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:1004" x14ac:dyDescent="0.15">
+      <c r="G30" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>142</v>
+        <v>10</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>142</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1004" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="4"/>
-      <c r="AM32" s="4"/>
-      <c r="AN32" s="4"/>
-      <c r="AO32" s="4"/>
-      <c r="AP32" s="4"/>
-      <c r="AQ32" s="4"/>
-      <c r="AR32" s="4"/>
-      <c r="AS32" s="4"/>
-      <c r="AT32" s="4"/>
-      <c r="AU32" s="4"/>
-      <c r="AV32" s="4"/>
-      <c r="AW32" s="4"/>
-      <c r="AX32" s="4"/>
-      <c r="AY32" s="4"/>
-      <c r="AZ32" s="4"/>
-      <c r="BA32" s="4"/>
-      <c r="BB32" s="4"/>
-      <c r="BC32" s="4"/>
-      <c r="BD32" s="4"/>
-      <c r="BE32" s="4"/>
-      <c r="BF32" s="4"/>
-      <c r="BG32" s="4"/>
-      <c r="BH32" s="4"/>
-      <c r="BI32" s="4"/>
-      <c r="BJ32" s="4"/>
-      <c r="BK32" s="4"/>
-      <c r="BL32" s="4"/>
-      <c r="BM32" s="4"/>
-      <c r="BN32" s="4"/>
-      <c r="BO32" s="4"/>
-      <c r="BP32" s="4"/>
-      <c r="BQ32" s="4"/>
-      <c r="BR32" s="4"/>
-      <c r="BS32" s="4"/>
-      <c r="BT32" s="4"/>
-      <c r="BU32" s="4"/>
-      <c r="BV32" s="4"/>
-      <c r="BW32" s="4"/>
-      <c r="BX32" s="4"/>
-      <c r="BY32" s="4"/>
-      <c r="BZ32" s="4"/>
-      <c r="CA32" s="4"/>
-      <c r="CB32" s="4"/>
-      <c r="CC32" s="4"/>
-      <c r="CD32" s="4"/>
-      <c r="CE32" s="4"/>
-      <c r="CF32" s="4"/>
-      <c r="CG32" s="4"/>
-      <c r="CH32" s="4"/>
-      <c r="CI32" s="4"/>
-      <c r="CJ32" s="4"/>
-      <c r="CK32" s="4"/>
-      <c r="CL32" s="4"/>
-      <c r="CM32" s="4"/>
-      <c r="CN32" s="4"/>
-      <c r="CO32" s="4"/>
-      <c r="CP32" s="4"/>
-      <c r="CQ32" s="4"/>
-      <c r="CR32" s="4"/>
-      <c r="CS32" s="4"/>
-      <c r="CT32" s="4"/>
-      <c r="CU32" s="4"/>
-      <c r="CV32" s="4"/>
-      <c r="CW32" s="4"/>
-      <c r="CX32" s="4"/>
-      <c r="CY32" s="4"/>
-      <c r="CZ32" s="4"/>
-      <c r="DA32" s="4"/>
-      <c r="DB32" s="4"/>
-      <c r="DC32" s="4"/>
-      <c r="DD32" s="4"/>
-      <c r="DE32" s="4"/>
-      <c r="DF32" s="4"/>
-      <c r="DG32" s="4"/>
-      <c r="DH32" s="4"/>
-      <c r="DI32" s="4"/>
-      <c r="DJ32" s="4"/>
-      <c r="DK32" s="4"/>
-      <c r="DL32" s="4"/>
-      <c r="DM32" s="4"/>
-      <c r="DN32" s="4"/>
-      <c r="DO32" s="4"/>
-      <c r="DP32" s="4"/>
-      <c r="DQ32" s="4"/>
-      <c r="DR32" s="4"/>
-      <c r="DS32" s="4"/>
-      <c r="DT32" s="4"/>
-      <c r="DU32" s="4"/>
-      <c r="DV32" s="4"/>
-      <c r="DW32" s="4"/>
-      <c r="DX32" s="4"/>
-      <c r="DY32" s="4"/>
-      <c r="DZ32" s="4"/>
-      <c r="EA32" s="4"/>
-      <c r="EB32" s="4"/>
-      <c r="EC32" s="4"/>
-      <c r="ED32" s="4"/>
-      <c r="EE32" s="4"/>
-      <c r="EF32" s="4"/>
-      <c r="EG32" s="4"/>
-      <c r="EH32" s="4"/>
-      <c r="EI32" s="4"/>
-      <c r="EJ32" s="4"/>
-      <c r="EK32" s="4"/>
-      <c r="EL32" s="4"/>
-      <c r="EM32" s="4"/>
-      <c r="EN32" s="4"/>
-      <c r="EO32" s="4"/>
-      <c r="EP32" s="4"/>
-      <c r="EQ32" s="4"/>
-      <c r="ER32" s="4"/>
-      <c r="ES32" s="4"/>
-      <c r="ET32" s="4"/>
-      <c r="EU32" s="4"/>
-      <c r="EV32" s="4"/>
-      <c r="EW32" s="4"/>
-      <c r="EX32" s="4"/>
-      <c r="EY32" s="4"/>
-      <c r="EZ32" s="4"/>
-      <c r="FA32" s="4"/>
-      <c r="FB32" s="4"/>
-      <c r="FC32" s="4"/>
-      <c r="FD32" s="4"/>
-      <c r="FE32" s="4"/>
-      <c r="FF32" s="4"/>
-      <c r="FG32" s="4"/>
-      <c r="FH32" s="4"/>
-      <c r="FI32" s="4"/>
-      <c r="FJ32" s="4"/>
-      <c r="FK32" s="4"/>
-      <c r="FL32" s="4"/>
-      <c r="FM32" s="4"/>
-      <c r="FN32" s="4"/>
-      <c r="FO32" s="4"/>
-      <c r="FP32" s="4"/>
-      <c r="FQ32" s="4"/>
-      <c r="FR32" s="4"/>
-      <c r="FS32" s="4"/>
-      <c r="FT32" s="4"/>
-      <c r="FU32" s="4"/>
-      <c r="FV32" s="4"/>
-      <c r="FW32" s="4"/>
-      <c r="FX32" s="4"/>
-      <c r="FY32" s="4"/>
-      <c r="FZ32" s="4"/>
-      <c r="GA32" s="4"/>
-      <c r="GB32" s="4"/>
-      <c r="GC32" s="4"/>
-      <c r="GD32" s="4"/>
-      <c r="GE32" s="4"/>
-      <c r="GF32" s="4"/>
-      <c r="GG32" s="4"/>
-      <c r="GH32" s="4"/>
-      <c r="GI32" s="4"/>
-      <c r="GJ32" s="4"/>
-      <c r="GK32" s="4"/>
-      <c r="GL32" s="4"/>
-      <c r="GM32" s="4"/>
-      <c r="GN32" s="4"/>
-      <c r="GO32" s="4"/>
-      <c r="GP32" s="4"/>
-      <c r="GQ32" s="4"/>
-      <c r="GR32" s="4"/>
-      <c r="GS32" s="4"/>
-      <c r="GT32" s="4"/>
-      <c r="GU32" s="4"/>
-      <c r="GV32" s="4"/>
-      <c r="GW32" s="4"/>
-      <c r="GX32" s="4"/>
-      <c r="GY32" s="4"/>
-      <c r="GZ32" s="4"/>
-      <c r="HA32" s="4"/>
-      <c r="HB32" s="4"/>
-      <c r="HC32" s="4"/>
-      <c r="HD32" s="4"/>
-      <c r="HE32" s="4"/>
-      <c r="HF32" s="4"/>
-      <c r="HG32" s="4"/>
-      <c r="HH32" s="4"/>
-      <c r="HI32" s="4"/>
-      <c r="HJ32" s="4"/>
-      <c r="HK32" s="4"/>
-      <c r="HL32" s="4"/>
-      <c r="HM32" s="4"/>
-      <c r="HN32" s="4"/>
-      <c r="HO32" s="4"/>
-      <c r="HP32" s="4"/>
-      <c r="HQ32" s="4"/>
-      <c r="HR32" s="4"/>
-      <c r="HS32" s="4"/>
-      <c r="HT32" s="4"/>
-      <c r="HU32" s="4"/>
-      <c r="HV32" s="4"/>
-      <c r="HW32" s="4"/>
-      <c r="HX32" s="4"/>
-      <c r="HY32" s="4"/>
-      <c r="HZ32" s="4"/>
-      <c r="IA32" s="4"/>
-      <c r="IB32" s="4"/>
-      <c r="IC32" s="4"/>
-      <c r="ID32" s="4"/>
-      <c r="IE32" s="4"/>
-      <c r="IF32" s="4"/>
-      <c r="IG32" s="4"/>
-      <c r="IH32" s="4"/>
-      <c r="II32" s="4"/>
-      <c r="IJ32" s="4"/>
-      <c r="IK32" s="4"/>
-      <c r="IL32" s="4"/>
-      <c r="IM32" s="4"/>
-      <c r="IN32" s="4"/>
-      <c r="IO32" s="4"/>
-      <c r="IP32" s="4"/>
-      <c r="IQ32" s="4"/>
-      <c r="IR32" s="4"/>
-      <c r="IS32" s="4"/>
-      <c r="IT32" s="4"/>
-      <c r="IU32" s="4"/>
-      <c r="IV32" s="4"/>
-      <c r="IW32" s="4"/>
-      <c r="IX32" s="4"/>
-      <c r="IY32" s="4"/>
-      <c r="IZ32" s="4"/>
-      <c r="JA32" s="4"/>
-      <c r="JB32" s="4"/>
-      <c r="JC32" s="4"/>
-      <c r="JD32" s="4"/>
-      <c r="JE32" s="4"/>
-      <c r="JF32" s="4"/>
-      <c r="JG32" s="4"/>
-      <c r="JH32" s="4"/>
-      <c r="JI32" s="4"/>
-      <c r="JJ32" s="4"/>
-      <c r="JK32" s="4"/>
-      <c r="JL32" s="4"/>
-      <c r="JM32" s="4"/>
-      <c r="JN32" s="4"/>
-      <c r="JO32" s="4"/>
-      <c r="JP32" s="4"/>
-      <c r="JQ32" s="4"/>
-      <c r="JR32" s="4"/>
-      <c r="JS32" s="4"/>
-      <c r="JT32" s="4"/>
-      <c r="JU32" s="4"/>
-      <c r="JV32" s="4"/>
-      <c r="JW32" s="4"/>
-      <c r="JX32" s="4"/>
-      <c r="JY32" s="4"/>
-      <c r="JZ32" s="4"/>
-      <c r="KA32" s="4"/>
-      <c r="KB32" s="4"/>
-      <c r="KC32" s="4"/>
-      <c r="KD32" s="4"/>
-      <c r="KE32" s="4"/>
-      <c r="KF32" s="4"/>
-      <c r="KG32" s="4"/>
-      <c r="KH32" s="4"/>
-      <c r="KI32" s="4"/>
-      <c r="KJ32" s="4"/>
-      <c r="KK32" s="4"/>
-      <c r="KL32" s="4"/>
-      <c r="KM32" s="4"/>
-      <c r="KN32" s="4"/>
-      <c r="KO32" s="4"/>
-      <c r="KP32" s="4"/>
-      <c r="KQ32" s="4"/>
-      <c r="KR32" s="4"/>
-      <c r="KS32" s="4"/>
-      <c r="KT32" s="4"/>
-      <c r="KU32" s="4"/>
-      <c r="KV32" s="4"/>
-      <c r="KW32" s="4"/>
-      <c r="KX32" s="4"/>
-      <c r="KY32" s="4"/>
-      <c r="KZ32" s="4"/>
-      <c r="LA32" s="4"/>
-      <c r="LB32" s="4"/>
-      <c r="LC32" s="4"/>
-      <c r="LD32" s="4"/>
-      <c r="LE32" s="4"/>
-      <c r="LF32" s="4"/>
-      <c r="LG32" s="4"/>
-      <c r="LH32" s="4"/>
-      <c r="LI32" s="4"/>
-      <c r="LJ32" s="4"/>
-      <c r="LK32" s="4"/>
-      <c r="LL32" s="4"/>
-      <c r="LM32" s="4"/>
-      <c r="LN32" s="4"/>
-      <c r="LO32" s="4"/>
-      <c r="LP32" s="4"/>
-      <c r="LQ32" s="4"/>
-      <c r="LR32" s="4"/>
-      <c r="LS32" s="4"/>
-      <c r="LT32" s="4"/>
-      <c r="LU32" s="4"/>
-      <c r="LV32" s="4"/>
-      <c r="LW32" s="4"/>
-      <c r="LX32" s="4"/>
-      <c r="LY32" s="4"/>
-      <c r="LZ32" s="4"/>
-      <c r="MA32" s="4"/>
-      <c r="MB32" s="4"/>
-      <c r="MC32" s="4"/>
-      <c r="MD32" s="4"/>
-      <c r="ME32" s="4"/>
-      <c r="MF32" s="4"/>
-      <c r="MG32" s="4"/>
-      <c r="MH32" s="4"/>
-      <c r="MI32" s="4"/>
-      <c r="MJ32" s="4"/>
-      <c r="MK32" s="4"/>
-      <c r="ML32" s="4"/>
-      <c r="MM32" s="4"/>
-      <c r="MN32" s="4"/>
-      <c r="MO32" s="4"/>
-      <c r="MP32" s="4"/>
-      <c r="MQ32" s="4"/>
-      <c r="MR32" s="4"/>
-      <c r="MS32" s="4"/>
-      <c r="MT32" s="4"/>
-      <c r="MU32" s="4"/>
-      <c r="MV32" s="4"/>
-      <c r="MW32" s="4"/>
-      <c r="MX32" s="4"/>
-      <c r="MY32" s="4"/>
-      <c r="MZ32" s="4"/>
-      <c r="NA32" s="4"/>
-      <c r="NB32" s="4"/>
-      <c r="NC32" s="4"/>
-      <c r="ND32" s="4"/>
-      <c r="NE32" s="4"/>
-      <c r="NF32" s="4"/>
-      <c r="NG32" s="4"/>
-      <c r="NH32" s="4"/>
-      <c r="NI32" s="4"/>
-      <c r="NJ32" s="4"/>
-      <c r="NK32" s="4"/>
-      <c r="NL32" s="4"/>
-      <c r="NM32" s="4"/>
-      <c r="NN32" s="4"/>
-      <c r="NO32" s="4"/>
-      <c r="NP32" s="4"/>
-      <c r="NQ32" s="4"/>
-      <c r="NR32" s="4"/>
-      <c r="NS32" s="4"/>
-      <c r="NT32" s="4"/>
-      <c r="NU32" s="4"/>
-      <c r="NV32" s="4"/>
-      <c r="NW32" s="4"/>
-      <c r="NX32" s="4"/>
-      <c r="NY32" s="4"/>
-      <c r="NZ32" s="4"/>
-      <c r="OA32" s="4"/>
-      <c r="OB32" s="4"/>
-      <c r="OC32" s="4"/>
-      <c r="OD32" s="4"/>
-      <c r="OE32" s="4"/>
-      <c r="OF32" s="4"/>
-      <c r="OG32" s="4"/>
-      <c r="OH32" s="4"/>
-      <c r="OI32" s="4"/>
-      <c r="OJ32" s="4"/>
-      <c r="OK32" s="4"/>
-      <c r="OL32" s="4"/>
-      <c r="OM32" s="4"/>
-      <c r="ON32" s="4"/>
-      <c r="OO32" s="4"/>
-      <c r="OP32" s="4"/>
-      <c r="OQ32" s="4"/>
-      <c r="OR32" s="4"/>
-      <c r="OS32" s="4"/>
-      <c r="OT32" s="4"/>
-      <c r="OU32" s="4"/>
-      <c r="OV32" s="4"/>
-      <c r="OW32" s="4"/>
-      <c r="OX32" s="4"/>
-      <c r="OY32" s="4"/>
-      <c r="OZ32" s="4"/>
-      <c r="PA32" s="4"/>
-      <c r="PB32" s="4"/>
-      <c r="PC32" s="4"/>
-      <c r="PD32" s="4"/>
-      <c r="PE32" s="4"/>
-      <c r="PF32" s="4"/>
-      <c r="PG32" s="4"/>
-      <c r="PH32" s="4"/>
-      <c r="PI32" s="4"/>
-      <c r="PJ32" s="4"/>
-      <c r="PK32" s="4"/>
-      <c r="PL32" s="4"/>
-      <c r="PM32" s="4"/>
-      <c r="PN32" s="4"/>
-      <c r="PO32" s="4"/>
-      <c r="PP32" s="4"/>
-      <c r="PQ32" s="4"/>
-      <c r="PR32" s="4"/>
-      <c r="PS32" s="4"/>
-      <c r="PT32" s="4"/>
-      <c r="PU32" s="4"/>
-      <c r="PV32" s="4"/>
-      <c r="PW32" s="4"/>
-      <c r="PX32" s="4"/>
-      <c r="PY32" s="4"/>
-      <c r="PZ32" s="4"/>
-      <c r="QA32" s="4"/>
-      <c r="QB32" s="4"/>
-      <c r="QC32" s="4"/>
-      <c r="QD32" s="4"/>
-      <c r="QE32" s="4"/>
-      <c r="QF32" s="4"/>
-      <c r="QG32" s="4"/>
-      <c r="QH32" s="4"/>
-      <c r="QI32" s="4"/>
-      <c r="QJ32" s="4"/>
-      <c r="QK32" s="4"/>
-      <c r="QL32" s="4"/>
-      <c r="QM32" s="4"/>
-      <c r="QN32" s="4"/>
-      <c r="QO32" s="4"/>
-      <c r="QP32" s="4"/>
-      <c r="QQ32" s="4"/>
-      <c r="QR32" s="4"/>
-      <c r="QS32" s="4"/>
-      <c r="QT32" s="4"/>
-      <c r="QU32" s="4"/>
-      <c r="QV32" s="4"/>
-      <c r="QW32" s="4"/>
-      <c r="QX32" s="4"/>
-      <c r="QY32" s="4"/>
-      <c r="QZ32" s="4"/>
-      <c r="RA32" s="4"/>
-      <c r="RB32" s="4"/>
-      <c r="RC32" s="4"/>
-      <c r="RD32" s="4"/>
-      <c r="RE32" s="4"/>
-      <c r="RF32" s="4"/>
-      <c r="RG32" s="4"/>
-      <c r="RH32" s="4"/>
-      <c r="RI32" s="4"/>
-      <c r="RJ32" s="4"/>
-      <c r="RK32" s="4"/>
-      <c r="RL32" s="4"/>
-      <c r="RM32" s="4"/>
-      <c r="RN32" s="4"/>
-      <c r="RO32" s="4"/>
-      <c r="RP32" s="4"/>
-      <c r="RQ32" s="4"/>
-      <c r="RR32" s="4"/>
-      <c r="RS32" s="4"/>
-      <c r="RT32" s="4"/>
-      <c r="RU32" s="4"/>
-      <c r="RV32" s="4"/>
-      <c r="RW32" s="4"/>
-      <c r="RX32" s="4"/>
-      <c r="RY32" s="4"/>
-      <c r="RZ32" s="4"/>
-      <c r="SA32" s="4"/>
-      <c r="SB32" s="4"/>
-      <c r="SC32" s="4"/>
-      <c r="SD32" s="4"/>
-      <c r="SE32" s="4"/>
-      <c r="SF32" s="4"/>
-      <c r="SG32" s="4"/>
-      <c r="SH32" s="4"/>
-      <c r="SI32" s="4"/>
-      <c r="SJ32" s="4"/>
-      <c r="SK32" s="4"/>
-      <c r="SL32" s="4"/>
-      <c r="SM32" s="4"/>
-      <c r="SN32" s="4"/>
-      <c r="SO32" s="4"/>
-      <c r="SP32" s="4"/>
-      <c r="SQ32" s="4"/>
-      <c r="SR32" s="4"/>
-      <c r="SS32" s="4"/>
-      <c r="ST32" s="4"/>
-      <c r="SU32" s="4"/>
-      <c r="SV32" s="4"/>
-      <c r="SW32" s="4"/>
-      <c r="SX32" s="4"/>
-      <c r="SY32" s="4"/>
-      <c r="SZ32" s="4"/>
-      <c r="TA32" s="4"/>
-      <c r="TB32" s="4"/>
-      <c r="TC32" s="4"/>
-      <c r="TD32" s="4"/>
-      <c r="TE32" s="4"/>
-      <c r="TF32" s="4"/>
-      <c r="TG32" s="4"/>
-      <c r="TH32" s="4"/>
-      <c r="TI32" s="4"/>
-      <c r="TJ32" s="4"/>
-      <c r="TK32" s="4"/>
-      <c r="TL32" s="4"/>
-      <c r="TM32" s="4"/>
-      <c r="TN32" s="4"/>
-      <c r="TO32" s="4"/>
-      <c r="TP32" s="4"/>
-      <c r="TQ32" s="4"/>
-      <c r="TR32" s="4"/>
-      <c r="TS32" s="4"/>
-      <c r="TT32" s="4"/>
-      <c r="TU32" s="4"/>
-      <c r="TV32" s="4"/>
-      <c r="TW32" s="4"/>
-      <c r="TX32" s="4"/>
-      <c r="TY32" s="4"/>
-      <c r="TZ32" s="4"/>
-      <c r="UA32" s="4"/>
-      <c r="UB32" s="4"/>
-      <c r="UC32" s="4"/>
-      <c r="UD32" s="4"/>
-      <c r="UE32" s="4"/>
-      <c r="UF32" s="4"/>
-      <c r="UG32" s="4"/>
-      <c r="UH32" s="4"/>
-      <c r="UI32" s="4"/>
-      <c r="UJ32" s="4"/>
-      <c r="UK32" s="4"/>
-      <c r="UL32" s="4"/>
-      <c r="UM32" s="4"/>
-      <c r="UN32" s="4"/>
-      <c r="UO32" s="4"/>
-      <c r="UP32" s="4"/>
-      <c r="UQ32" s="4"/>
-      <c r="UR32" s="4"/>
-      <c r="US32" s="4"/>
-      <c r="UT32" s="4"/>
-      <c r="UU32" s="4"/>
-      <c r="UV32" s="4"/>
-      <c r="UW32" s="4"/>
-      <c r="UX32" s="4"/>
-      <c r="UY32" s="4"/>
-      <c r="UZ32" s="4"/>
-      <c r="VA32" s="4"/>
-      <c r="VB32" s="4"/>
-      <c r="VC32" s="4"/>
-      <c r="VD32" s="4"/>
-      <c r="VE32" s="4"/>
-      <c r="VF32" s="4"/>
-      <c r="VG32" s="4"/>
-      <c r="VH32" s="4"/>
-      <c r="VI32" s="4"/>
-      <c r="VJ32" s="4"/>
-      <c r="VK32" s="4"/>
-      <c r="VL32" s="4"/>
-      <c r="VM32" s="4"/>
-      <c r="VN32" s="4"/>
-      <c r="VO32" s="4"/>
-      <c r="VP32" s="4"/>
-      <c r="VQ32" s="4"/>
-      <c r="VR32" s="4"/>
-      <c r="VS32" s="4"/>
-      <c r="VT32" s="4"/>
-      <c r="VU32" s="4"/>
-      <c r="VV32" s="4"/>
-      <c r="VW32" s="4"/>
-      <c r="VX32" s="4"/>
-      <c r="VY32" s="4"/>
-      <c r="VZ32" s="4"/>
-      <c r="WA32" s="4"/>
-      <c r="WB32" s="4"/>
-      <c r="WC32" s="4"/>
-      <c r="WD32" s="4"/>
-      <c r="WE32" s="4"/>
-      <c r="WF32" s="4"/>
-      <c r="WG32" s="4"/>
-      <c r="WH32" s="4"/>
-      <c r="WI32" s="4"/>
-      <c r="WJ32" s="4"/>
-      <c r="WK32" s="4"/>
-      <c r="WL32" s="4"/>
-      <c r="WM32" s="4"/>
-      <c r="WN32" s="4"/>
-      <c r="WO32" s="4"/>
-      <c r="WP32" s="4"/>
-      <c r="WQ32" s="4"/>
-      <c r="WR32" s="4"/>
-      <c r="WS32" s="4"/>
-      <c r="WT32" s="4"/>
-      <c r="WU32" s="4"/>
-      <c r="WV32" s="4"/>
-      <c r="WW32" s="4"/>
-      <c r="WX32" s="4"/>
-      <c r="WY32" s="4"/>
-      <c r="WZ32" s="4"/>
-      <c r="XA32" s="4"/>
-      <c r="XB32" s="4"/>
-      <c r="XC32" s="4"/>
-      <c r="XD32" s="4"/>
-      <c r="XE32" s="4"/>
-      <c r="XF32" s="4"/>
-      <c r="XG32" s="4"/>
-      <c r="XH32" s="4"/>
-      <c r="XI32" s="4"/>
-      <c r="XJ32" s="4"/>
-      <c r="XK32" s="4"/>
-      <c r="XL32" s="4"/>
-      <c r="XM32" s="4"/>
-      <c r="XN32" s="4"/>
-      <c r="XO32" s="4"/>
-      <c r="XP32" s="4"/>
-      <c r="XQ32" s="4"/>
-      <c r="XR32" s="4"/>
-      <c r="XS32" s="4"/>
-      <c r="XT32" s="4"/>
-      <c r="XU32" s="4"/>
-      <c r="XV32" s="4"/>
-      <c r="XW32" s="4"/>
-      <c r="XX32" s="4"/>
-      <c r="XY32" s="4"/>
-      <c r="XZ32" s="4"/>
-      <c r="YA32" s="4"/>
-      <c r="YB32" s="4"/>
-      <c r="YC32" s="4"/>
-      <c r="YD32" s="4"/>
-      <c r="YE32" s="4"/>
-      <c r="YF32" s="4"/>
-      <c r="YG32" s="4"/>
-      <c r="YH32" s="4"/>
-      <c r="YI32" s="4"/>
-      <c r="YJ32" s="4"/>
-      <c r="YK32" s="4"/>
-      <c r="YL32" s="4"/>
-      <c r="YM32" s="4"/>
-      <c r="YN32" s="4"/>
-      <c r="YO32" s="4"/>
-      <c r="YP32" s="4"/>
-      <c r="YQ32" s="4"/>
-      <c r="YR32" s="4"/>
-      <c r="YS32" s="4"/>
-      <c r="YT32" s="4"/>
-      <c r="YU32" s="4"/>
-      <c r="YV32" s="4"/>
-      <c r="YW32" s="4"/>
-      <c r="YX32" s="4"/>
-      <c r="YY32" s="4"/>
-      <c r="YZ32" s="4"/>
-      <c r="ZA32" s="4"/>
-      <c r="ZB32" s="4"/>
-      <c r="ZC32" s="4"/>
-      <c r="ZD32" s="4"/>
-      <c r="ZE32" s="4"/>
-      <c r="ZF32" s="4"/>
-      <c r="ZG32" s="4"/>
-      <c r="ZH32" s="4"/>
-      <c r="ZI32" s="4"/>
-      <c r="ZJ32" s="4"/>
-      <c r="ZK32" s="4"/>
-      <c r="ZL32" s="4"/>
-      <c r="ZM32" s="4"/>
-      <c r="ZN32" s="4"/>
-      <c r="ZO32" s="4"/>
-      <c r="ZP32" s="4"/>
-      <c r="ZQ32" s="4"/>
-      <c r="ZR32" s="4"/>
-      <c r="ZS32" s="4"/>
-      <c r="ZT32" s="4"/>
-      <c r="ZU32" s="4"/>
-      <c r="ZV32" s="4"/>
-      <c r="ZW32" s="4"/>
-      <c r="ZX32" s="4"/>
-      <c r="ZY32" s="4"/>
-      <c r="ZZ32" s="4"/>
-      <c r="AAA32" s="4"/>
-      <c r="AAB32" s="4"/>
-      <c r="AAC32" s="4"/>
-      <c r="AAD32" s="4"/>
-      <c r="AAE32" s="4"/>
-      <c r="AAF32" s="4"/>
-      <c r="AAG32" s="4"/>
-      <c r="AAH32" s="4"/>
-      <c r="AAI32" s="4"/>
-      <c r="AAJ32" s="4"/>
-      <c r="AAK32" s="4"/>
-      <c r="AAL32" s="4"/>
-      <c r="AAM32" s="4"/>
-      <c r="AAN32" s="4"/>
-      <c r="AAO32" s="4"/>
-      <c r="AAP32" s="4"/>
-      <c r="AAQ32" s="4"/>
-      <c r="AAR32" s="4"/>
-      <c r="AAS32" s="4"/>
-      <c r="AAT32" s="4"/>
-      <c r="AAU32" s="4"/>
-      <c r="AAV32" s="4"/>
-      <c r="AAW32" s="4"/>
-      <c r="AAX32" s="4"/>
-      <c r="AAY32" s="4"/>
-      <c r="AAZ32" s="4"/>
-      <c r="ABA32" s="4"/>
-      <c r="ABB32" s="4"/>
-      <c r="ABC32" s="4"/>
-      <c r="ABD32" s="4"/>
-      <c r="ABE32" s="4"/>
-      <c r="ABF32" s="4"/>
-      <c r="ABG32" s="4"/>
-      <c r="ABH32" s="4"/>
-      <c r="ABI32" s="4"/>
-      <c r="ABJ32" s="4"/>
-      <c r="ABK32" s="4"/>
-      <c r="ABL32" s="4"/>
-      <c r="ABM32" s="4"/>
-      <c r="ABN32" s="4"/>
-      <c r="ABO32" s="4"/>
-      <c r="ABP32" s="4"/>
-      <c r="ABQ32" s="4"/>
-      <c r="ABR32" s="4"/>
-      <c r="ABS32" s="4"/>
-      <c r="ABT32" s="4"/>
-      <c r="ABU32" s="4"/>
-      <c r="ABV32" s="4"/>
-      <c r="ABW32" s="4"/>
-      <c r="ABX32" s="4"/>
-      <c r="ABY32" s="4"/>
-      <c r="ABZ32" s="4"/>
-      <c r="ACA32" s="4"/>
-      <c r="ACB32" s="4"/>
-      <c r="ACC32" s="4"/>
-      <c r="ACD32" s="4"/>
-      <c r="ACE32" s="4"/>
-      <c r="ACF32" s="4"/>
-      <c r="ACG32" s="4"/>
-      <c r="ACH32" s="4"/>
-      <c r="ACI32" s="4"/>
-      <c r="ACJ32" s="4"/>
-      <c r="ACK32" s="4"/>
-      <c r="ACL32" s="4"/>
-      <c r="ACM32" s="4"/>
-      <c r="ACN32" s="4"/>
-      <c r="ACO32" s="4"/>
-      <c r="ACP32" s="4"/>
-      <c r="ACQ32" s="4"/>
-      <c r="ACR32" s="4"/>
-      <c r="ACS32" s="4"/>
-      <c r="ACT32" s="4"/>
-      <c r="ACU32" s="4"/>
-      <c r="ACV32" s="4"/>
-      <c r="ACW32" s="4"/>
-      <c r="ACX32" s="4"/>
-      <c r="ACY32" s="4"/>
-      <c r="ACZ32" s="4"/>
-      <c r="ADA32" s="4"/>
-      <c r="ADB32" s="4"/>
-      <c r="ADC32" s="4"/>
-      <c r="ADD32" s="4"/>
-      <c r="ADE32" s="4"/>
-      <c r="ADF32" s="4"/>
-      <c r="ADG32" s="4"/>
-      <c r="ADH32" s="4"/>
-      <c r="ADI32" s="4"/>
-      <c r="ADJ32" s="4"/>
-      <c r="ADK32" s="4"/>
-      <c r="ADL32" s="4"/>
-      <c r="ADM32" s="4"/>
-      <c r="ADN32" s="4"/>
-      <c r="ADO32" s="4"/>
-      <c r="ADP32" s="4"/>
-      <c r="ADQ32" s="4"/>
-      <c r="ADR32" s="4"/>
-      <c r="ADS32" s="4"/>
-      <c r="ADT32" s="4"/>
-      <c r="ADU32" s="4"/>
-      <c r="ADV32" s="4"/>
-      <c r="ADW32" s="4"/>
-      <c r="ADX32" s="4"/>
-      <c r="ADY32" s="4"/>
-      <c r="ADZ32" s="4"/>
-      <c r="AEA32" s="4"/>
-      <c r="AEB32" s="4"/>
-      <c r="AEC32" s="4"/>
-      <c r="AED32" s="4"/>
-      <c r="AEE32" s="4"/>
-      <c r="AEF32" s="4"/>
-      <c r="AEG32" s="4"/>
-      <c r="AEH32" s="4"/>
-      <c r="AEI32" s="4"/>
-      <c r="AEJ32" s="4"/>
-      <c r="AEK32" s="4"/>
-      <c r="AEL32" s="4"/>
-      <c r="AEM32" s="4"/>
-      <c r="AEN32" s="4"/>
-      <c r="AEO32" s="4"/>
-      <c r="AEP32" s="4"/>
-      <c r="AEQ32" s="4"/>
-      <c r="AER32" s="4"/>
-      <c r="AES32" s="4"/>
-      <c r="AET32" s="4"/>
-      <c r="AEU32" s="4"/>
-      <c r="AEV32" s="4"/>
-      <c r="AEW32" s="4"/>
-      <c r="AEX32" s="4"/>
-      <c r="AEY32" s="4"/>
-      <c r="AEZ32" s="4"/>
-      <c r="AFA32" s="4"/>
-      <c r="AFB32" s="4"/>
-      <c r="AFC32" s="4"/>
-      <c r="AFD32" s="4"/>
-      <c r="AFE32" s="4"/>
-      <c r="AFF32" s="4"/>
-      <c r="AFG32" s="4"/>
-      <c r="AFH32" s="4"/>
-      <c r="AFI32" s="4"/>
-      <c r="AFJ32" s="4"/>
-      <c r="AFK32" s="4"/>
-      <c r="AFL32" s="4"/>
-      <c r="AFM32" s="4"/>
-      <c r="AFN32" s="4"/>
-      <c r="AFO32" s="4"/>
-      <c r="AFP32" s="4"/>
-      <c r="AFQ32" s="4"/>
-      <c r="AFR32" s="4"/>
-      <c r="AFS32" s="4"/>
-      <c r="AFT32" s="4"/>
-      <c r="AFU32" s="4"/>
-      <c r="AFV32" s="4"/>
-      <c r="AFW32" s="4"/>
-      <c r="AFX32" s="4"/>
-      <c r="AFY32" s="4"/>
-      <c r="AFZ32" s="4"/>
-      <c r="AGA32" s="4"/>
-      <c r="AGB32" s="4"/>
-      <c r="AGC32" s="4"/>
-      <c r="AGD32" s="4"/>
-      <c r="AGE32" s="4"/>
-      <c r="AGF32" s="4"/>
-      <c r="AGG32" s="4"/>
-      <c r="AGH32" s="4"/>
-      <c r="AGI32" s="4"/>
-      <c r="AGJ32" s="4"/>
-      <c r="AGK32" s="4"/>
-      <c r="AGL32" s="4"/>
-      <c r="AGM32" s="4"/>
-      <c r="AGN32" s="4"/>
-      <c r="AGO32" s="4"/>
-      <c r="AGP32" s="4"/>
-      <c r="AGQ32" s="4"/>
-      <c r="AGR32" s="4"/>
-      <c r="AGS32" s="4"/>
-      <c r="AGT32" s="4"/>
-      <c r="AGU32" s="4"/>
-      <c r="AGV32" s="4"/>
-      <c r="AGW32" s="4"/>
-      <c r="AGX32" s="4"/>
-      <c r="AGY32" s="4"/>
-      <c r="AGZ32" s="4"/>
-      <c r="AHA32" s="4"/>
-      <c r="AHB32" s="4"/>
-      <c r="AHC32" s="4"/>
-      <c r="AHD32" s="4"/>
-      <c r="AHE32" s="4"/>
-      <c r="AHF32" s="4"/>
-      <c r="AHG32" s="4"/>
-      <c r="AHH32" s="4"/>
-      <c r="AHI32" s="4"/>
-      <c r="AHJ32" s="4"/>
-      <c r="AHK32" s="4"/>
-      <c r="AHL32" s="4"/>
-      <c r="AHM32" s="4"/>
-      <c r="AHN32" s="4"/>
-      <c r="AHO32" s="4"/>
-      <c r="AHP32" s="4"/>
-      <c r="AHQ32" s="4"/>
-      <c r="AHR32" s="4"/>
-      <c r="AHS32" s="4"/>
-      <c r="AHT32" s="4"/>
-      <c r="AHU32" s="4"/>
-      <c r="AHV32" s="4"/>
-      <c r="AHW32" s="4"/>
-      <c r="AHX32" s="4"/>
-      <c r="AHY32" s="4"/>
-      <c r="AHZ32" s="4"/>
-      <c r="AIA32" s="4"/>
-      <c r="AIB32" s="4"/>
-      <c r="AIC32" s="4"/>
-      <c r="AID32" s="4"/>
-      <c r="AIE32" s="4"/>
-      <c r="AIF32" s="4"/>
-      <c r="AIG32" s="4"/>
-      <c r="AIH32" s="4"/>
-      <c r="AII32" s="4"/>
-      <c r="AIJ32" s="4"/>
-      <c r="AIK32" s="4"/>
-      <c r="AIL32" s="4"/>
-      <c r="AIM32" s="4"/>
-      <c r="AIN32" s="4"/>
-      <c r="AIO32" s="4"/>
-      <c r="AIP32" s="4"/>
-      <c r="AIQ32" s="4"/>
-      <c r="AIR32" s="4"/>
-      <c r="AIS32" s="4"/>
-      <c r="AIT32" s="4"/>
-      <c r="AIU32" s="4"/>
-      <c r="AIV32" s="4"/>
-      <c r="AIW32" s="4"/>
-      <c r="AIX32" s="4"/>
-      <c r="AIY32" s="4"/>
-      <c r="AIZ32" s="4"/>
-      <c r="AJA32" s="4"/>
-      <c r="AJB32" s="4"/>
-      <c r="AJC32" s="4"/>
-      <c r="AJD32" s="4"/>
-      <c r="AJE32" s="4"/>
-      <c r="AJF32" s="4"/>
-      <c r="AJG32" s="4"/>
-      <c r="AJH32" s="4"/>
-      <c r="AJI32" s="4"/>
-      <c r="AJJ32" s="4"/>
-      <c r="AJK32" s="4"/>
-      <c r="AJL32" s="4"/>
-      <c r="AJM32" s="4"/>
-      <c r="AJN32" s="4"/>
-      <c r="AJO32" s="4"/>
-      <c r="AJP32" s="4"/>
-      <c r="AJQ32" s="4"/>
-      <c r="AJR32" s="4"/>
-      <c r="AJS32" s="4"/>
-      <c r="AJT32" s="4"/>
-      <c r="AJU32" s="4"/>
-      <c r="AJV32" s="4"/>
-      <c r="AJW32" s="4"/>
-      <c r="AJX32" s="4"/>
-      <c r="AJY32" s="4"/>
-      <c r="AJZ32" s="4"/>
-      <c r="AKA32" s="4"/>
-      <c r="AKB32" s="4"/>
-      <c r="AKC32" s="4"/>
-      <c r="AKD32" s="4"/>
-      <c r="AKE32" s="4"/>
-      <c r="AKF32" s="4"/>
-      <c r="AKG32" s="4"/>
-      <c r="AKH32" s="4"/>
-      <c r="AKI32" s="4"/>
-      <c r="AKJ32" s="4"/>
-      <c r="AKK32" s="4"/>
-      <c r="AKL32" s="4"/>
-      <c r="AKM32" s="4"/>
-      <c r="AKN32" s="4"/>
-      <c r="AKO32" s="4"/>
-      <c r="AKP32" s="4"/>
-      <c r="AKQ32" s="4"/>
-      <c r="AKR32" s="4"/>
-      <c r="AKS32" s="4"/>
-      <c r="AKT32" s="4"/>
-      <c r="AKU32" s="4"/>
-      <c r="AKV32" s="4"/>
-      <c r="AKW32" s="4"/>
-      <c r="AKX32" s="4"/>
-      <c r="AKY32" s="4"/>
-      <c r="AKZ32" s="4"/>
-      <c r="ALA32" s="4"/>
-      <c r="ALB32" s="4"/>
-      <c r="ALC32" s="4"/>
-      <c r="ALD32" s="4"/>
-      <c r="ALE32" s="4"/>
-      <c r="ALF32" s="4"/>
-      <c r="ALG32" s="4"/>
-      <c r="ALH32" s="4"/>
-      <c r="ALI32" s="4"/>
-      <c r="ALJ32" s="4"/>
-      <c r="ALK32" s="4"/>
-      <c r="ALL32" s="4"/>
-      <c r="ALM32" s="4"/>
-      <c r="ALN32" s="4"/>
-      <c r="ALO32" s="4"/>
-      <c r="ALP32" s="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1">
-        <v>29.5</v>
-      </c>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="G34" s="1">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1">
-        <v>20</v>
-      </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1">
-        <v>22</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>215</v>
+        <v>10</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C37" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>133</v>
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="1">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="C41" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>218</v>
+        <v>304</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1">
-        <v>29.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>10</v>
+      <c r="A42" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>216</v>
+        <v>305</v>
       </c>
       <c r="C42" s="1">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>219</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1">
-        <v>45</v>
-      </c>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="1">
-        <v>5</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1">
-        <v>20</v>
-      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="1">
-        <v>4</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>222</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1">
-        <v>20</v>
-      </c>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="C45" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1">
-        <v>29</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="C46" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="1"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>308</v>
+      </c>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="1"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>309</v>
+      </c>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>7</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="C50" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>225</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="F50" s="1"/>
       <c r="G50" s="1">
-        <v>29.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="C51" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -3772,680 +2773,710 @@
         <v>27</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>137</v>
+        <v>315</v>
       </c>
       <c r="C52" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>69</v>
+        <v>27</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="C53" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>228</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="1">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="1">
-        <v>4</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G54" s="1">
-        <v>20</v>
+      <c r="A54" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C54" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C55" s="1">
-        <v>4</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G55" s="1">
-        <v>29</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" s="1">
-        <v>128</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G57" s="1">
-        <v>20</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="G58" s="1">
-        <v>29</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C59" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>161</v>
+        <v>43</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G59" s="1">
-        <v>143</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>162</v>
+        <v>43</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G60" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C61" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="G61" s="1">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="C62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="G62" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="C63" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="G63" s="1">
-        <v>128</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G64" s="1">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G65" s="1">
-        <v>29.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G66" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>137</v>
+        <v>10</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G67" s="1">
-        <v>29</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="C68" s="1">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="1">
+        <v>67</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C70" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F70" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G70" s="1">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C71" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F71" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G71" s="1">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>82</v>
+      <c r="B72" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C72" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F72" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G72" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" s="1">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73" s="1">
-        <v>2</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>117</v>
+      <c r="B74" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G74" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
-        <v>181</v>
+      <c r="A75" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+        <v>320</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G75" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>183</v>
+        <v>299</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>184</v>
+        <v>321</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="1" t="s">
-        <v>29</v>
+      <c r="A77" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>129</v>
+        <v>322</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G77" s="1">
-        <v>4.5</v>
-      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B78" s="1"/>
       <c r="C78" s="1">
         <v>1</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>128</v>
+      <c r="D78" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G78" s="1">
-        <v>12</v>
-      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="1">
-        <v>4</v>
-      </c>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="C80" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F80" s="1"/>
       <c r="G80" s="1">
-        <v>6</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C81" s="1">
-        <v>10</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="G82" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="G83" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="A84" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>324</v>
+      </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="F85" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G85" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G86" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="F87" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G87" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
@@ -4599,6 +3630,51 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:G68">
@@ -4626,7 +3702,7 @@
   <sheetData>
     <row r="1" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D1" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E1" s="4" t="e">
         <f>SUBTOTAL(9,#REF!)</f>
@@ -4635,7 +3711,7 @@
     </row>
     <row r="2" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4643,7 +3719,7 @@
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D3" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E3" s="1">
         <f>SUBTOTAL(9,E2:E2)</f>
@@ -4652,7 +3728,7 @@
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D4" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -4660,7 +3736,7 @@
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D5" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1">
         <f>SUBTOTAL(9,E4:E4)</f>
@@ -4669,7 +3745,7 @@
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D6" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -4677,7 +3753,7 @@
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E7" s="1">
         <f>SUBTOTAL(9,E6:E6)</f>
@@ -4694,7 +3770,7 @@
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D9" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1">
         <f>SUBTOTAL(9,E8:E8)</f>
@@ -4711,7 +3787,7 @@
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E11" s="1">
         <f>SUBTOTAL(9,E10:E10)</f>
@@ -4728,7 +3804,7 @@
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D13" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E13" s="1">
         <f>SUBTOTAL(9,E12:E12)</f>
@@ -4737,7 +3813,7 @@
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -4745,7 +3821,7 @@
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D15" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E15" s="1">
         <f>SUBTOTAL(9,E14:E14)</f>
@@ -4762,7 +3838,7 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D17" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E17" s="1">
         <f>SUBTOTAL(9,E16:E16)</f>
@@ -4771,7 +3847,7 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D18" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -4779,7 +3855,7 @@
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D19" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -4787,7 +3863,7 @@
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -4795,7 +3871,7 @@
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -4803,7 +3879,7 @@
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D22" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -4811,7 +3887,7 @@
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D23" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -4819,7 +3895,7 @@
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D24" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E24" s="1">
         <f>SUBTOTAL(9,E18:E23)</f>
@@ -4828,7 +3904,7 @@
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D25" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -4836,7 +3912,7 @@
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -4844,7 +3920,7 @@
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
@@ -4852,7 +3928,7 @@
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -4860,7 +3936,7 @@
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D29" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -4868,7 +3944,7 @@
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D30" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -4876,7 +3952,7 @@
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D31" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -4884,7 +3960,7 @@
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D32" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -4892,7 +3968,7 @@
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D33" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E33" s="1">
         <f>SUBTOTAL(9,E25:E32)</f>
@@ -4901,7 +3977,7 @@
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D34" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -4909,7 +3985,7 @@
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D35" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E35" s="1">
         <f>SUBTOTAL(9,E34:E34)</f>
@@ -4918,7 +3994,7 @@
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D36" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -4926,7 +4002,7 @@
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D37" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -4934,7 +4010,7 @@
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D38" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E38" s="1">
         <f>SUBTOTAL(9,E36:E37)</f>
@@ -4943,7 +4019,7 @@
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D39" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -4951,7 +4027,7 @@
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D40" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E40" s="1">
         <f>SUBTOTAL(9,E39:E39)</f>
@@ -4960,7 +4036,7 @@
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
@@ -4968,7 +4044,7 @@
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
@@ -4976,7 +4052,7 @@
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D43" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E43" s="1">
         <f>SUBTOTAL(9,E41:E42)</f>
@@ -4985,7 +4061,7 @@
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D44" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -4993,7 +4069,7 @@
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D45" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -5001,7 +4077,7 @@
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D46" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1">
         <f>SUBTOTAL(9,E44:E45)</f>
@@ -5010,7 +4086,7 @@
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D47" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E47" s="1">
         <v>10</v>
@@ -5018,7 +4094,7 @@
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D48" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E48" s="1">
         <f>SUBTOTAL(9,E47:E47)</f>
@@ -5027,7 +4103,7 @@
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D49" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E49" s="1">
         <v>5</v>
@@ -5035,7 +4111,7 @@
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D50" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E50" s="1">
         <f>SUBTOTAL(9,E49:E49)</f>
@@ -5044,7 +4120,7 @@
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D51" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -5052,7 +4128,7 @@
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D52" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E52" s="1">
         <f>SUBTOTAL(9,E51:E51)</f>
@@ -5061,7 +4137,7 @@
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D53" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -5069,7 +4145,7 @@
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D54" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E54" s="1">
         <v>4</v>
@@ -5077,7 +4153,7 @@
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D55" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E55" s="1">
         <f>SUBTOTAL(9,E53:E54)</f>
@@ -5110,7 +4186,7 @@
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D59" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E59" s="1">
         <f>SUBTOTAL(9,E56:E58)</f>
@@ -5119,7 +4195,7 @@
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D60" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -5127,7 +4203,7 @@
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D61" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E61" s="1">
         <f>SUBTOTAL(9,E60:E60)</f>
@@ -5136,7 +4212,7 @@
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D62" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -5144,7 +4220,7 @@
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D63" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E63" s="1">
         <f>SUBTOTAL(9,E62:E62)</f>
@@ -5153,7 +4229,7 @@
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D64" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>
@@ -5161,7 +4237,7 @@
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D65" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -5169,7 +4245,7 @@
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D66" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E66" s="1">
         <f>SUBTOTAL(9,E64:E65)</f>
@@ -5210,7 +4286,7 @@
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D71" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E71" s="1">
         <f>SUBTOTAL(9,E67:E70)</f>
@@ -5219,7 +4295,7 @@
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D72" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -5227,7 +4303,7 @@
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D73" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E73" s="1">
         <f>SUBTOTAL(9,E72:E72)</f>
@@ -5236,7 +4312,7 @@
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D74" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E74" s="1">
         <v>2</v>
@@ -5244,7 +4320,7 @@
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D75" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E75" s="1">
         <f>SUBTOTAL(9,E74:E74)</f>
@@ -5253,7 +4329,7 @@
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D76" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E76" s="1">
         <v>6</v>
@@ -5261,7 +4337,7 @@
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D77" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -5269,7 +4345,7 @@
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D78" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E78" s="1">
         <f>SUBTOTAL(9,E76:E77)</f>
@@ -5278,7 +4354,7 @@
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D79" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E79" s="1">
         <v>2</v>
@@ -5286,7 +4362,7 @@
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D80" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E80" s="1">
         <f>SUBTOTAL(9,E79:E79)</f>
@@ -5303,7 +4379,7 @@
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D82" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E82" s="1">
         <f>SUBTOTAL(9,E81:E81)</f>
@@ -5320,7 +4396,7 @@
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D84" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E84" s="1">
         <f>SUBTOTAL(9,E83:E83)</f>
@@ -5337,7 +4413,7 @@
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D86" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E86" s="1">
         <f>SUBTOTAL(9,E85:E85)</f>
@@ -5354,7 +4430,7 @@
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D88" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E88" s="1">
         <f>SUBTOTAL(9,E87:E87)</f>
@@ -5363,7 +4439,7 @@
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D89" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -5371,7 +4447,7 @@
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D90" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
@@ -5379,7 +4455,7 @@
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D91" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
@@ -5387,7 +4463,7 @@
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D92" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -5395,7 +4471,7 @@
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D93" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E93" s="1">
         <v>9</v>
@@ -5403,7 +4479,7 @@
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D94" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -5411,7 +4487,7 @@
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D95" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E95" s="1">
         <v>3</v>
@@ -5419,7 +4495,7 @@
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D96" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E96" s="1">
         <v>3</v>
@@ -5427,7 +4503,7 @@
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D97" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
@@ -5435,7 +4511,7 @@
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D98" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -5443,7 +4519,7 @@
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D99" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E99" s="1">
         <f>SUBTOTAL(9,E89:E98)</f>
@@ -5452,7 +4528,7 @@
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D100" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -5460,7 +4536,7 @@
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D101" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -5468,7 +4544,7 @@
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D102" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E102" s="1">
         <f>SUBTOTAL(9,E100:E101)</f>
@@ -5496,143 +4572,143 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>192</v>
+      <c r="B3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>192</v>
+      <c r="B4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>192</v>
+      <c r="B5" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>192</v>
+        <v>181</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>192</v>
+        <v>182</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>192</v>
+        <v>113</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>192</v>
+      <c r="C9" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>192</v>
+      <c r="C10" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B11" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>192</v>
+      <c r="B11" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>192</v>
+      <c r="B12" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>193</v>
+      <c r="B13" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B14" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>194</v>
+      <c r="B14" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B15" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>194</v>
+      <c r="B15" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>194</v>
+      <c r="B16" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>194</v>
+      <c r="B17" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>194</v>
+      <c r="B18" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>194</v>
+      <c r="B19" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
+      <c r="B20" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5655,51 +4731,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>203</v>
+      <c r="B3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>205</v>
+      <c r="B4" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>205</v>
+      <c r="B5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>205</v>
+      <c r="B6" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>205</v>
+      <c r="B7" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>205</v>
+      <c r="B8" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5712,7 +4788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13FF55E-BEB2-41A1-BD4E-4B1DA37AE321}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -5725,431 +4801,431 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="12"/>
+      <c r="A1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D11" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="12" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="B12" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B13" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" t="s">
         <v>241</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D13" s="11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B14" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" t="s">
         <v>241</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D14" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="B16" t="s">
         <v>245</v>
       </c>
-      <c r="B5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C16" t="s">
         <v>246</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D16" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" t="s">
         <v>249</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" t="s">
         <v>253</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="B20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" t="s">
         <v>255</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" t="s">
         <v>257</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+      <c r="B22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" t="s">
         <v>259</v>
       </c>
-      <c r="B10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D22" t="s">
         <v>260</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" t="s">
         <v>262</v>
       </c>
-      <c r="B11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B25" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B26" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="13" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+      <c r="B27" t="s">
         <v>268</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C27" t="s">
         <v>269</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D27" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C14" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
+      <c r="B28" t="s">
         <v>272</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C28" t="s">
         <v>273</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D28" t="s">
         <v>274</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
+      <c r="B29" t="s">
         <v>276</v>
       </c>
-      <c r="B17" t="s">
-        <v>273</v>
-      </c>
-      <c r="C17" t="s">
-        <v>274</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C29" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B18" t="s">
-        <v>273</v>
-      </c>
-      <c r="C18" t="s">
-        <v>274</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B30" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
+      <c r="C30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B19" t="s">
-        <v>273</v>
-      </c>
-      <c r="C19" t="s">
-        <v>274</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B31" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B20" t="s">
-        <v>273</v>
-      </c>
-      <c r="C20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B32" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
+      <c r="C32" t="s">
         <v>284</v>
       </c>
-      <c r="B21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+      <c r="B33" t="s">
         <v>286</v>
       </c>
-      <c r="B22" t="s">
-        <v>273</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" t="s">
         <v>287</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="10" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
+      <c r="B34" t="s">
         <v>289</v>
       </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>274</v>
-      </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="10"/>
+      <c r="B35" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="10" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
+      <c r="B37" t="s">
         <v>293</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C37" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="B27" t="s">
-        <v>296</v>
-      </c>
-      <c r="C27" t="s">
-        <v>297</v>
-      </c>
-      <c r="D27" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B28" t="s">
-        <v>300</v>
-      </c>
-      <c r="C28" t="s">
-        <v>301</v>
-      </c>
-      <c r="D28" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="B29" t="s">
-        <v>304</v>
-      </c>
-      <c r="C29" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B30" t="s">
-        <v>307</v>
-      </c>
-      <c r="C30" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="B31" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B32" t="s">
-        <v>311</v>
-      </c>
-      <c r="C32" t="s">
-        <v>312</v>
-      </c>
-      <c r="D32" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="B33" t="s">
-        <v>314</v>
-      </c>
-      <c r="C33" t="s">
-        <v>312</v>
-      </c>
-      <c r="D33" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B34" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
-      <c r="B35" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B37" t="s">
-        <v>321</v>
-      </c>
-      <c r="C37" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/fjl_sdlk.xlsx
+++ b/fjl_sdlk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\worktop\fjl_sdlk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC1ABCB-C368-4C1B-8CB3-02E6330E8366}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F34AEFC-222E-4153-B6F2-CE7276DF628B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2052" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="面板安排" sheetId="3" r:id="rId3"/>
     <sheet name="内部操作面板" sheetId="4" r:id="rId4"/>
     <sheet name="联动控制器" sheetId="5" r:id="rId5"/>
+    <sheet name="联动控制器购买清单" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="322">
   <si>
     <t>品名</t>
   </si>
@@ -133,18 +134,6 @@
     <t>DZ47-40A-2P</t>
   </si>
   <si>
-    <t>悬挂链</t>
-  </si>
-  <si>
-    <t>按钮绿</t>
-  </si>
-  <si>
-    <t>电位器</t>
-  </si>
-  <si>
-    <t>WXD 10K</t>
-  </si>
-  <si>
     <t>热水炉</t>
   </si>
   <si>
@@ -223,10 +212,6 @@
   </si>
   <si>
     <t>FR02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DZ47-60 3P C20A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -429,10 +414,6 @@
     <t>JZX-22F(D)/4Z-24V 汇总</t>
   </si>
   <si>
-    <t>按钮红</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2常开2常闭红</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -452,10 +433,6 @@
   </si>
   <si>
     <t>DZ47-16A-2P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DZ47-60-3P-C40A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -496,10 +473,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">NR2-25/Z 12-18A  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>QF65-QF66</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -521,14 +494,6 @@
   </si>
   <si>
     <t>KMB1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KMD1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QFD1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1182,10 +1147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FR1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>热水炉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1292,13 +1253,21 @@
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不自锁,1常开1常闭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不自锁,2常开</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1349,6 +1318,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1782,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection sqref="A1:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1826,7 +1801,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1835,7 +1810,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
@@ -1856,7 +1831,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
@@ -1865,10 +1840,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1877,7 +1852,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -1885,10 +1860,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1897,7 +1872,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
@@ -1906,7 +1881,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
@@ -1918,7 +1893,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
@@ -1939,7 +1914,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
@@ -1960,7 +1935,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
@@ -1972,7 +1947,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1981,7 +1956,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
@@ -2002,7 +1977,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
@@ -2023,7 +1998,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
@@ -2044,7 +2019,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
@@ -2053,10 +2028,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -2065,14 +2040,14 @@
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
@@ -2094,19 +2069,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
@@ -2115,19 +2090,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
@@ -2148,7 +2123,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
@@ -2169,7 +2144,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
@@ -2181,7 +2156,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -2190,7 +2165,7 @@
         <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
@@ -2199,10 +2174,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -2216,10 +2191,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -2242,10 +2217,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -2254,7 +2229,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1">
@@ -2275,7 +2250,7 @@
         <v>31</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
@@ -2287,16 +2262,16 @@
         <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
@@ -2305,16 +2280,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2330,30 +2305,20 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1">
-        <v>12</v>
-      </c>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>118</v>
+        <v>10</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -2361,18 +2326,20 @@
       <c r="D30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1">
-        <v>12</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>71</v>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -2381,7 +2348,7 @@
         <v>33</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1">
@@ -2392,8 +2359,8 @@
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>123</v>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -2402,473 +2369,497 @@
         <v>33</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="1"/>
+      <c r="D33" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>130</v>
+        <v>35</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="E34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>106</v>
+      <c r="A36" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="D36" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1">
-        <v>29.5</v>
-      </c>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1">
-        <v>45</v>
-      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1">
-        <v>20</v>
-      </c>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>141</v>
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1">
-        <v>22</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C40" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>164</v>
+      <c r="E40" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>124</v>
+        <v>296</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>143</v>
+        <v>37</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="1"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>72</v>
+        <v>302</v>
       </c>
       <c r="C45" s="1">
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1">
-        <v>29.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>197</v>
+        <v>304</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C47" s="1">
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="1">
-        <v>6</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1">
-        <v>20</v>
+      <c r="A48" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C48" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>310</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1">
-        <v>20</v>
-      </c>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C50" s="1">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>312</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1">
-        <v>20</v>
-      </c>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C51" s="1">
-        <v>6</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1">
-        <v>29</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>315</v>
+        <v>10</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C52" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="F52" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="G52" s="1">
-        <v>29</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>317</v>
+        <v>7</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C53" s="1">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F53" s="1"/>
+        <v>191</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G53" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="C54" s="12">
-        <v>1</v>
-      </c>
-    </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="1"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G55" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="1"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G56" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G57" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>106</v>
+      <c r="B58" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C58" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>199</v>
+        <v>39</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G58" s="1">
-        <v>29.5</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -2876,22 +2867,22 @@
         <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C59" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>201</v>
+        <v>39</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G59" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -2899,19 +2890,19 @@
         <v>27</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C60" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>203</v>
+        <v>39</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G60" s="1">
         <v>29</v>
@@ -2922,45 +2913,45 @@
         <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C61" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>202</v>
+        <v>39</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G61" s="1">
-        <v>45</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>40</v>
+      <c r="B62" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C62" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>202</v>
+        <v>39</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G62" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -2968,91 +2959,89 @@
         <v>27</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>313</v>
+        <v>120</v>
       </c>
       <c r="C63" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>202</v>
+        <v>39</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G63" s="1">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G64" s="1">
-        <v>128</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G65" s="1">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>128</v>
+        <v>7</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G66" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -3060,45 +3049,45 @@
         <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G67" s="1">
-        <v>143</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>75</v>
+      <c r="B68" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G68" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -3106,377 +3095,295 @@
         <v>27</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>43</v>
+      <c r="D69" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G69" s="1">
-        <v>67</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
-        <v>39</v>
+      <c r="A70" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="C70" s="1">
-        <v>2</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G70" s="1">
-        <v>13</v>
-      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>67</v>
+      <c r="A71" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G71" s="1">
-        <v>128</v>
-      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B72" s="1"/>
       <c r="C72" s="1">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G72" s="1">
-        <v>20</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G73" s="1">
-        <v>29.5</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>42</v>
+      <c r="B74" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C74" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F74" s="1"/>
       <c r="G74" s="1">
-        <v>22</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F75" s="1"/>
       <c r="G75" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="B79" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="F79" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G79" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="C80" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F80" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="3" t="s">
+        <v>317</v>
+      </c>
       <c r="G80" s="1">
-        <v>13.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>121</v>
+        <v>318</v>
       </c>
       <c r="C81" s="1">
-        <v>2</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F81" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="3" t="s">
+        <v>319</v>
+      </c>
       <c r="G81" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" s="1">
-        <v>2</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="1">
-        <v>23</v>
-      </c>
+      <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C83" s="1">
-        <v>2</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="1">
-        <v>25</v>
-      </c>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>324</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G85" s="1">
-        <v>12</v>
-      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G86" s="1">
-        <v>4</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G87" s="1">
-        <v>12</v>
-      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
@@ -3622,63 +3529,9 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:G68">
-    <sortCondition ref="F50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:G62">
+    <sortCondition ref="F44"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3702,7 +3555,7 @@
   <sheetData>
     <row r="1" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D1" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E1" s="4" t="e">
         <f>SUBTOTAL(9,#REF!)</f>
@@ -3711,7 +3564,7 @@
     </row>
     <row r="2" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D2" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -3719,7 +3572,7 @@
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D3" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1">
         <f>SUBTOTAL(9,E2:E2)</f>
@@ -3728,7 +3581,7 @@
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -3736,7 +3589,7 @@
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D5" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E5" s="1">
         <f>SUBTOTAL(9,E4:E4)</f>
@@ -3745,7 +3598,7 @@
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D6" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -3753,7 +3606,7 @@
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E7" s="1">
         <f>SUBTOTAL(9,E6:E6)</f>
@@ -3770,7 +3623,7 @@
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D9" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1">
         <f>SUBTOTAL(9,E8:E8)</f>
@@ -3787,7 +3640,7 @@
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1">
         <f>SUBTOTAL(9,E10:E10)</f>
@@ -3804,7 +3657,7 @@
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D13" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1">
         <f>SUBTOTAL(9,E12:E12)</f>
@@ -3813,7 +3666,7 @@
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -3821,7 +3674,7 @@
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D15" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1">
         <f>SUBTOTAL(9,E14:E14)</f>
@@ -3838,7 +3691,7 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D17" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1">
         <f>SUBTOTAL(9,E16:E16)</f>
@@ -3847,7 +3700,7 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D18" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -3855,7 +3708,7 @@
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D19" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -3863,7 +3716,7 @@
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -3871,7 +3724,7 @@
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -3879,7 +3732,7 @@
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D22" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -3887,7 +3740,7 @@
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D23" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -3895,7 +3748,7 @@
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D24" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E24" s="1">
         <f>SUBTOTAL(9,E18:E23)</f>
@@ -3904,7 +3757,7 @@
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D25" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -3912,7 +3765,7 @@
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D26" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -3920,7 +3773,7 @@
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
@@ -3928,7 +3781,7 @@
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D28" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -3936,7 +3789,7 @@
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D29" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -3944,7 +3797,7 @@
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D30" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -3952,7 +3805,7 @@
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D31" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3960,7 +3813,7 @@
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -3968,7 +3821,7 @@
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D33" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E33" s="1">
         <f>SUBTOTAL(9,E25:E32)</f>
@@ -3977,7 +3830,7 @@
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D34" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -3985,7 +3838,7 @@
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D35" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E35" s="1">
         <f>SUBTOTAL(9,E34:E34)</f>
@@ -3994,7 +3847,7 @@
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D36" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -4002,7 +3855,7 @@
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D37" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -4010,7 +3863,7 @@
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D38" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E38" s="1">
         <f>SUBTOTAL(9,E36:E37)</f>
@@ -4019,7 +3872,7 @@
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D39" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -4027,7 +3880,7 @@
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D40" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E40" s="1">
         <f>SUBTOTAL(9,E39:E39)</f>
@@ -4036,7 +3889,7 @@
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D41" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
@@ -4044,7 +3897,7 @@
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D42" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
@@ -4052,7 +3905,7 @@
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D43" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E43" s="1">
         <f>SUBTOTAL(9,E41:E42)</f>
@@ -4061,7 +3914,7 @@
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D44" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -4069,7 +3922,7 @@
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D45" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -4077,7 +3930,7 @@
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D46" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E46" s="1">
         <f>SUBTOTAL(9,E44:E45)</f>
@@ -4086,7 +3939,7 @@
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D47" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E47" s="1">
         <v>10</v>
@@ -4094,7 +3947,7 @@
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D48" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E48" s="1">
         <f>SUBTOTAL(9,E47:E47)</f>
@@ -4103,7 +3956,7 @@
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D49" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E49" s="1">
         <v>5</v>
@@ -4111,7 +3964,7 @@
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D50" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E50" s="1">
         <f>SUBTOTAL(9,E49:E49)</f>
@@ -4120,7 +3973,7 @@
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D51" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -4128,7 +3981,7 @@
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D52" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E52" s="1">
         <f>SUBTOTAL(9,E51:E51)</f>
@@ -4137,7 +3990,7 @@
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D53" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -4145,7 +3998,7 @@
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D54" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E54" s="1">
         <v>4</v>
@@ -4153,7 +4006,7 @@
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D55" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E55" s="1">
         <f>SUBTOTAL(9,E53:E54)</f>
@@ -4186,7 +4039,7 @@
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D59" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E59" s="1">
         <f>SUBTOTAL(9,E56:E58)</f>
@@ -4195,7 +4048,7 @@
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D60" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -4203,7 +4056,7 @@
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D61" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1">
         <f>SUBTOTAL(9,E60:E60)</f>
@@ -4220,7 +4073,7 @@
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D63" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E63" s="1">
         <f>SUBTOTAL(9,E62:E62)</f>
@@ -4229,7 +4082,7 @@
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D64" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>
@@ -4237,7 +4090,7 @@
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D65" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -4245,7 +4098,7 @@
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D66" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E66" s="1">
         <f>SUBTOTAL(9,E64:E65)</f>
@@ -4286,7 +4139,7 @@
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D71" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E71" s="1">
         <f>SUBTOTAL(9,E67:E70)</f>
@@ -4295,7 +4148,7 @@
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D72" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -4303,7 +4156,7 @@
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D73" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E73" s="1">
         <f>SUBTOTAL(9,E72:E72)</f>
@@ -4312,7 +4165,7 @@
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D74" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E74" s="1">
         <v>2</v>
@@ -4320,7 +4173,7 @@
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D75" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E75" s="1">
         <f>SUBTOTAL(9,E74:E74)</f>
@@ -4329,7 +4182,7 @@
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D76" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E76" s="1">
         <v>6</v>
@@ -4337,7 +4190,7 @@
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D77" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -4345,7 +4198,7 @@
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D78" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E78" s="1">
         <f>SUBTOTAL(9,E76:E77)</f>
@@ -4354,7 +4207,7 @@
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D79" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E79" s="1">
         <v>2</v>
@@ -4362,7 +4215,7 @@
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D80" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E80" s="1">
         <f>SUBTOTAL(9,E79:E79)</f>
@@ -4379,7 +4232,7 @@
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D82" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E82" s="1">
         <f>SUBTOTAL(9,E81:E81)</f>
@@ -4396,7 +4249,7 @@
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D84" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E84" s="1">
         <f>SUBTOTAL(9,E83:E83)</f>
@@ -4413,7 +4266,7 @@
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D86" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E86" s="1">
         <f>SUBTOTAL(9,E85:E85)</f>
@@ -4430,7 +4283,7 @@
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D88" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E88" s="1">
         <f>SUBTOTAL(9,E87:E87)</f>
@@ -4439,7 +4292,7 @@
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D89" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -4447,7 +4300,7 @@
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D90" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
@@ -4455,7 +4308,7 @@
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D91" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
@@ -4463,7 +4316,7 @@
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D92" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -4471,7 +4324,7 @@
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D93" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E93" s="1">
         <v>9</v>
@@ -4479,7 +4332,7 @@
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D94" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -4487,7 +4340,7 @@
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D95" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E95" s="1">
         <v>3</v>
@@ -4495,7 +4348,7 @@
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D96" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E96" s="1">
         <v>3</v>
@@ -4503,7 +4356,7 @@
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D97" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
@@ -4511,7 +4364,7 @@
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D98" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -4519,7 +4372,7 @@
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D99" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E99" s="1">
         <f>SUBTOTAL(9,E89:E98)</f>
@@ -4528,7 +4381,7 @@
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D100" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -4536,7 +4389,7 @@
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D101" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -4544,7 +4397,7 @@
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D102" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E102" s="1">
         <f>SUBTOTAL(9,E100:E101)</f>
@@ -4573,50 +4426,50 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.15">
@@ -4624,7 +4477,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
@@ -4632,79 +4485,79 @@
         <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" s="8" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B12" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B13" s="8" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B14" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B16" s="9" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
@@ -4732,50 +4585,50 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="8" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4789,14 +4642,14 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4805,58 +4658,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -4864,114 +4717,114 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" t="s">
         <v>228</v>
       </c>
-      <c r="C12" t="s">
-        <v>238</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -4982,114 +4835,114 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D16" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D18" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C19" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D19" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" t="s">
         <v>245</v>
-      </c>
-      <c r="C20" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C21" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C22" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D22" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D23" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -5097,139 +4950,468 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C27" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D27" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C28" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C29" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C30" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C32" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D32" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B33" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C33" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D33" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C37" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF893BE-78B0-4230-AFD6-638AD91D5B68}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/fjl_sdlk.xlsx
+++ b/fjl_sdlk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\worktop\fjl_sdlk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F34AEFC-222E-4153-B6F2-CE7276DF628B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E48230-EDA6-44C9-AF5F-B10A6C29E7B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1757,10 +1757,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G103"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection sqref="A1:F81"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3340,202 +3343,13 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:G62">
     <sortCondition ref="F44"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4641,8 +4455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13FF55E-BEB2-41A1-BD4E-4B1DA37AE321}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5084,6 +4898,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/fjl_sdlk.xlsx
+++ b/fjl_sdlk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\worktop\fjl_sdlk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E48230-EDA6-44C9-AF5F-B10A6C29E7B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939AAD82-60E1-4472-B15F-39A92C4514D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1762,21 +1762,21 @@
   </sheetPr>
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:XFD103"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="36.625" customWidth="1"/>
-    <col min="6" max="6" width="37.625" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>454.3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>106</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>107</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>108</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>103</v>
       </c>
@@ -2048,7 +2048,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>153</v>
       </c>
@@ -2061,7 +2061,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2070,7 +2070,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>103</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>103</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>289</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>289</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2218,7 +2218,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>103</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>289</v>
       </c>
@@ -2298,7 +2298,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2307,7 +2307,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2316,7 +2316,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>289</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
       <c r="C37" s="1"/>
@@ -2468,7 +2468,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="1"/>
@@ -2477,7 +2477,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>289</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
       <c r="C49" s="1"/>
@@ -2686,7 +2686,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
       <c r="C50" s="1"/>
@@ -2695,7 +2695,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="1"/>
@@ -2704,7 +2704,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>27</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>27</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>27</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>27</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>35</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>27</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>289</v>
       </c>
@@ -3131,7 +3131,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>289</v>
       </c>
@@ -3146,7 +3146,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>46</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3170,7 +3170,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>7</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>104</v>
       </c>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>29</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3361,13 +3361,13 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D1" s="7" t="s">
         <v>113</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
         <v>112</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
         <v>114</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
         <v>111</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D5" s="5" t="s">
         <v>113</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D6" s="3" t="s">
         <v>112</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D7" s="5" t="s">
         <v>114</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
         <v>77</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D11" s="5" t="s">
         <v>100</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D13" s="5" t="s">
         <v>99</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D15" s="5" t="s">
         <v>76</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="5" t="s">
         <v>79</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>101</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
         <v>101</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
         <v>101</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>101</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
         <v>101</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>101</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="5" t="s">
         <v>102</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
         <v>67</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>60</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>60</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>59</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>59</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D31" s="3" t="s">
         <v>66</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>59</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="5" t="s">
         <v>109</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>63</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" s="5" t="s">
         <v>80</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
         <v>72</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="s">
         <v>62</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D38" s="5" t="s">
         <v>82</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
         <v>61</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D40" s="5" t="s">
         <v>81</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="s">
         <v>36</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
         <v>36</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D43" s="5" t="s">
         <v>90</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
         <v>65</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
         <v>65</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D46" s="5" t="s">
         <v>86</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>49</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D48" s="5" t="s">
         <v>94</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
         <v>50</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D50" s="5" t="s">
         <v>95</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D52" s="5" t="s">
         <v>93</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D53" s="1" t="s">
         <v>34</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D54" s="1" t="s">
         <v>34</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D55" s="5" t="s">
         <v>89</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D56" s="1" t="s">
         <v>25</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D57" s="1" t="s">
         <v>25</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D58" s="1" t="s">
         <v>25</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D59" s="5" t="s">
         <v>84</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D60" s="1" t="s">
         <v>38</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D61" s="5" t="s">
         <v>91</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D62" s="1" t="s">
         <v>32</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D63" s="5" t="s">
         <v>87</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D64" s="3" t="s">
         <v>70</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D65" s="3" t="s">
         <v>70</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D66" s="5" t="s">
         <v>92</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D67" s="3" t="s">
         <v>28</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D68" s="3" t="s">
         <v>28</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D69" s="3" t="s">
         <v>28</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D70" s="1" t="s">
         <v>28</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D71" s="5" t="s">
         <v>85</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D72" s="1" t="s">
         <v>58</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D73" s="5" t="s">
         <v>88</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D74" s="1" t="s">
         <v>51</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D75" s="5" t="s">
         <v>96</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D76" s="3" t="s">
         <v>69</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D77" s="3" t="s">
         <v>69</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D78" s="5" t="s">
         <v>78</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D79" s="3" t="s">
         <v>105</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D80" s="5" t="s">
         <v>110</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D81" s="1" t="s">
         <v>14</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D82" s="5" t="s">
         <v>73</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D83" s="1" t="s">
         <v>18</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D84" s="5" t="s">
         <v>75</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D85" s="1" t="s">
         <v>16</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D86" s="5" t="s">
         <v>74</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D87" s="1" t="s">
         <v>8</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D88" s="5" t="s">
         <v>83</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D89" s="3" t="s">
         <v>68</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D90" s="3" t="s">
         <v>68</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D91" s="3" t="s">
         <v>68</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D92" s="3" t="s">
         <v>68</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D93" s="3" t="s">
         <v>68</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D94" s="3" t="s">
         <v>68</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D95" s="3" t="s">
         <v>68</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D96" s="3" t="s">
         <v>68</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D97" s="3" t="s">
         <v>68</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D98" s="3" t="s">
         <v>68</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D99" s="5" t="s">
         <v>97</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D100" s="3" t="s">
         <v>71</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D101" s="3" t="s">
         <v>71</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D102" s="5" t="s">
         <v>98</v>
       </c>
@@ -4232,13 +4232,13 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>159</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>160</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>161</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>171</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>172</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>108</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>157</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>181</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>162</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>158</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>166</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>167</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>168</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>169</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>170</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
     </row>
   </sheetData>
@@ -4392,12 +4392,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>173</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>175</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>177</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>178</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>179</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>180</v>
       </c>
@@ -4455,22 +4455,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13FF55E-BEB2-41A1-BD4E-4B1DA37AE321}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>201</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>205</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>207</v>
       </c>
@@ -4526,10 +4526,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>210</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>214</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>217</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>221</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>224</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>227</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>230</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>233</v>
       </c>
@@ -4641,13 +4641,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>234</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>238</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>240</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>242</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>244</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>246</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>248</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>251</v>
       </c>
@@ -4759,10 +4759,10 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>253</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>255</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>257</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>261</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>265</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>268</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>270</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>272</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>275</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>278</v>
       </c>
@@ -4872,19 +4872,19 @@
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>282</v>
       </c>
@@ -4910,18 +4910,18 @@
       <selection activeCell="A25" sqref="A25:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>201</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>205</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>207</v>
       </c>
@@ -4977,10 +4977,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>210</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>214</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>217</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>221</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>224</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>227</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>230</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>233</v>
       </c>
@@ -5092,13 +5092,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>234</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>238</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>240</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>242</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>244</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>246</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>248</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>251</v>
       </c>
@@ -5210,10 +5210,10 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>282</v>
       </c>

--- a/fjl_sdlk.xlsx
+++ b/fjl_sdlk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\worktop\fjl_sdlk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939AAD82-60E1-4472-B15F-39A92C4514D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C7FBC0-B4C1-456D-867F-8C8D083F9172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="323">
   <si>
     <t>品名</t>
   </si>
@@ -1260,6 +1260,10 @@
   </si>
   <si>
     <t>不自锁,2常开</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从动限位指示灯</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1376,7 +1380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1418,6 +1422,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1762,21 +1769,21 @@
   </sheetPr>
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="36.625" customWidth="1"/>
+    <col min="6" max="6" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1820,7 +1827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1841,7 +1848,7 @@
         <v>454.3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>106</v>
       </c>
@@ -1861,7 +1868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>107</v>
       </c>
@@ -1882,7 +1889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>108</v>
       </c>
@@ -1903,7 +1910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1924,7 +1931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1945,7 +1952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1966,7 +1973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1987,7 +1994,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2008,7 +2015,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2029,7 +2036,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>103</v>
       </c>
@@ -2048,7 +2055,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>153</v>
       </c>
@@ -2061,7 +2068,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2070,7 +2077,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>103</v>
       </c>
@@ -2091,7 +2098,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>103</v>
       </c>
@@ -2112,7 +2119,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2133,7 +2140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2154,7 +2161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -2175,7 +2182,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>289</v>
       </c>
@@ -2192,7 +2199,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>289</v>
       </c>
@@ -2209,7 +2216,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2218,7 +2225,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>103</v>
       </c>
@@ -2239,7 +2246,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -2260,7 +2267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -2281,7 +2288,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>289</v>
       </c>
@@ -2298,7 +2305,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2307,7 +2314,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2316,7 +2323,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -2337,7 +2344,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2358,7 +2365,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -2379,7 +2386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -2400,7 +2407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -2421,7 +2428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
@@ -2442,7 +2449,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>289</v>
       </c>
@@ -2459,7 +2466,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
       <c r="C37" s="1"/>
@@ -2468,7 +2475,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="1"/>
@@ -2477,7 +2484,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -2498,7 +2505,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -2519,7 +2526,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -2540,7 +2547,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -2561,7 +2568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
@@ -2582,7 +2589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -2603,7 +2610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
@@ -2624,7 +2631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
@@ -2645,7 +2652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
@@ -2666,7 +2673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
         <v>289</v>
       </c>
@@ -2677,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
       <c r="C49" s="1"/>
@@ -2686,7 +2693,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
       <c r="C50" s="1"/>
@@ -2695,7 +2702,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="1"/>
@@ -2704,7 +2711,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
@@ -2727,7 +2734,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -2750,7 +2757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>27</v>
       </c>
@@ -2773,7 +2780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -2796,7 +2803,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -2819,7 +2826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>27</v>
       </c>
@@ -2842,7 +2849,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -2865,7 +2872,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -2888,7 +2895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>27</v>
       </c>
@@ -2911,7 +2918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -2934,7 +2941,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -2957,7 +2964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>27</v>
       </c>
@@ -2980,7 +2987,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>35</v>
       </c>
@@ -3001,7 +3008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -3024,7 +3031,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -3047,7 +3054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
@@ -3070,7 +3077,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
@@ -3093,7 +3100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>27</v>
       </c>
@@ -3116,7 +3123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>289</v>
       </c>
@@ -3131,7 +3138,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>289</v>
       </c>
@@ -3146,7 +3153,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>46</v>
       </c>
@@ -3161,7 +3168,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3170,7 +3177,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
@@ -3191,7 +3198,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>7</v>
       </c>
@@ -3212,7 +3219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -3233,7 +3240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -3254,7 +3261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>104</v>
       </c>
@@ -3275,7 +3282,7 @@
       </c>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
@@ -3294,7 +3301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
@@ -3315,7 +3322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>29</v>
       </c>
@@ -3334,7 +3341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3361,13 +3368,13 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D1" s="7" t="s">
         <v>113</v>
       </c>
@@ -3376,7 +3383,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D2" s="3" t="s">
         <v>112</v>
       </c>
@@ -3384,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D3" s="5" t="s">
         <v>114</v>
       </c>
@@ -3393,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D4" s="3" t="s">
         <v>111</v>
       </c>
@@ -3401,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D5" s="5" t="s">
         <v>113</v>
       </c>
@@ -3410,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D6" s="3" t="s">
         <v>112</v>
       </c>
@@ -3418,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
         <v>114</v>
       </c>
@@ -3427,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
@@ -3435,7 +3442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D9" s="5" t="s">
         <v>77</v>
       </c>
@@ -3444,7 +3451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3452,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
         <v>100</v>
       </c>
@@ -3461,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3469,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D13" s="5" t="s">
         <v>99</v>
       </c>
@@ -3478,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
@@ -3486,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D15" s="5" t="s">
         <v>76</v>
       </c>
@@ -3495,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
@@ -3503,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D17" s="5" t="s">
         <v>79</v>
       </c>
@@ -3512,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D18" s="3" t="s">
         <v>101</v>
       </c>
@@ -3520,7 +3527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D19" s="3" t="s">
         <v>101</v>
       </c>
@@ -3528,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
         <v>101</v>
       </c>
@@ -3536,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
         <v>101</v>
       </c>
@@ -3544,7 +3551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D22" s="1" t="s">
         <v>101</v>
       </c>
@@ -3552,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D23" s="1" t="s">
         <v>101</v>
       </c>
@@ -3560,7 +3567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D24" s="5" t="s">
         <v>102</v>
       </c>
@@ -3569,7 +3576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D25" s="3" t="s">
         <v>67</v>
       </c>
@@ -3577,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D26" s="1" t="s">
         <v>60</v>
       </c>
@@ -3585,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D27" s="1" t="s">
         <v>60</v>
       </c>
@@ -3593,7 +3600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
@@ -3601,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D29" s="1" t="s">
         <v>59</v>
       </c>
@@ -3609,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D30" s="1" t="s">
         <v>59</v>
       </c>
@@ -3617,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D31" s="3" t="s">
         <v>66</v>
       </c>
@@ -3625,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D32" s="1" t="s">
         <v>59</v>
       </c>
@@ -3633,7 +3640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D33" s="5" t="s">
         <v>109</v>
       </c>
@@ -3642,7 +3649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D34" s="1" t="s">
         <v>63</v>
       </c>
@@ -3650,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D35" s="5" t="s">
         <v>80</v>
       </c>
@@ -3659,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D36" s="3" t="s">
         <v>72</v>
       </c>
@@ -3667,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D37" s="1" t="s">
         <v>62</v>
       </c>
@@ -3675,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D38" s="5" t="s">
         <v>82</v>
       </c>
@@ -3684,7 +3691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D39" s="1" t="s">
         <v>61</v>
       </c>
@@ -3692,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D40" s="5" t="s">
         <v>81</v>
       </c>
@@ -3701,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D41" s="1" t="s">
         <v>36</v>
       </c>
@@ -3709,7 +3716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D42" s="1" t="s">
         <v>36</v>
       </c>
@@ -3717,7 +3724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D43" s="5" t="s">
         <v>90</v>
       </c>
@@ -3726,7 +3733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D44" s="3" t="s">
         <v>65</v>
       </c>
@@ -3734,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D45" s="3" t="s">
         <v>65</v>
       </c>
@@ -3742,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D46" s="5" t="s">
         <v>86</v>
       </c>
@@ -3751,7 +3758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D47" s="1" t="s">
         <v>49</v>
       </c>
@@ -3759,7 +3766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D48" s="5" t="s">
         <v>94</v>
       </c>
@@ -3768,7 +3775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D49" s="1" t="s">
         <v>50</v>
       </c>
@@ -3776,7 +3783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D50" s="5" t="s">
         <v>95</v>
       </c>
@@ -3785,7 +3792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3793,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D52" s="5" t="s">
         <v>93</v>
       </c>
@@ -3802,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D53" s="1" t="s">
         <v>34</v>
       </c>
@@ -3810,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D54" s="1" t="s">
         <v>34</v>
       </c>
@@ -3818,7 +3825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D55" s="5" t="s">
         <v>89</v>
       </c>
@@ -3827,7 +3834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D56" s="1" t="s">
         <v>25</v>
       </c>
@@ -3835,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D57" s="1" t="s">
         <v>25</v>
       </c>
@@ -3843,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D58" s="1" t="s">
         <v>25</v>
       </c>
@@ -3851,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D59" s="5" t="s">
         <v>84</v>
       </c>
@@ -3860,7 +3867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D60" s="1" t="s">
         <v>38</v>
       </c>
@@ -3868,7 +3875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D61" s="5" t="s">
         <v>91</v>
       </c>
@@ -3877,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D62" s="1" t="s">
         <v>32</v>
       </c>
@@ -3885,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D63" s="5" t="s">
         <v>87</v>
       </c>
@@ -3894,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D64" s="3" t="s">
         <v>70</v>
       </c>
@@ -3902,7 +3909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D65" s="3" t="s">
         <v>70</v>
       </c>
@@ -3910,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D66" s="5" t="s">
         <v>92</v>
       </c>
@@ -3919,7 +3926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D67" s="3" t="s">
         <v>28</v>
       </c>
@@ -3927,7 +3934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D68" s="3" t="s">
         <v>28</v>
       </c>
@@ -3935,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D69" s="3" t="s">
         <v>28</v>
       </c>
@@ -3943,7 +3950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D70" s="1" t="s">
         <v>28</v>
       </c>
@@ -3951,7 +3958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D71" s="5" t="s">
         <v>85</v>
       </c>
@@ -3960,7 +3967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D72" s="1" t="s">
         <v>58</v>
       </c>
@@ -3968,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D73" s="5" t="s">
         <v>88</v>
       </c>
@@ -3977,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D74" s="1" t="s">
         <v>51</v>
       </c>
@@ -3985,7 +3992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D75" s="5" t="s">
         <v>96</v>
       </c>
@@ -3994,7 +4001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D76" s="3" t="s">
         <v>69</v>
       </c>
@@ -4002,7 +4009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D77" s="3" t="s">
         <v>69</v>
       </c>
@@ -4010,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D78" s="5" t="s">
         <v>78</v>
       </c>
@@ -4019,7 +4026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D79" s="3" t="s">
         <v>105</v>
       </c>
@@ -4027,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D80" s="5" t="s">
         <v>110</v>
       </c>
@@ -4036,7 +4043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D81" s="1" t="s">
         <v>14</v>
       </c>
@@ -4044,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D82" s="5" t="s">
         <v>73</v>
       </c>
@@ -4053,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D83" s="1" t="s">
         <v>18</v>
       </c>
@@ -4061,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D84" s="5" t="s">
         <v>75</v>
       </c>
@@ -4070,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D85" s="1" t="s">
         <v>16</v>
       </c>
@@ -4078,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D86" s="5" t="s">
         <v>74</v>
       </c>
@@ -4087,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D87" s="1" t="s">
         <v>8</v>
       </c>
@@ -4095,7 +4102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D88" s="5" t="s">
         <v>83</v>
       </c>
@@ -4104,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D89" s="3" t="s">
         <v>68</v>
       </c>
@@ -4112,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D90" s="3" t="s">
         <v>68</v>
       </c>
@@ -4120,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D91" s="3" t="s">
         <v>68</v>
       </c>
@@ -4128,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D92" s="3" t="s">
         <v>68</v>
       </c>
@@ -4136,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D93" s="3" t="s">
         <v>68</v>
       </c>
@@ -4144,7 +4151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D94" s="3" t="s">
         <v>68</v>
       </c>
@@ -4152,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D95" s="3" t="s">
         <v>68</v>
       </c>
@@ -4160,7 +4167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D96" s="3" t="s">
         <v>68</v>
       </c>
@@ -4168,7 +4175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D97" s="3" t="s">
         <v>68</v>
       </c>
@@ -4176,7 +4183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D98" s="3" t="s">
         <v>68</v>
       </c>
@@ -4184,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D99" s="5" t="s">
         <v>97</v>
       </c>
@@ -4193,7 +4200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D100" s="3" t="s">
         <v>71</v>
       </c>
@@ -4201,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D101" s="3" t="s">
         <v>71</v>
       </c>
@@ -4209,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D102" s="5" t="s">
         <v>98</v>
       </c>
@@ -4232,13 +4239,13 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
         <v>159</v>
       </c>
@@ -4246,7 +4253,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
         <v>160</v>
       </c>
@@ -4254,7 +4261,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
         <v>161</v>
       </c>
@@ -4262,7 +4269,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>171</v>
       </c>
@@ -4270,7 +4277,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>172</v>
       </c>
@@ -4278,7 +4285,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>108</v>
       </c>
@@ -4286,7 +4293,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -4294,7 +4301,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -4302,7 +4309,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" s="8" t="s">
         <v>157</v>
       </c>
@@ -4310,7 +4317,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B12" s="8" t="s">
         <v>181</v>
       </c>
@@ -4318,7 +4325,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B13" s="8" t="s">
         <v>162</v>
       </c>
@@ -4326,7 +4333,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B14" s="8" t="s">
         <v>158</v>
       </c>
@@ -4334,7 +4341,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
         <v>166</v>
       </c>
@@ -4342,7 +4349,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B16" s="9" t="s">
         <v>167</v>
       </c>
@@ -4350,7 +4357,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
         <v>168</v>
       </c>
@@ -4358,7 +4365,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
         <v>169</v>
       </c>
@@ -4366,7 +4373,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
         <v>170</v>
       </c>
@@ -4374,7 +4381,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
     </row>
   </sheetData>
@@ -4392,12 +4399,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
         <v>173</v>
       </c>
@@ -4405,7 +4412,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
         <v>175</v>
       </c>
@@ -4413,7 +4420,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
         <v>177</v>
       </c>
@@ -4421,7 +4428,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>178</v>
       </c>
@@ -4429,7 +4436,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="8" t="s">
         <v>179</v>
       </c>
@@ -4437,7 +4444,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
         <v>180</v>
       </c>
@@ -4455,22 +4462,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13FF55E-BEB2-41A1-BD4E-4B1DA37AE321}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
@@ -4484,7 +4491,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>201</v>
       </c>
@@ -4498,7 +4505,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>205</v>
       </c>
@@ -4512,7 +4519,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>207</v>
       </c>
@@ -4526,10 +4533,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>210</v>
       </c>
@@ -4543,7 +4550,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>214</v>
       </c>
@@ -4557,7 +4564,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>217</v>
       </c>
@@ -4571,7 +4578,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>221</v>
       </c>
@@ -4585,7 +4592,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>224</v>
       </c>
@@ -4599,7 +4606,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>227</v>
       </c>
@@ -4613,7 +4620,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>230</v>
       </c>
@@ -4627,7 +4634,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>233</v>
       </c>
@@ -4637,17 +4644,17 @@
       <c r="C14" t="s">
         <v>231</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>234</v>
       </c>
@@ -4661,7 +4668,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>238</v>
       </c>
@@ -4675,7 +4682,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>240</v>
       </c>
@@ -4689,7 +4696,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>242</v>
       </c>
@@ -4703,7 +4710,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>244</v>
       </c>
@@ -4717,7 +4724,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>246</v>
       </c>
@@ -4731,7 +4738,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>248</v>
       </c>
@@ -4745,7 +4752,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>251</v>
       </c>
@@ -4759,10 +4766,10 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>253</v>
       </c>
@@ -4770,7 +4777,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>255</v>
       </c>
@@ -4778,7 +4785,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>257</v>
       </c>
@@ -4792,7 +4799,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>261</v>
       </c>
@@ -4806,7 +4813,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>265</v>
       </c>
@@ -4817,7 +4824,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>268</v>
       </c>
@@ -4828,7 +4835,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>270</v>
       </c>
@@ -4836,7 +4843,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>272</v>
       </c>
@@ -4850,7 +4857,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>275</v>
       </c>
@@ -4864,7 +4871,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>278</v>
       </c>
@@ -4872,19 +4879,19 @@
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>282</v>
       </c>
@@ -4910,18 +4917,18 @@
       <selection activeCell="A25" sqref="A25:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
@@ -4935,7 +4942,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>201</v>
       </c>
@@ -4949,7 +4956,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>205</v>
       </c>
@@ -4963,7 +4970,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>207</v>
       </c>
@@ -4977,10 +4984,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>210</v>
       </c>
@@ -4994,7 +5001,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>214</v>
       </c>
@@ -5008,7 +5015,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>217</v>
       </c>
@@ -5022,7 +5029,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>221</v>
       </c>
@@ -5036,7 +5043,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>224</v>
       </c>
@@ -5050,7 +5057,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>227</v>
       </c>
@@ -5064,7 +5071,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>230</v>
       </c>
@@ -5078,7 +5085,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>233</v>
       </c>
@@ -5092,13 +5099,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>234</v>
       </c>
@@ -5112,7 +5119,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>238</v>
       </c>
@@ -5126,7 +5133,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>240</v>
       </c>
@@ -5140,7 +5147,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>242</v>
       </c>
@@ -5154,7 +5161,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>244</v>
       </c>
@@ -5168,7 +5175,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>246</v>
       </c>
@@ -5182,7 +5189,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>248</v>
       </c>
@@ -5196,7 +5203,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>251</v>
       </c>
@@ -5210,10 +5217,10 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>282</v>
       </c>
